--- a/Code/Results/Cases/Case_0_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9474359034815375</v>
+        <v>0.9474359034815391</v>
       </c>
       <c r="D2">
-        <v>0.9606515409529326</v>
+        <v>0.9606515409529344</v>
       </c>
       <c r="E2">
-        <v>0.9622477316638987</v>
+        <v>0.9622477316639</v>
       </c>
       <c r="F2">
-        <v>0.9671636615802119</v>
+        <v>0.9671636615802132</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03788493326575</v>
+        <v>1.037884933265751</v>
       </c>
       <c r="J2">
-        <v>0.9713111099959747</v>
+        <v>0.9713111099959763</v>
       </c>
       <c r="K2">
-        <v>0.9726877150228528</v>
+        <v>0.9726877150228543</v>
       </c>
       <c r="L2">
-        <v>0.9742593346441374</v>
+        <v>0.9742593346441389</v>
       </c>
       <c r="M2">
-        <v>0.9791002401153306</v>
+        <v>0.9791002401153319</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9614068975026397</v>
+        <v>0.9614068975026377</v>
       </c>
       <c r="D3">
-        <v>0.9730504890195716</v>
+        <v>0.9730504890195698</v>
       </c>
       <c r="E3">
-        <v>0.9741452993238238</v>
+        <v>0.9741452993238218</v>
       </c>
       <c r="F3">
-        <v>0.9801278093796536</v>
+        <v>0.9801278093796516</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.041039152769804</v>
       </c>
       <c r="J3">
-        <v>0.9830079506864381</v>
+        <v>0.9830079506864361</v>
       </c>
       <c r="K3">
-        <v>0.9840402161635493</v>
+        <v>0.9840402161635475</v>
       </c>
       <c r="L3">
-        <v>0.9851200454210604</v>
+        <v>0.9851200454210584</v>
       </c>
       <c r="M3">
-        <v>0.9910214357487354</v>
+        <v>0.9910214357487334</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9699433426251614</v>
+        <v>0.9699433426251615</v>
       </c>
       <c r="D4">
-        <v>0.9806351319493556</v>
+        <v>0.9806351319493555</v>
       </c>
       <c r="E4">
-        <v>0.9814255035442426</v>
+        <v>0.9814255035442431</v>
       </c>
       <c r="F4">
-        <v>0.9880520352523547</v>
+        <v>0.988052035252355</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,13 +518,13 @@
         <v>0.9901484543223085</v>
       </c>
       <c r="K4">
-        <v>0.990973032660512</v>
+        <v>0.9909730326605121</v>
       </c>
       <c r="L4">
-        <v>0.9917533992951767</v>
+        <v>0.9917533992951769</v>
       </c>
       <c r="M4">
-        <v>0.9982968332274218</v>
+        <v>0.9982968332274216</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9734240093310988</v>
+        <v>0.9734240093310995</v>
       </c>
       <c r="D5">
-        <v>0.9837295091682473</v>
+        <v>0.9837295091682475</v>
       </c>
       <c r="E5">
-        <v>0.984396171589079</v>
+        <v>0.9843961715890793</v>
       </c>
       <c r="F5">
-        <v>0.9912833972024462</v>
+        <v>0.9912833972024463</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,13 +553,13 @@
         <v>1.043701698290694</v>
       </c>
       <c r="J5">
-        <v>0.9930581827891224</v>
+        <v>0.9930581827891229</v>
       </c>
       <c r="K5">
-        <v>0.9937987107456385</v>
+        <v>0.9937987107456389</v>
       </c>
       <c r="L5">
-        <v>0.9944572101049955</v>
+        <v>0.994457210104996</v>
       </c>
       <c r="M5">
         <v>1.001260901559739</v>
@@ -576,13 +576,13 @@
         <v>0.9740024164585166</v>
       </c>
       <c r="D6">
-        <v>0.9842438220939776</v>
+        <v>0.9842438220939775</v>
       </c>
       <c r="E6">
-        <v>0.9848899508860384</v>
+        <v>0.9848899508860383</v>
       </c>
       <c r="F6">
-        <v>0.9918203843348594</v>
+        <v>0.9918203843348595</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.043828488427826</v>
       </c>
       <c r="J6">
-        <v>0.9935416040545512</v>
+        <v>0.9935416040545511</v>
       </c>
       <c r="K6">
         <v>0.9942682015500665</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9699902610961583</v>
+        <v>0.9699902610961606</v>
       </c>
       <c r="D7">
-        <v>0.9806768365357512</v>
+        <v>0.9806768365357538</v>
       </c>
       <c r="E7">
-        <v>0.9814655389221353</v>
+        <v>0.9814655389221377</v>
       </c>
       <c r="F7">
-        <v>0.9880955923517082</v>
+        <v>0.9880955923517103</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042946301581672</v>
+        <v>1.042946301581673</v>
       </c>
       <c r="J7">
-        <v>0.990187683939654</v>
+        <v>0.9901876839396564</v>
       </c>
       <c r="K7">
-        <v>0.9910111268056802</v>
+        <v>0.9910111268056828</v>
       </c>
       <c r="L7">
-        <v>0.9917898497741127</v>
+        <v>0.9917898497741151</v>
       </c>
       <c r="M7">
-        <v>0.9983367981324787</v>
+        <v>0.9983367981324807</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9522700643601725</v>
+        <v>0.9522700643601704</v>
       </c>
       <c r="D8">
-        <v>0.9649396701651188</v>
+        <v>0.9649396701651168</v>
       </c>
       <c r="E8">
-        <v>0.9663619412356373</v>
+        <v>0.9663619412356355</v>
       </c>
       <c r="F8">
-        <v>0.9716485315811193</v>
+        <v>0.9716485315811172</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.03898265935866</v>
       </c>
       <c r="J8">
-        <v>0.9753596103237083</v>
+        <v>0.9753596103237064</v>
       </c>
       <c r="K8">
-        <v>0.9766164745669694</v>
+        <v>0.9766164745669675</v>
       </c>
       <c r="L8">
-        <v>0.9780176998514395</v>
+        <v>0.9780176998514377</v>
       </c>
       <c r="M8">
-        <v>0.9832267480462445</v>
+        <v>0.9832267480462428</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -690,13 +690,13 @@
         <v>0.9164667134734611</v>
       </c>
       <c r="D9">
-        <v>0.9332373992696643</v>
+        <v>0.9332373992696642</v>
       </c>
       <c r="E9">
-        <v>0.9359585424324328</v>
+        <v>0.9359585424324324</v>
       </c>
       <c r="F9">
-        <v>0.9384680617563124</v>
+        <v>0.9384680617563125</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.030731024759664</v>
       </c>
       <c r="J9">
-        <v>0.9453580933233834</v>
+        <v>0.9453580933233832</v>
       </c>
       <c r="K9">
-        <v>0.9475152450302338</v>
+        <v>0.9475152450302339</v>
       </c>
       <c r="L9">
-        <v>0.9501837708117755</v>
+        <v>0.9501837708117754</v>
       </c>
       <c r="M9">
-        <v>0.9526451187613261</v>
+        <v>0.9526451187613265</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8881332198081637</v>
+        <v>0.8881332198081625</v>
       </c>
       <c r="D10">
-        <v>0.9082534412972781</v>
+        <v>0.9082534412972768</v>
       </c>
       <c r="E10">
-        <v>0.912020066521209</v>
+        <v>0.912020066521208</v>
       </c>
       <c r="F10">
-        <v>0.9122953673923404</v>
+        <v>0.9122953673923394</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.024068020617345</v>
       </c>
       <c r="J10">
-        <v>0.9216142772962455</v>
+        <v>0.9216142772962442</v>
       </c>
       <c r="K10">
-        <v>0.9245034667900106</v>
+        <v>0.9245034667900091</v>
       </c>
       <c r="L10">
-        <v>0.9281829149340406</v>
+        <v>0.9281829149340395</v>
       </c>
       <c r="M10">
-        <v>0.9284518817956864</v>
+        <v>0.9284518817956854</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8743143095857889</v>
+        <v>0.8743143095857913</v>
       </c>
       <c r="D11">
-        <v>0.896106313794319</v>
+        <v>0.8961063137943213</v>
       </c>
       <c r="E11">
-        <v>0.9003885613561141</v>
+        <v>0.9003885613561163</v>
       </c>
       <c r="F11">
-        <v>0.899568236866327</v>
+        <v>0.8995682368663294</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.02079915985025</v>
       </c>
       <c r="J11">
-        <v>0.9100433203833915</v>
+        <v>0.9100433203833941</v>
       </c>
       <c r="K11">
-        <v>0.9132950164663626</v>
+        <v>0.9132950164663647</v>
       </c>
       <c r="L11">
-        <v>0.917469878082276</v>
+        <v>0.9174698780822779</v>
       </c>
       <c r="M11">
-        <v>0.9166700181072039</v>
+        <v>0.9166700181072063</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8688834575468489</v>
+        <v>0.8688834575468454</v>
       </c>
       <c r="D12">
-        <v>0.8913398847298583</v>
+        <v>0.8913398847298546</v>
       </c>
       <c r="E12">
-        <v>0.8958258163230203</v>
+        <v>0.8958258163230171</v>
       </c>
       <c r="F12">
-        <v>0.8945744030655304</v>
+        <v>0.8945744030655272</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019513195175093</v>
+        <v>1.019513195175092</v>
       </c>
       <c r="J12">
-        <v>0.9054986227589052</v>
+        <v>0.9054986227589015</v>
       </c>
       <c r="K12">
-        <v>0.9088937024650287</v>
+        <v>0.908893702465025</v>
       </c>
       <c r="L12">
-        <v>0.9132636703035356</v>
+        <v>0.9132636703035326</v>
       </c>
       <c r="M12">
-        <v>0.9120444484608172</v>
+        <v>0.912044448460814</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8700632385926093</v>
+        <v>0.8700632385926095</v>
       </c>
       <c r="D13">
-        <v>0.8923749623198958</v>
+        <v>0.8923749623198959</v>
       </c>
       <c r="E13">
         <v>0.8968165957647256</v>
       </c>
       <c r="F13">
-        <v>0.8956588454065828</v>
+        <v>0.895658845406583</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019792580640193</v>
+        <v>1.019792580640194</v>
       </c>
       <c r="J13">
-        <v>0.9064857508123272</v>
+        <v>0.9064857508123274</v>
       </c>
       <c r="K13">
-        <v>0.909849639260108</v>
+        <v>0.9098496392601082</v>
       </c>
       <c r="L13">
-        <v>0.9141772035089475</v>
+        <v>0.9141772035089476</v>
       </c>
       <c r="M13">
-        <v>0.9130490388563105</v>
+        <v>0.9130490388563107</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8738719502619328</v>
+        <v>0.8738719502619313</v>
       </c>
       <c r="D14">
-        <v>0.8957179135753157</v>
+        <v>0.8957179135753141</v>
       </c>
       <c r="E14">
-        <v>0.9000167296481352</v>
+        <v>0.9000167296481336</v>
       </c>
       <c r="F14">
-        <v>0.8991612989681008</v>
+        <v>0.8991612989680999</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.020694429059333</v>
       </c>
       <c r="J14">
-        <v>0.9096730777071196</v>
+        <v>0.909673077707118</v>
       </c>
       <c r="K14">
-        <v>0.9129364337894091</v>
+        <v>0.9129364337894077</v>
       </c>
       <c r="L14">
-        <v>0.91712717886969</v>
+        <v>0.9171271788696883</v>
       </c>
       <c r="M14">
-        <v>0.9162931423705704</v>
+        <v>0.9162931423705691</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8761767210985711</v>
+        <v>0.8761767210985709</v>
       </c>
       <c r="D15">
-        <v>0.897741855623675</v>
+        <v>0.8977418556236749</v>
       </c>
       <c r="E15">
-        <v>0.9019543897826361</v>
+        <v>0.9019543897826356</v>
       </c>
       <c r="F15">
-        <v>0.9012818510721758</v>
+        <v>0.9012818510721753</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021240053964571</v>
       </c>
       <c r="J15">
-        <v>0.9116022249844883</v>
+        <v>0.9116022249844877</v>
       </c>
       <c r="K15">
-        <v>0.9148048677414249</v>
+        <v>0.9148048677414246</v>
       </c>
       <c r="L15">
-        <v>0.9189128738119642</v>
+        <v>0.9189128738119637</v>
       </c>
       <c r="M15">
-        <v>0.9182569349092558</v>
+        <v>0.9182569349092554</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8890127271583168</v>
+        <v>0.8890127271583202</v>
       </c>
       <c r="D16">
-        <v>0.9090274335247973</v>
+        <v>0.9090274335248005</v>
       </c>
       <c r="E16">
-        <v>0.9127613698446481</v>
+        <v>0.9127613698446507</v>
       </c>
       <c r="F16">
-        <v>0.9131063109480265</v>
+        <v>0.9131063109480294</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024275801476376</v>
+        <v>1.024275801476377</v>
       </c>
       <c r="J16">
-        <v>0.922350996051287</v>
+        <v>0.9223509960512902</v>
       </c>
       <c r="K16">
-        <v>0.9252172302934895</v>
+        <v>0.9252172302934927</v>
       </c>
       <c r="L16">
-        <v>0.9288651989435488</v>
+        <v>0.9288651989435517</v>
       </c>
       <c r="M16">
-        <v>0.9292022457280189</v>
+        <v>0.9292022457280217</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.896611303546642</v>
+        <v>0.8966113035466406</v>
       </c>
       <c r="D17">
-        <v>0.9157186546068115</v>
+        <v>0.91571865460681</v>
       </c>
       <c r="E17">
-        <v>0.9191708050663908</v>
+        <v>0.9191708050663897</v>
       </c>
       <c r="F17">
-        <v>0.9201167935351473</v>
+        <v>0.9201167935351459</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.026068997168944</v>
       </c>
       <c r="J17">
-        <v>0.9287170578253618</v>
+        <v>0.9287170578253604</v>
       </c>
       <c r="K17">
-        <v>0.9313855676663322</v>
+        <v>0.9313855676663307</v>
       </c>
       <c r="L17">
-        <v>0.9347618263741646</v>
+        <v>0.9347618263741635</v>
       </c>
       <c r="M17">
-        <v>0.9356871503661769</v>
+        <v>0.9356871503661757</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9008992925383699</v>
+        <v>0.9008992925383702</v>
       </c>
       <c r="D18">
-        <v>0.9194979013402872</v>
+        <v>0.9194979013402875</v>
       </c>
       <c r="E18">
-        <v>0.922791534416971</v>
+        <v>0.9227915344169713</v>
       </c>
       <c r="F18">
-        <v>0.9240761407503498</v>
+        <v>0.9240761407503504</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.027079091599703</v>
       </c>
       <c r="J18">
-        <v>0.9323102719949764</v>
+        <v>0.932310271994977</v>
       </c>
       <c r="K18">
-        <v>0.9348676865126323</v>
+        <v>0.9348676865126326</v>
       </c>
       <c r="L18">
-        <v>0.9380908231197754</v>
+        <v>0.9380908231197759</v>
       </c>
       <c r="M18">
-        <v>0.9393481143055058</v>
+        <v>0.9393481143055061</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1070,13 +1070,13 @@
         <v>0.9023385021655047</v>
       </c>
       <c r="D19">
-        <v>0.9207668784002514</v>
+        <v>0.9207668784002512</v>
       </c>
       <c r="E19">
-        <v>0.9240073874315083</v>
+        <v>0.9240073874315079</v>
       </c>
       <c r="F19">
-        <v>0.9254055427542581</v>
+        <v>0.9254055427542579</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1088,13 +1088,13 @@
         <v>0.9335163877724694</v>
       </c>
       <c r="K19">
-        <v>0.9360365943699096</v>
+        <v>0.9360365943699093</v>
       </c>
       <c r="L19">
-        <v>0.9392083714952877</v>
+        <v>0.9392083714952876</v>
       </c>
       <c r="M19">
-        <v>0.9405770682731565</v>
+        <v>0.940577068273156</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8958113419622333</v>
+        <v>0.8958113419622327</v>
       </c>
       <c r="D20">
-        <v>0.9150138631407272</v>
+        <v>0.9150138631407264</v>
       </c>
       <c r="E20">
-        <v>0.918495626126145</v>
+        <v>0.9184956261261445</v>
       </c>
       <c r="F20">
-        <v>0.9193783943748999</v>
+        <v>0.9193783943748992</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.025880396247593</v>
       </c>
       <c r="J20">
-        <v>0.9280467667790648</v>
+        <v>0.9280467667790642</v>
       </c>
       <c r="K20">
-        <v>0.9307360414297772</v>
+        <v>0.9307360414297764</v>
       </c>
       <c r="L20">
-        <v>0.9341408830942011</v>
+        <v>0.9341408830942004</v>
       </c>
       <c r="M20">
-        <v>0.9350042717183262</v>
+        <v>0.9350042717183256</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8727592699470791</v>
+        <v>0.8727592699470781</v>
       </c>
       <c r="D21">
-        <v>0.8947410830576064</v>
+        <v>0.8947410830576052</v>
       </c>
       <c r="E21">
-        <v>0.8990815917784523</v>
+        <v>0.8990815917784512</v>
       </c>
       <c r="F21">
-        <v>0.8981378509606295</v>
+        <v>0.8981378509606283</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.020430982123677</v>
       </c>
       <c r="J21">
-        <v>0.9087418429913037</v>
+        <v>0.9087418429913025</v>
       </c>
       <c r="K21">
-        <v>0.9120345428277098</v>
+        <v>0.9120345428277088</v>
       </c>
       <c r="L21">
-        <v>0.9162652467885365</v>
+        <v>0.9162652467885353</v>
       </c>
       <c r="M21">
-        <v>0.9153452585205821</v>
+        <v>0.9153452585205809</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8564845807729912</v>
+        <v>0.8564845807729942</v>
       </c>
       <c r="D22">
-        <v>0.8804744344742904</v>
+        <v>0.8804744344742933</v>
       </c>
       <c r="E22">
-        <v>0.8854276258079938</v>
+        <v>0.8854276258079967</v>
       </c>
       <c r="F22">
-        <v>0.8831916924271748</v>
+        <v>0.8831916924271769</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.016577227309538</v>
       </c>
       <c r="J22">
-        <v>0.8951299662463997</v>
+        <v>0.8951299662464025</v>
       </c>
       <c r="K22">
-        <v>0.8988542661417492</v>
+        <v>0.8988542661417519</v>
       </c>
       <c r="L22">
-        <v>0.9036705154179706</v>
+        <v>0.9036705154179732</v>
       </c>
       <c r="M22">
-        <v>0.9014961400591849</v>
+        <v>0.9014961400591871</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8653112509585033</v>
+        <v>0.8653112509585041</v>
       </c>
       <c r="D23">
-        <v>0.8882070779238294</v>
+        <v>0.88820707792383</v>
       </c>
       <c r="E23">
-        <v>0.8928273095021658</v>
+        <v>0.8928273095021663</v>
       </c>
       <c r="F23">
-        <v>0.8912922654495249</v>
+        <v>0.8912922654495253</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.018667224146042</v>
       </c>
       <c r="J23">
-        <v>0.9025102710298551</v>
+        <v>0.9025102710298557</v>
       </c>
       <c r="K23">
-        <v>0.9059999375689394</v>
+        <v>0.9059999375689402</v>
       </c>
       <c r="L23">
-        <v>0.910498362422315</v>
+        <v>0.9104983624223155</v>
       </c>
       <c r="M23">
-        <v>0.9090035979145776</v>
+        <v>0.9090035979145781</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8961732510445074</v>
+        <v>0.89617325104451</v>
       </c>
       <c r="D24">
-        <v>0.9153327062906785</v>
+        <v>0.915332706290681</v>
       </c>
       <c r="E24">
-        <v>0.9188010707806149</v>
+        <v>0.918801070780617</v>
       </c>
       <c r="F24">
-        <v>0.9197124421533389</v>
+        <v>0.9197124421533415</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025965726673115</v>
+        <v>1.025965726673116</v>
       </c>
       <c r="J24">
-        <v>0.9283500095925785</v>
+        <v>0.928350009592581</v>
       </c>
       <c r="K24">
-        <v>0.9310298885673095</v>
+        <v>0.9310298885673117</v>
       </c>
       <c r="L24">
-        <v>0.9344217984237136</v>
+        <v>0.9344217984237159</v>
       </c>
       <c r="M24">
-        <v>0.9353132071689801</v>
+        <v>0.9353132071689825</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.926383646314593</v>
+        <v>0.926383646314592</v>
       </c>
       <c r="D25">
-        <v>0.9420046838329684</v>
+        <v>0.9420046838329676</v>
       </c>
       <c r="E25">
-        <v>0.9443635770539789</v>
+        <v>0.9443635770539783</v>
       </c>
       <c r="F25">
-        <v>0.9476488231201415</v>
+        <v>0.9476488231201409</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033041079332582</v>
+        <v>1.033041079332581</v>
       </c>
       <c r="J25">
-        <v>0.9536705595065872</v>
+        <v>0.9536705595065864</v>
       </c>
       <c r="K25">
-        <v>0.9555753730568086</v>
+        <v>0.9555753730568077</v>
       </c>
       <c r="L25">
-        <v>0.9578916882468562</v>
+        <v>0.9578916882468557</v>
       </c>
       <c r="M25">
-        <v>0.9611180941072146</v>
+        <v>0.9611180941072139</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9474359034815391</v>
+        <v>0.9474359034815375</v>
       </c>
       <c r="D2">
-        <v>0.9606515409529344</v>
+        <v>0.9606515409529326</v>
       </c>
       <c r="E2">
-        <v>0.9622477316639</v>
+        <v>0.9622477316638987</v>
       </c>
       <c r="F2">
-        <v>0.9671636615802132</v>
+        <v>0.9671636615802119</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037884933265751</v>
+        <v>1.03788493326575</v>
       </c>
       <c r="J2">
-        <v>0.9713111099959763</v>
+        <v>0.9713111099959747</v>
       </c>
       <c r="K2">
-        <v>0.9726877150228543</v>
+        <v>0.9726877150228528</v>
       </c>
       <c r="L2">
-        <v>0.9742593346441389</v>
+        <v>0.9742593346441374</v>
       </c>
       <c r="M2">
-        <v>0.9791002401153319</v>
+        <v>0.9791002401153306</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9614068975026377</v>
+        <v>0.9614068975026397</v>
       </c>
       <c r="D3">
-        <v>0.9730504890195698</v>
+        <v>0.9730504890195716</v>
       </c>
       <c r="E3">
-        <v>0.9741452993238218</v>
+        <v>0.9741452993238238</v>
       </c>
       <c r="F3">
-        <v>0.9801278093796516</v>
+        <v>0.9801278093796536</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.041039152769804</v>
       </c>
       <c r="J3">
-        <v>0.9830079506864361</v>
+        <v>0.9830079506864381</v>
       </c>
       <c r="K3">
-        <v>0.9840402161635475</v>
+        <v>0.9840402161635493</v>
       </c>
       <c r="L3">
-        <v>0.9851200454210584</v>
+        <v>0.9851200454210604</v>
       </c>
       <c r="M3">
-        <v>0.9910214357487334</v>
+        <v>0.9910214357487354</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9699433426251615</v>
+        <v>0.9699433426251614</v>
       </c>
       <c r="D4">
-        <v>0.9806351319493555</v>
+        <v>0.9806351319493556</v>
       </c>
       <c r="E4">
-        <v>0.9814255035442431</v>
+        <v>0.9814255035442426</v>
       </c>
       <c r="F4">
-        <v>0.988052035252355</v>
+        <v>0.9880520352523547</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,13 +518,13 @@
         <v>0.9901484543223085</v>
       </c>
       <c r="K4">
-        <v>0.9909730326605121</v>
+        <v>0.990973032660512</v>
       </c>
       <c r="L4">
-        <v>0.9917533992951769</v>
+        <v>0.9917533992951767</v>
       </c>
       <c r="M4">
-        <v>0.9982968332274216</v>
+        <v>0.9982968332274218</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9734240093310995</v>
+        <v>0.9734240093310988</v>
       </c>
       <c r="D5">
-        <v>0.9837295091682475</v>
+        <v>0.9837295091682473</v>
       </c>
       <c r="E5">
-        <v>0.9843961715890793</v>
+        <v>0.984396171589079</v>
       </c>
       <c r="F5">
-        <v>0.9912833972024463</v>
+        <v>0.9912833972024462</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,13 +553,13 @@
         <v>1.043701698290694</v>
       </c>
       <c r="J5">
-        <v>0.9930581827891229</v>
+        <v>0.9930581827891224</v>
       </c>
       <c r="K5">
-        <v>0.9937987107456389</v>
+        <v>0.9937987107456385</v>
       </c>
       <c r="L5">
-        <v>0.994457210104996</v>
+        <v>0.9944572101049955</v>
       </c>
       <c r="M5">
         <v>1.001260901559739</v>
@@ -576,13 +576,13 @@
         <v>0.9740024164585166</v>
       </c>
       <c r="D6">
-        <v>0.9842438220939775</v>
+        <v>0.9842438220939776</v>
       </c>
       <c r="E6">
-        <v>0.9848899508860383</v>
+        <v>0.9848899508860384</v>
       </c>
       <c r="F6">
-        <v>0.9918203843348595</v>
+        <v>0.9918203843348594</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.043828488427826</v>
       </c>
       <c r="J6">
-        <v>0.9935416040545511</v>
+        <v>0.9935416040545512</v>
       </c>
       <c r="K6">
         <v>0.9942682015500665</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9699902610961606</v>
+        <v>0.9699902610961583</v>
       </c>
       <c r="D7">
-        <v>0.9806768365357538</v>
+        <v>0.9806768365357512</v>
       </c>
       <c r="E7">
-        <v>0.9814655389221377</v>
+        <v>0.9814655389221353</v>
       </c>
       <c r="F7">
-        <v>0.9880955923517103</v>
+        <v>0.9880955923517082</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042946301581673</v>
+        <v>1.042946301581672</v>
       </c>
       <c r="J7">
-        <v>0.9901876839396564</v>
+        <v>0.990187683939654</v>
       </c>
       <c r="K7">
-        <v>0.9910111268056828</v>
+        <v>0.9910111268056802</v>
       </c>
       <c r="L7">
-        <v>0.9917898497741151</v>
+        <v>0.9917898497741127</v>
       </c>
       <c r="M7">
-        <v>0.9983367981324807</v>
+        <v>0.9983367981324787</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9522700643601704</v>
+        <v>0.9522700643601725</v>
       </c>
       <c r="D8">
-        <v>0.9649396701651168</v>
+        <v>0.9649396701651188</v>
       </c>
       <c r="E8">
-        <v>0.9663619412356355</v>
+        <v>0.9663619412356373</v>
       </c>
       <c r="F8">
-        <v>0.9716485315811172</v>
+        <v>0.9716485315811193</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.03898265935866</v>
       </c>
       <c r="J8">
-        <v>0.9753596103237064</v>
+        <v>0.9753596103237083</v>
       </c>
       <c r="K8">
-        <v>0.9766164745669675</v>
+        <v>0.9766164745669694</v>
       </c>
       <c r="L8">
-        <v>0.9780176998514377</v>
+        <v>0.9780176998514395</v>
       </c>
       <c r="M8">
-        <v>0.9832267480462428</v>
+        <v>0.9832267480462445</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -690,13 +690,13 @@
         <v>0.9164667134734611</v>
       </c>
       <c r="D9">
-        <v>0.9332373992696642</v>
+        <v>0.9332373992696643</v>
       </c>
       <c r="E9">
-        <v>0.9359585424324324</v>
+        <v>0.9359585424324328</v>
       </c>
       <c r="F9">
-        <v>0.9384680617563125</v>
+        <v>0.9384680617563124</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.030731024759664</v>
       </c>
       <c r="J9">
-        <v>0.9453580933233832</v>
+        <v>0.9453580933233834</v>
       </c>
       <c r="K9">
-        <v>0.9475152450302339</v>
+        <v>0.9475152450302338</v>
       </c>
       <c r="L9">
-        <v>0.9501837708117754</v>
+        <v>0.9501837708117755</v>
       </c>
       <c r="M9">
-        <v>0.9526451187613265</v>
+        <v>0.9526451187613261</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8881332198081625</v>
+        <v>0.8881332198081637</v>
       </c>
       <c r="D10">
-        <v>0.9082534412972768</v>
+        <v>0.9082534412972781</v>
       </c>
       <c r="E10">
-        <v>0.912020066521208</v>
+        <v>0.912020066521209</v>
       </c>
       <c r="F10">
-        <v>0.9122953673923394</v>
+        <v>0.9122953673923404</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.024068020617345</v>
       </c>
       <c r="J10">
-        <v>0.9216142772962442</v>
+        <v>0.9216142772962455</v>
       </c>
       <c r="K10">
-        <v>0.9245034667900091</v>
+        <v>0.9245034667900106</v>
       </c>
       <c r="L10">
-        <v>0.9281829149340395</v>
+        <v>0.9281829149340406</v>
       </c>
       <c r="M10">
-        <v>0.9284518817956854</v>
+        <v>0.9284518817956864</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8743143095857913</v>
+        <v>0.8743143095857889</v>
       </c>
       <c r="D11">
-        <v>0.8961063137943213</v>
+        <v>0.896106313794319</v>
       </c>
       <c r="E11">
-        <v>0.9003885613561163</v>
+        <v>0.9003885613561141</v>
       </c>
       <c r="F11">
-        <v>0.8995682368663294</v>
+        <v>0.899568236866327</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.02079915985025</v>
       </c>
       <c r="J11">
-        <v>0.9100433203833941</v>
+        <v>0.9100433203833915</v>
       </c>
       <c r="K11">
-        <v>0.9132950164663647</v>
+        <v>0.9132950164663626</v>
       </c>
       <c r="L11">
-        <v>0.9174698780822779</v>
+        <v>0.917469878082276</v>
       </c>
       <c r="M11">
-        <v>0.9166700181072063</v>
+        <v>0.9166700181072039</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8688834575468454</v>
+        <v>0.8688834575468489</v>
       </c>
       <c r="D12">
-        <v>0.8913398847298546</v>
+        <v>0.8913398847298583</v>
       </c>
       <c r="E12">
-        <v>0.8958258163230171</v>
+        <v>0.8958258163230203</v>
       </c>
       <c r="F12">
-        <v>0.8945744030655272</v>
+        <v>0.8945744030655304</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019513195175092</v>
+        <v>1.019513195175093</v>
       </c>
       <c r="J12">
-        <v>0.9054986227589015</v>
+        <v>0.9054986227589052</v>
       </c>
       <c r="K12">
-        <v>0.908893702465025</v>
+        <v>0.9088937024650287</v>
       </c>
       <c r="L12">
-        <v>0.9132636703035326</v>
+        <v>0.9132636703035356</v>
       </c>
       <c r="M12">
-        <v>0.912044448460814</v>
+        <v>0.9120444484608172</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8700632385926095</v>
+        <v>0.8700632385926093</v>
       </c>
       <c r="D13">
-        <v>0.8923749623198959</v>
+        <v>0.8923749623198958</v>
       </c>
       <c r="E13">
         <v>0.8968165957647256</v>
       </c>
       <c r="F13">
-        <v>0.895658845406583</v>
+        <v>0.8956588454065828</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019792580640194</v>
+        <v>1.019792580640193</v>
       </c>
       <c r="J13">
-        <v>0.9064857508123274</v>
+        <v>0.9064857508123272</v>
       </c>
       <c r="K13">
-        <v>0.9098496392601082</v>
+        <v>0.909849639260108</v>
       </c>
       <c r="L13">
-        <v>0.9141772035089476</v>
+        <v>0.9141772035089475</v>
       </c>
       <c r="M13">
-        <v>0.9130490388563107</v>
+        <v>0.9130490388563105</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8738719502619313</v>
+        <v>0.8738719502619328</v>
       </c>
       <c r="D14">
-        <v>0.8957179135753141</v>
+        <v>0.8957179135753157</v>
       </c>
       <c r="E14">
-        <v>0.9000167296481336</v>
+        <v>0.9000167296481352</v>
       </c>
       <c r="F14">
-        <v>0.8991612989680999</v>
+        <v>0.8991612989681008</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.020694429059333</v>
       </c>
       <c r="J14">
-        <v>0.909673077707118</v>
+        <v>0.9096730777071196</v>
       </c>
       <c r="K14">
-        <v>0.9129364337894077</v>
+        <v>0.9129364337894091</v>
       </c>
       <c r="L14">
-        <v>0.9171271788696883</v>
+        <v>0.91712717886969</v>
       </c>
       <c r="M14">
-        <v>0.9162931423705691</v>
+        <v>0.9162931423705704</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8761767210985709</v>
+        <v>0.8761767210985711</v>
       </c>
       <c r="D15">
-        <v>0.8977418556236749</v>
+        <v>0.897741855623675</v>
       </c>
       <c r="E15">
-        <v>0.9019543897826356</v>
+        <v>0.9019543897826361</v>
       </c>
       <c r="F15">
-        <v>0.9012818510721753</v>
+        <v>0.9012818510721758</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021240053964571</v>
       </c>
       <c r="J15">
-        <v>0.9116022249844877</v>
+        <v>0.9116022249844883</v>
       </c>
       <c r="K15">
-        <v>0.9148048677414246</v>
+        <v>0.9148048677414249</v>
       </c>
       <c r="L15">
-        <v>0.9189128738119637</v>
+        <v>0.9189128738119642</v>
       </c>
       <c r="M15">
-        <v>0.9182569349092554</v>
+        <v>0.9182569349092558</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8890127271583202</v>
+        <v>0.8890127271583168</v>
       </c>
       <c r="D16">
-        <v>0.9090274335248005</v>
+        <v>0.9090274335247973</v>
       </c>
       <c r="E16">
-        <v>0.9127613698446507</v>
+        <v>0.9127613698446481</v>
       </c>
       <c r="F16">
-        <v>0.9131063109480294</v>
+        <v>0.9131063109480265</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024275801476377</v>
+        <v>1.024275801476376</v>
       </c>
       <c r="J16">
-        <v>0.9223509960512902</v>
+        <v>0.922350996051287</v>
       </c>
       <c r="K16">
-        <v>0.9252172302934927</v>
+        <v>0.9252172302934895</v>
       </c>
       <c r="L16">
-        <v>0.9288651989435517</v>
+        <v>0.9288651989435488</v>
       </c>
       <c r="M16">
-        <v>0.9292022457280217</v>
+        <v>0.9292022457280189</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8966113035466406</v>
+        <v>0.896611303546642</v>
       </c>
       <c r="D17">
-        <v>0.91571865460681</v>
+        <v>0.9157186546068115</v>
       </c>
       <c r="E17">
-        <v>0.9191708050663897</v>
+        <v>0.9191708050663908</v>
       </c>
       <c r="F17">
-        <v>0.9201167935351459</v>
+        <v>0.9201167935351473</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.026068997168944</v>
       </c>
       <c r="J17">
-        <v>0.9287170578253604</v>
+        <v>0.9287170578253618</v>
       </c>
       <c r="K17">
-        <v>0.9313855676663307</v>
+        <v>0.9313855676663322</v>
       </c>
       <c r="L17">
-        <v>0.9347618263741635</v>
+        <v>0.9347618263741646</v>
       </c>
       <c r="M17">
-        <v>0.9356871503661757</v>
+        <v>0.9356871503661769</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9008992925383702</v>
+        <v>0.9008992925383699</v>
       </c>
       <c r="D18">
-        <v>0.9194979013402875</v>
+        <v>0.9194979013402872</v>
       </c>
       <c r="E18">
-        <v>0.9227915344169713</v>
+        <v>0.922791534416971</v>
       </c>
       <c r="F18">
-        <v>0.9240761407503504</v>
+        <v>0.9240761407503498</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.027079091599703</v>
       </c>
       <c r="J18">
-        <v>0.932310271994977</v>
+        <v>0.9323102719949764</v>
       </c>
       <c r="K18">
-        <v>0.9348676865126326</v>
+        <v>0.9348676865126323</v>
       </c>
       <c r="L18">
-        <v>0.9380908231197759</v>
+        <v>0.9380908231197754</v>
       </c>
       <c r="M18">
-        <v>0.9393481143055061</v>
+        <v>0.9393481143055058</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1070,13 +1070,13 @@
         <v>0.9023385021655047</v>
       </c>
       <c r="D19">
-        <v>0.9207668784002512</v>
+        <v>0.9207668784002514</v>
       </c>
       <c r="E19">
-        <v>0.9240073874315079</v>
+        <v>0.9240073874315083</v>
       </c>
       <c r="F19">
-        <v>0.9254055427542579</v>
+        <v>0.9254055427542581</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1088,13 +1088,13 @@
         <v>0.9335163877724694</v>
       </c>
       <c r="K19">
-        <v>0.9360365943699093</v>
+        <v>0.9360365943699096</v>
       </c>
       <c r="L19">
-        <v>0.9392083714952876</v>
+        <v>0.9392083714952877</v>
       </c>
       <c r="M19">
-        <v>0.940577068273156</v>
+        <v>0.9405770682731565</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8958113419622327</v>
+        <v>0.8958113419622333</v>
       </c>
       <c r="D20">
-        <v>0.9150138631407264</v>
+        <v>0.9150138631407272</v>
       </c>
       <c r="E20">
-        <v>0.9184956261261445</v>
+        <v>0.918495626126145</v>
       </c>
       <c r="F20">
-        <v>0.9193783943748992</v>
+        <v>0.9193783943748999</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.025880396247593</v>
       </c>
       <c r="J20">
-        <v>0.9280467667790642</v>
+        <v>0.9280467667790648</v>
       </c>
       <c r="K20">
-        <v>0.9307360414297764</v>
+        <v>0.9307360414297772</v>
       </c>
       <c r="L20">
-        <v>0.9341408830942004</v>
+        <v>0.9341408830942011</v>
       </c>
       <c r="M20">
-        <v>0.9350042717183256</v>
+        <v>0.9350042717183262</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8727592699470781</v>
+        <v>0.8727592699470791</v>
       </c>
       <c r="D21">
-        <v>0.8947410830576052</v>
+        <v>0.8947410830576064</v>
       </c>
       <c r="E21">
-        <v>0.8990815917784512</v>
+        <v>0.8990815917784523</v>
       </c>
       <c r="F21">
-        <v>0.8981378509606283</v>
+        <v>0.8981378509606295</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.020430982123677</v>
       </c>
       <c r="J21">
-        <v>0.9087418429913025</v>
+        <v>0.9087418429913037</v>
       </c>
       <c r="K21">
-        <v>0.9120345428277088</v>
+        <v>0.9120345428277098</v>
       </c>
       <c r="L21">
-        <v>0.9162652467885353</v>
+        <v>0.9162652467885365</v>
       </c>
       <c r="M21">
-        <v>0.9153452585205809</v>
+        <v>0.9153452585205821</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8564845807729942</v>
+        <v>0.8564845807729912</v>
       </c>
       <c r="D22">
-        <v>0.8804744344742933</v>
+        <v>0.8804744344742904</v>
       </c>
       <c r="E22">
-        <v>0.8854276258079967</v>
+        <v>0.8854276258079938</v>
       </c>
       <c r="F22">
-        <v>0.8831916924271769</v>
+        <v>0.8831916924271748</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.016577227309538</v>
       </c>
       <c r="J22">
-        <v>0.8951299662464025</v>
+        <v>0.8951299662463997</v>
       </c>
       <c r="K22">
-        <v>0.8988542661417519</v>
+        <v>0.8988542661417492</v>
       </c>
       <c r="L22">
-        <v>0.9036705154179732</v>
+        <v>0.9036705154179706</v>
       </c>
       <c r="M22">
-        <v>0.9014961400591871</v>
+        <v>0.9014961400591849</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8653112509585041</v>
+        <v>0.8653112509585033</v>
       </c>
       <c r="D23">
-        <v>0.88820707792383</v>
+        <v>0.8882070779238294</v>
       </c>
       <c r="E23">
-        <v>0.8928273095021663</v>
+        <v>0.8928273095021658</v>
       </c>
       <c r="F23">
-        <v>0.8912922654495253</v>
+        <v>0.8912922654495249</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.018667224146042</v>
       </c>
       <c r="J23">
-        <v>0.9025102710298557</v>
+        <v>0.9025102710298551</v>
       </c>
       <c r="K23">
-        <v>0.9059999375689402</v>
+        <v>0.9059999375689394</v>
       </c>
       <c r="L23">
-        <v>0.9104983624223155</v>
+        <v>0.910498362422315</v>
       </c>
       <c r="M23">
-        <v>0.9090035979145781</v>
+        <v>0.9090035979145776</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.89617325104451</v>
+        <v>0.8961732510445074</v>
       </c>
       <c r="D24">
-        <v>0.915332706290681</v>
+        <v>0.9153327062906785</v>
       </c>
       <c r="E24">
-        <v>0.918801070780617</v>
+        <v>0.9188010707806149</v>
       </c>
       <c r="F24">
-        <v>0.9197124421533415</v>
+        <v>0.9197124421533389</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025965726673116</v>
+        <v>1.025965726673115</v>
       </c>
       <c r="J24">
-        <v>0.928350009592581</v>
+        <v>0.9283500095925785</v>
       </c>
       <c r="K24">
-        <v>0.9310298885673117</v>
+        <v>0.9310298885673095</v>
       </c>
       <c r="L24">
-        <v>0.9344217984237159</v>
+        <v>0.9344217984237136</v>
       </c>
       <c r="M24">
-        <v>0.9353132071689825</v>
+        <v>0.9353132071689801</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.926383646314592</v>
+        <v>0.926383646314593</v>
       </c>
       <c r="D25">
-        <v>0.9420046838329676</v>
+        <v>0.9420046838329684</v>
       </c>
       <c r="E25">
-        <v>0.9443635770539783</v>
+        <v>0.9443635770539789</v>
       </c>
       <c r="F25">
-        <v>0.9476488231201409</v>
+        <v>0.9476488231201415</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033041079332581</v>
+        <v>1.033041079332582</v>
       </c>
       <c r="J25">
-        <v>0.9536705595065864</v>
+        <v>0.9536705595065872</v>
       </c>
       <c r="K25">
-        <v>0.9555753730568077</v>
+        <v>0.9555753730568086</v>
       </c>
       <c r="L25">
-        <v>0.9578916882468557</v>
+        <v>0.9578916882468562</v>
       </c>
       <c r="M25">
-        <v>0.9611180941072139</v>
+        <v>0.9611180941072146</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9474359034815375</v>
+        <v>0.9507064837453895</v>
       </c>
       <c r="D2">
-        <v>0.9606515409529326</v>
+        <v>0.9636358427705568</v>
       </c>
       <c r="E2">
-        <v>0.9622477316638987</v>
+        <v>0.9650542409069043</v>
       </c>
       <c r="F2">
-        <v>0.9671636615802119</v>
+        <v>0.9698948748637709</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03788493326575</v>
+        <v>1.038550512708892</v>
       </c>
       <c r="J2">
-        <v>0.9713111099959747</v>
+        <v>0.9744686150882725</v>
       </c>
       <c r="K2">
-        <v>0.9726877150228528</v>
+        <v>0.975626162167749</v>
       </c>
       <c r="L2">
-        <v>0.9742593346441374</v>
+        <v>0.9770228929826053</v>
       </c>
       <c r="M2">
-        <v>0.9791002401153306</v>
+        <v>0.9817901894598822</v>
+      </c>
+      <c r="N2">
+        <v>0.9758524722948104</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9614068975026397</v>
+        <v>0.9646239049340692</v>
       </c>
       <c r="D3">
-        <v>0.9730504890195716</v>
+        <v>0.9759913479164858</v>
       </c>
       <c r="E3">
-        <v>0.9741452993238238</v>
+        <v>0.9769101918352363</v>
       </c>
       <c r="F3">
-        <v>0.9801278093796536</v>
+        <v>0.982810600867985</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041039152769804</v>
+        <v>1.041693255210037</v>
       </c>
       <c r="J3">
-        <v>0.9830079506864381</v>
+        <v>0.9861277237199428</v>
       </c>
       <c r="K3">
-        <v>0.9840402161635493</v>
+        <v>0.9869409290476348</v>
       </c>
       <c r="L3">
-        <v>0.9851200454210604</v>
+        <v>0.987847292071949</v>
       </c>
       <c r="M3">
-        <v>0.9910214357487354</v>
+        <v>0.9936682528517126</v>
+      </c>
+      <c r="N3">
+        <v>0.987528138198056</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9699433426251614</v>
+        <v>0.9731312313952627</v>
       </c>
       <c r="D4">
-        <v>0.9806351319493556</v>
+        <v>0.9835524808993569</v>
       </c>
       <c r="E4">
-        <v>0.9814255035442426</v>
+        <v>0.9841678512800479</v>
       </c>
       <c r="F4">
-        <v>0.9880520352523547</v>
+        <v>0.990708381680197</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042935948599935</v>
+        <v>1.043583858496679</v>
       </c>
       <c r="J4">
-        <v>0.9901484543223085</v>
+        <v>0.9932481428293443</v>
       </c>
       <c r="K4">
-        <v>0.990973032660512</v>
+        <v>0.9938535518151762</v>
       </c>
       <c r="L4">
-        <v>0.9917533992951767</v>
+        <v>0.9944611882893174</v>
       </c>
       <c r="M4">
-        <v>0.9982968332274218</v>
+        <v>1.000920257220252</v>
+      </c>
+      <c r="N4">
+        <v>0.9946586691193163</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9734240093310988</v>
+        <v>0.9766007636926065</v>
       </c>
       <c r="D5">
-        <v>0.9837295091682473</v>
+        <v>0.9866378934172678</v>
       </c>
       <c r="E5">
-        <v>0.984396171589079</v>
+        <v>0.9871299175675946</v>
       </c>
       <c r="F5">
-        <v>0.9912833972024462</v>
+        <v>0.9939296050437643</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043701698290694</v>
+        <v>1.044347254261881</v>
       </c>
       <c r="J5">
-        <v>0.9930581827891224</v>
+        <v>0.9961502913369298</v>
       </c>
       <c r="K5">
-        <v>0.9937987107456385</v>
+        <v>0.9966715833404227</v>
       </c>
       <c r="L5">
-        <v>0.9944572101049955</v>
+        <v>0.9971576255415612</v>
       </c>
       <c r="M5">
-        <v>1.001260901559739</v>
+        <v>1.003875395741222</v>
+      </c>
+      <c r="N5">
+        <v>0.9975649390106637</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9740024164585166</v>
+        <v>0.9771773608139395</v>
       </c>
       <c r="D6">
-        <v>0.9842438220939776</v>
+        <v>0.9871507505411763</v>
       </c>
       <c r="E6">
-        <v>0.9848899508860384</v>
+        <v>0.9876222997119787</v>
       </c>
       <c r="F6">
-        <v>0.9918203843348594</v>
+        <v>0.9944649425798742</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043828488427826</v>
+        <v>1.044473662662659</v>
       </c>
       <c r="J6">
-        <v>0.9935416040545512</v>
+        <v>0.996632486294872</v>
       </c>
       <c r="K6">
-        <v>0.9942682015500665</v>
+        <v>0.9971398355645175</v>
       </c>
       <c r="L6">
-        <v>0.994906463001321</v>
+        <v>0.9976056837468475</v>
       </c>
       <c r="M6">
-        <v>1.001753310280286</v>
+        <v>1.004366353826551</v>
+      </c>
+      <c r="N6">
+        <v>0.9980478187407548</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9699902610961583</v>
+        <v>0.973177996988815</v>
       </c>
       <c r="D7">
-        <v>0.9806768365357512</v>
+        <v>0.9835940622960356</v>
       </c>
       <c r="E7">
-        <v>0.9814655389221353</v>
+        <v>0.9842077684759051</v>
       </c>
       <c r="F7">
-        <v>0.9880955923517082</v>
+        <v>0.990751799678347</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042946301581672</v>
+        <v>1.043594179097457</v>
       </c>
       <c r="J7">
-        <v>0.990187683939654</v>
+        <v>0.9932872679664768</v>
       </c>
       <c r="K7">
-        <v>0.9910111268056802</v>
+        <v>0.993891540665788</v>
       </c>
       <c r="L7">
-        <v>0.9917898497741127</v>
+        <v>0.9944975372560277</v>
       </c>
       <c r="M7">
-        <v>0.9983367981324787</v>
+        <v>1.000960099451054</v>
+      </c>
+      <c r="N7">
+        <v>0.9946978498186313</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9522700643601725</v>
+        <v>0.9555212386221651</v>
       </c>
       <c r="D8">
-        <v>0.9649396701651188</v>
+        <v>0.9679082117586114</v>
       </c>
       <c r="E8">
-        <v>0.9663619412356373</v>
+        <v>0.9691533584889707</v>
       </c>
       <c r="F8">
-        <v>0.9716485315811193</v>
+        <v>0.9743622368614453</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03898265935866</v>
+        <v>1.039644072937643</v>
       </c>
       <c r="J8">
-        <v>0.9753596103237083</v>
+        <v>0.9785033474032678</v>
       </c>
       <c r="K8">
-        <v>0.9766164745669694</v>
+        <v>0.979541178842304</v>
       </c>
       <c r="L8">
-        <v>0.9780176998514395</v>
+        <v>0.9807680396111531</v>
       </c>
       <c r="M8">
-        <v>0.9832267480462445</v>
+        <v>0.9859010637374687</v>
+      </c>
+      <c r="N8">
+        <v>0.9798929343924833</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9164667134734611</v>
+        <v>0.9198864487091878</v>
       </c>
       <c r="D9">
-        <v>0.9332373992696643</v>
+        <v>0.9363434081703326</v>
       </c>
       <c r="E9">
-        <v>0.9359585424324328</v>
+        <v>0.9388814307815982</v>
       </c>
       <c r="F9">
-        <v>0.9384680617563124</v>
+        <v>0.9413328511005113</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030731024759664</v>
+        <v>1.031428704775337</v>
       </c>
       <c r="J9">
-        <v>0.9453580933233834</v>
+        <v>0.9486240337253878</v>
       </c>
       <c r="K9">
-        <v>0.9475152450302338</v>
+        <v>0.950561226922147</v>
       </c>
       <c r="L9">
-        <v>0.9501837708117755</v>
+        <v>0.9530505853018602</v>
       </c>
       <c r="M9">
-        <v>0.9526451187613261</v>
+        <v>0.9554553276502948</v>
+      </c>
+      <c r="N9">
+        <v>0.9499711886619752</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8881332198081637</v>
+        <v>0.891735807657821</v>
       </c>
       <c r="D10">
-        <v>0.9082534412972781</v>
+        <v>0.9115093829043903</v>
       </c>
       <c r="E10">
-        <v>0.912020066521209</v>
+        <v>0.9150860394718934</v>
       </c>
       <c r="F10">
-        <v>0.9122953673923404</v>
+        <v>0.9153221197621183</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024068020617345</v>
+        <v>1.02480488744385</v>
       </c>
       <c r="J10">
-        <v>0.9216142772962455</v>
+        <v>0.9250169692036935</v>
       </c>
       <c r="K10">
-        <v>0.9245034667900106</v>
+        <v>0.9276839944591864</v>
       </c>
       <c r="L10">
-        <v>0.9281829149340406</v>
+        <v>0.9311786344272448</v>
       </c>
       <c r="M10">
-        <v>0.9284518817956864</v>
+        <v>0.9314093312441558</v>
+      </c>
+      <c r="N10">
+        <v>0.926330599400892</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8743143095857889</v>
+        <v>0.8780268798904302</v>
       </c>
       <c r="D11">
-        <v>0.896106313794319</v>
+        <v>0.8994526137888768</v>
       </c>
       <c r="E11">
-        <v>0.9003885613561141</v>
+        <v>0.9035406614510278</v>
       </c>
       <c r="F11">
-        <v>0.899568236866327</v>
+        <v>0.9026917106510415</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02079915985025</v>
+        <v>1.021559440974394</v>
       </c>
       <c r="J11">
-        <v>0.9100433203833915</v>
+        <v>0.9135294479290714</v>
       </c>
       <c r="K11">
-        <v>0.9132950164663626</v>
+        <v>0.916557283510027</v>
       </c>
       <c r="L11">
-        <v>0.917469878082276</v>
+        <v>0.9205438087953833</v>
       </c>
       <c r="M11">
-        <v>0.9166700181072039</v>
+        <v>0.9197158388785887</v>
+      </c>
+      <c r="N11">
+        <v>0.9148267645284232</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8688834575468489</v>
+        <v>0.8726437344267446</v>
       </c>
       <c r="D12">
-        <v>0.8913398847298583</v>
+        <v>0.8947254018461848</v>
       </c>
       <c r="E12">
-        <v>0.8958258163230203</v>
+        <v>0.8990152779085573</v>
       </c>
       <c r="F12">
-        <v>0.8945744030655304</v>
+        <v>0.8977396983357356</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019513195175093</v>
+        <v>1.02028359547827</v>
       </c>
       <c r="J12">
-        <v>0.9054986227589052</v>
+        <v>0.9090211378196872</v>
       </c>
       <c r="K12">
-        <v>0.9088937024650287</v>
+        <v>0.9121915564763473</v>
       </c>
       <c r="L12">
-        <v>0.9132636703035356</v>
+        <v>0.9163716336328661</v>
       </c>
       <c r="M12">
-        <v>0.9120444484608172</v>
+        <v>0.9151285541810538</v>
+      </c>
+      <c r="N12">
+        <v>0.9103120521015731</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8700632385926093</v>
+        <v>0.8738129202557019</v>
       </c>
       <c r="D13">
-        <v>0.8923749623198958</v>
+        <v>0.8957517687358596</v>
       </c>
       <c r="E13">
-        <v>0.8968165957647256</v>
+        <v>0.8999977597285844</v>
       </c>
       <c r="F13">
-        <v>0.8956588454065828</v>
+        <v>0.898814858910823</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019792580640193</v>
+        <v>1.020560735461131</v>
       </c>
       <c r="J13">
-        <v>0.9064857508123272</v>
+        <v>0.910000175532946</v>
       </c>
       <c r="K13">
-        <v>0.909849639260108</v>
+        <v>0.9131395837610121</v>
       </c>
       <c r="L13">
-        <v>0.9141772035089475</v>
+        <v>0.9172776036622931</v>
       </c>
       <c r="M13">
-        <v>0.9130490388563105</v>
+        <v>0.916124644289372</v>
+      </c>
+      <c r="N13">
+        <v>0.9112924801606819</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8738719502619328</v>
+        <v>0.8775883061396557</v>
       </c>
       <c r="D14">
-        <v>0.8957179135753157</v>
+        <v>0.8990673250838265</v>
       </c>
       <c r="E14">
-        <v>0.9000167296481352</v>
+        <v>0.903171794424791</v>
       </c>
       <c r="F14">
-        <v>0.8991612989681008</v>
+        <v>0.9022880940996284</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020694429059333</v>
+        <v>1.021455513960444</v>
       </c>
       <c r="J14">
-        <v>0.9096730777071196</v>
+        <v>0.9131620887364983</v>
       </c>
       <c r="K14">
-        <v>0.9129364337894091</v>
+        <v>0.9162015221061163</v>
       </c>
       <c r="L14">
-        <v>0.91712717886969</v>
+        <v>0.9202038080034881</v>
       </c>
       <c r="M14">
-        <v>0.9162931423705704</v>
+        <v>0.9193420021441111</v>
+      </c>
+      <c r="N14">
+        <v>0.9144588836436599</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8761767210985711</v>
+        <v>0.8798735426156734</v>
       </c>
       <c r="D15">
-        <v>0.897741855623675</v>
+        <v>0.9010752119057603</v>
       </c>
       <c r="E15">
-        <v>0.9019543897826361</v>
+        <v>0.9050941562195249</v>
       </c>
       <c r="F15">
-        <v>0.9012818510721758</v>
+        <v>0.9043915020682686</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021240053964571</v>
+        <v>1.021996989694603</v>
       </c>
       <c r="J15">
-        <v>0.9116022249844883</v>
+        <v>0.9150763642565826</v>
       </c>
       <c r="K15">
-        <v>0.9148048677414249</v>
+        <v>0.91805540277856</v>
       </c>
       <c r="L15">
-        <v>0.9189128738119642</v>
+        <v>0.9219755826685609</v>
       </c>
       <c r="M15">
-        <v>0.9182569349092558</v>
+        <v>0.9212901108432699</v>
+      </c>
+      <c r="N15">
+        <v>0.9163758776545531</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8890127271583168</v>
+        <v>0.8926088258334802</v>
       </c>
       <c r="D16">
-        <v>0.9090274335247973</v>
+        <v>0.9122780468028331</v>
       </c>
       <c r="E16">
-        <v>0.9127613698446481</v>
+        <v>0.915822261838916</v>
       </c>
       <c r="F16">
-        <v>0.9131063109480265</v>
+        <v>0.9161273419688156</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024275801476376</v>
+        <v>1.02501128303276</v>
       </c>
       <c r="J16">
-        <v>0.922350996051287</v>
+        <v>0.9257487879255136</v>
       </c>
       <c r="K16">
-        <v>0.9252172302934895</v>
+        <v>0.9283929506444559</v>
       </c>
       <c r="L16">
-        <v>0.9288651989435488</v>
+        <v>0.9318563165711578</v>
       </c>
       <c r="M16">
-        <v>0.9292022457280189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9321544763557627</v>
+      </c>
+      <c r="N16">
+        <v>0.927063457389238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.896611303546642</v>
+        <v>0.9001536688954597</v>
       </c>
       <c r="D17">
-        <v>0.9157186546068115</v>
+        <v>0.9189251636811321</v>
       </c>
       <c r="E17">
-        <v>0.9191708050663908</v>
+        <v>0.9221896301658682</v>
       </c>
       <c r="F17">
-        <v>0.9201167935351473</v>
+        <v>0.923090380188577</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026068997168944</v>
+        <v>1.026792991987343</v>
       </c>
       <c r="J17">
-        <v>0.9287170578253618</v>
+        <v>0.9320743902867299</v>
       </c>
       <c r="K17">
-        <v>0.9313855676663322</v>
+        <v>0.9345215601055411</v>
       </c>
       <c r="L17">
-        <v>0.9347618263741646</v>
+        <v>0.9377149040453001</v>
       </c>
       <c r="M17">
-        <v>0.9356871503661769</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9385961470451684</v>
+      </c>
+      <c r="N17">
+        <v>0.933398042831364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9008992925383699</v>
+        <v>0.9044130922762843</v>
       </c>
       <c r="D18">
-        <v>0.9194979013402872</v>
+        <v>0.9226809779524316</v>
       </c>
       <c r="E18">
-        <v>0.922791534416971</v>
+        <v>0.925788001511944</v>
       </c>
       <c r="F18">
-        <v>0.9240761407503498</v>
+        <v>0.9270244521467448</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027079091599703</v>
+        <v>1.027796968425182</v>
       </c>
       <c r="J18">
-        <v>0.9323102719949764</v>
+        <v>0.935646187273767</v>
       </c>
       <c r="K18">
-        <v>0.9348676865126323</v>
+        <v>0.9379826221753144</v>
       </c>
       <c r="L18">
-        <v>0.9380908231197754</v>
+        <v>0.9410237309486722</v>
       </c>
       <c r="M18">
-        <v>0.9393481143055058</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9422341131641593</v>
+      </c>
+      <c r="N18">
+        <v>0.9369749121798137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9023385021655047</v>
+        <v>0.9058429844917434</v>
       </c>
       <c r="D19">
-        <v>0.9207668784002514</v>
+        <v>0.923942314372313</v>
       </c>
       <c r="E19">
-        <v>0.9240073874315083</v>
+        <v>0.9269965629556799</v>
       </c>
       <c r="F19">
-        <v>0.9254055427542581</v>
+        <v>0.9283456015409625</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027417769644321</v>
+        <v>1.028133649270316</v>
       </c>
       <c r="J19">
-        <v>0.9335163877724694</v>
+        <v>0.9368453324816366</v>
       </c>
       <c r="K19">
-        <v>0.9360365943699096</v>
+        <v>0.9391446723719086</v>
       </c>
       <c r="L19">
-        <v>0.9392083714952877</v>
+        <v>0.9421347092659814</v>
       </c>
       <c r="M19">
-        <v>0.9405770682731565</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9434555638151964</v>
+      </c>
+      <c r="N19">
+        <v>0.9381757603114219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8958113419622333</v>
+        <v>0.8993591731903471</v>
       </c>
       <c r="D20">
-        <v>0.9150138631407272</v>
+        <v>0.9182248571007061</v>
       </c>
       <c r="E20">
-        <v>0.918495626126145</v>
+        <v>0.9215187298114933</v>
       </c>
       <c r="F20">
-        <v>0.9193783943748999</v>
+        <v>0.9223568129963612</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025880396247593</v>
+        <v>1.026605560820358</v>
       </c>
       <c r="J20">
-        <v>0.9280467667790648</v>
+        <v>0.9314082049405699</v>
       </c>
       <c r="K20">
-        <v>0.9307360414297772</v>
+        <v>0.9338760682561121</v>
       </c>
       <c r="L20">
-        <v>0.9341408830942011</v>
+        <v>0.937097824583725</v>
       </c>
       <c r="M20">
-        <v>0.9350042717183262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9379176678356639</v>
+      </c>
+      <c r="N20">
+        <v>0.9327309114255995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8727592699470791</v>
+        <v>0.8764852251351567</v>
       </c>
       <c r="D21">
-        <v>0.8947410830576064</v>
+        <v>0.8980983849596471</v>
       </c>
       <c r="E21">
-        <v>0.8990815917784523</v>
+        <v>0.9022441742899149</v>
       </c>
       <c r="F21">
-        <v>0.8981378509606295</v>
+        <v>0.9012730660631325</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020430982123677</v>
+        <v>1.021194104583175</v>
       </c>
       <c r="J21">
-        <v>0.9087418429913037</v>
+        <v>0.9122381689556258</v>
       </c>
       <c r="K21">
-        <v>0.9120345428277098</v>
+        <v>0.9153067872881551</v>
       </c>
       <c r="L21">
-        <v>0.9162652467885365</v>
+        <v>0.9193487201563879</v>
       </c>
       <c r="M21">
-        <v>0.9153452585205821</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.918401823668287</v>
+      </c>
+      <c r="N21">
+        <v>0.9135336517907235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8564845807729912</v>
+        <v>0.8603646107074034</v>
       </c>
       <c r="D22">
-        <v>0.8804744344742904</v>
+        <v>0.8839584320299382</v>
       </c>
       <c r="E22">
-        <v>0.8854276258079938</v>
+        <v>0.8887108645983456</v>
       </c>
       <c r="F22">
-        <v>0.8831916924271748</v>
+        <v>0.8864616602343312</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016577227309538</v>
+        <v>1.017372934540401</v>
       </c>
       <c r="J22">
-        <v>0.8951299662463997</v>
+        <v>0.8987442353936597</v>
       </c>
       <c r="K22">
-        <v>0.8988542661417492</v>
+        <v>0.9022417225346148</v>
       </c>
       <c r="L22">
-        <v>0.9036705154179706</v>
+        <v>0.9068641265203954</v>
       </c>
       <c r="M22">
-        <v>0.9014961400591849</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9046762246278631</v>
+      </c>
+      <c r="N22">
+        <v>0.9000205552953234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8653112509585033</v>
+        <v>0.8691044232046989</v>
       </c>
       <c r="D23">
-        <v>0.8882070779238294</v>
+        <v>0.8916196423753875</v>
       </c>
       <c r="E23">
-        <v>0.8928273095021658</v>
+        <v>0.8960425326049062</v>
       </c>
       <c r="F23">
-        <v>0.8912922654495249</v>
+        <v>0.8944863557156771</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018667224146042</v>
+        <v>1.019444589280159</v>
       </c>
       <c r="J23">
-        <v>0.9025102710298551</v>
+        <v>0.9060579350799413</v>
       </c>
       <c r="K23">
-        <v>0.9059999375689394</v>
+        <v>0.9093223686914761</v>
       </c>
       <c r="L23">
-        <v>0.910498362422315</v>
+        <v>0.9136298237016479</v>
       </c>
       <c r="M23">
-        <v>0.9090035979145776</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9121140858836753</v>
+      </c>
+      <c r="N23">
+        <v>0.9073446412740526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8961732510445074</v>
+        <v>0.8997186040453697</v>
       </c>
       <c r="D24">
-        <v>0.9153327062906785</v>
+        <v>0.9185416667599051</v>
       </c>
       <c r="E24">
-        <v>0.9188010707806149</v>
+        <v>0.9218222345388994</v>
       </c>
       <c r="F24">
-        <v>0.9197124421533389</v>
+        <v>0.9226886701310908</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025965726673115</v>
+        <v>1.02669036091568</v>
       </c>
       <c r="J24">
-        <v>0.9283500095925785</v>
+        <v>0.9317095859378585</v>
       </c>
       <c r="K24">
-        <v>0.9310298885673095</v>
+        <v>0.934168086001595</v>
       </c>
       <c r="L24">
-        <v>0.9344217984237136</v>
+        <v>0.9373769878902036</v>
       </c>
       <c r="M24">
-        <v>0.9353132071689801</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9382246086263727</v>
+      </c>
+      <c r="N24">
+        <v>0.9330327204184735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.926383646314593</v>
+        <v>0.929750568885737</v>
       </c>
       <c r="D25">
-        <v>0.9420046838329684</v>
+        <v>0.9450675088939541</v>
       </c>
       <c r="E25">
-        <v>0.9443635770539789</v>
+        <v>0.9472452014471215</v>
       </c>
       <c r="F25">
-        <v>0.9476488231201415</v>
+        <v>0.950466495312328</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033041079332582</v>
+        <v>1.033727393590929</v>
       </c>
       <c r="J25">
-        <v>0.9536705595065872</v>
+        <v>0.9568976738397386</v>
       </c>
       <c r="K25">
-        <v>0.9555753730568086</v>
+        <v>0.9585829676156349</v>
       </c>
       <c r="L25">
-        <v>0.9578916882468562</v>
+        <v>0.9607216729232638</v>
       </c>
       <c r="M25">
-        <v>0.9611180941072146</v>
+        <v>0.9638857208446813</v>
+      </c>
+      <c r="N25">
+        <v>0.9582565782942882</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9507064837453895</v>
+        <v>0.971347562162693</v>
       </c>
       <c r="D2">
-        <v>0.9636358427705568</v>
+        <v>0.9864577768861367</v>
       </c>
       <c r="E2">
-        <v>0.9650542409069043</v>
+        <v>0.9804471409703316</v>
       </c>
       <c r="F2">
-        <v>0.9698948748637709</v>
+        <v>0.9929891058318812</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038550512708892</v>
+        <v>1.040321618386147</v>
       </c>
       <c r="J2">
-        <v>0.9744686150882725</v>
+        <v>0.9944203913683776</v>
       </c>
       <c r="K2">
-        <v>0.975626162167749</v>
+        <v>0.9981090570343805</v>
       </c>
       <c r="L2">
-        <v>0.9770228929826053</v>
+        <v>0.9921857708516755</v>
       </c>
       <c r="M2">
-        <v>0.9817901894598822</v>
+        <v>1.004546985461101</v>
       </c>
       <c r="N2">
-        <v>0.9758524722948104</v>
+        <v>0.9958325823857341</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9646239049340692</v>
+        <v>0.9835657479210466</v>
       </c>
       <c r="D3">
-        <v>0.9759913479164858</v>
+        <v>0.9979630273416471</v>
       </c>
       <c r="E3">
-        <v>0.9769101918352363</v>
+        <v>0.9908393169269661</v>
       </c>
       <c r="F3">
-        <v>0.982810600867985</v>
+        <v>1.004529879293367</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041693255210037</v>
+        <v>1.042109672869829</v>
       </c>
       <c r="J3">
-        <v>0.9861277237199428</v>
+        <v>1.004514678987392</v>
       </c>
       <c r="K3">
-        <v>0.9869409290476348</v>
+        <v>1.008622038133979</v>
       </c>
       <c r="L3">
-        <v>0.987847292071949</v>
+        <v>1.001590768007312</v>
       </c>
       <c r="M3">
-        <v>0.9936682528517126</v>
+        <v>1.015105125733258</v>
       </c>
       <c r="N3">
-        <v>0.987528138198056</v>
+        <v>1.005941205050998</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9731312313952627</v>
+        <v>0.9911023468173206</v>
       </c>
       <c r="D4">
-        <v>0.9835524808993569</v>
+        <v>1.00506705948124</v>
       </c>
       <c r="E4">
-        <v>0.9841678512800479</v>
+        <v>0.9972573708204565</v>
       </c>
       <c r="F4">
-        <v>0.990708381680197</v>
+        <v>1.011655121124075</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043583858496679</v>
+        <v>1.043194276408813</v>
       </c>
       <c r="J4">
-        <v>0.9932481428293443</v>
+        <v>1.010736426860321</v>
       </c>
       <c r="K4">
-        <v>0.9938535518151762</v>
+        <v>1.01510471184137</v>
       </c>
       <c r="L4">
-        <v>0.9944611882893174</v>
+        <v>1.007389010057226</v>
       </c>
       <c r="M4">
-        <v>1.000920257220252</v>
+        <v>1.021614885200562</v>
       </c>
       <c r="N4">
-        <v>0.9946586691193163</v>
+        <v>1.012171788519552</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9766007636926065</v>
+        <v>0.994190255184493</v>
       </c>
       <c r="D5">
-        <v>0.9866378934172678</v>
+        <v>1.007979265208587</v>
       </c>
       <c r="E5">
-        <v>0.9871299175675946</v>
+        <v>0.9998886266483116</v>
       </c>
       <c r="F5">
-        <v>0.9939296050437643</v>
+        <v>1.014575801722864</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044347254261881</v>
+        <v>1.043634096214447</v>
       </c>
       <c r="J5">
-        <v>0.9961502913369298</v>
+        <v>1.013284315333922</v>
       </c>
       <c r="K5">
-        <v>0.9966715833404227</v>
+        <v>1.017760123217657</v>
       </c>
       <c r="L5">
-        <v>0.9971576255415612</v>
+        <v>1.009763762083029</v>
       </c>
       <c r="M5">
-        <v>1.003875395741222</v>
+        <v>1.02428116496118</v>
       </c>
       <c r="N5">
-        <v>0.9975649390106637</v>
+        <v>1.014723295287032</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9771773608139395</v>
+        <v>0.9947042191682672</v>
       </c>
       <c r="D6">
-        <v>0.9871507505411763</v>
+        <v>1.008464069290306</v>
       </c>
       <c r="E6">
-        <v>0.9876222997119787</v>
+        <v>1.000326673866524</v>
       </c>
       <c r="F6">
-        <v>0.9944649425798742</v>
+        <v>1.015062002471949</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044473662662659</v>
+        <v>1.043707028250468</v>
       </c>
       <c r="J6">
-        <v>0.996632486294872</v>
+        <v>1.013708315736828</v>
       </c>
       <c r="K6">
-        <v>0.9971398355645175</v>
+        <v>1.018202055816364</v>
       </c>
       <c r="L6">
-        <v>0.9976056837468475</v>
+        <v>1.010158967028222</v>
       </c>
       <c r="M6">
-        <v>1.004366353826551</v>
+        <v>1.024724891843448</v>
       </c>
       <c r="N6">
-        <v>0.9980478187407548</v>
+        <v>1.015147897819143</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.973177996988815</v>
+        <v>0.9911439141724346</v>
       </c>
       <c r="D7">
-        <v>0.9835940622960356</v>
+        <v>1.005106255813847</v>
       </c>
       <c r="E7">
-        <v>0.9842077684759051</v>
+        <v>0.9972927847978793</v>
       </c>
       <c r="F7">
-        <v>0.990751799678347</v>
+        <v>1.011694432452342</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043594179097457</v>
+        <v>1.043200215313567</v>
       </c>
       <c r="J7">
-        <v>0.9932872679664768</v>
+        <v>1.010770730170966</v>
       </c>
       <c r="K7">
-        <v>0.993891540665788</v>
+        <v>1.015140460135106</v>
       </c>
       <c r="L7">
-        <v>0.9944975372560277</v>
+        <v>1.007420981221422</v>
       </c>
       <c r="M7">
-        <v>1.000960099451054</v>
+        <v>1.021650780762955</v>
       </c>
       <c r="N7">
-        <v>0.9946978498186313</v>
+        <v>1.012206140544831</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9555212386221651</v>
+        <v>0.9755584197727993</v>
       </c>
       <c r="D8">
-        <v>0.9679082117586114</v>
+        <v>0.9904212600227411</v>
       </c>
       <c r="E8">
-        <v>0.9691533584889707</v>
+        <v>0.9840268630996365</v>
       </c>
       <c r="F8">
-        <v>0.9743622368614453</v>
+        <v>0.9969649504644936</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039644072937643</v>
+        <v>1.040941656786409</v>
       </c>
       <c r="J8">
-        <v>0.9785033474032678</v>
+        <v>0.9979001840416836</v>
       </c>
       <c r="K8">
-        <v>0.979541178842304</v>
+        <v>1.001732564011636</v>
       </c>
       <c r="L8">
-        <v>0.9807680396111531</v>
+        <v>0.9954276378669066</v>
       </c>
       <c r="M8">
-        <v>0.9859010637374687</v>
+        <v>1.008186190985117</v>
       </c>
       <c r="N8">
-        <v>0.9798929343924833</v>
+        <v>0.999317316763774</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9198864487091878</v>
+        <v>0.9448297450038158</v>
       </c>
       <c r="D9">
-        <v>0.9363434081703326</v>
+        <v>0.9615405994958655</v>
       </c>
       <c r="E9">
-        <v>0.9388814307815982</v>
+        <v>0.9579513004405478</v>
       </c>
       <c r="F9">
-        <v>0.9413328511005113</v>
+        <v>0.9679933573392779</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031428704775337</v>
+        <v>1.036342900216789</v>
       </c>
       <c r="J9">
-        <v>0.9486240337253878</v>
+        <v>0.9724933028312935</v>
       </c>
       <c r="K9">
-        <v>0.950561226922147</v>
+        <v>0.9752900765482656</v>
       </c>
       <c r="L9">
-        <v>0.9530505853018602</v>
+        <v>0.9717655347407338</v>
       </c>
       <c r="M9">
-        <v>0.9554553276502948</v>
+        <v>0.9816279813496608</v>
       </c>
       <c r="N9">
-        <v>0.9499711886619752</v>
+        <v>0.9738743548678548</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.891735807657821</v>
+        <v>0.9213656920136911</v>
       </c>
       <c r="D10">
-        <v>0.9115093829043903</v>
+        <v>0.9395596377257425</v>
       </c>
       <c r="E10">
-        <v>0.9150860394718934</v>
+        <v>0.9381212789306836</v>
       </c>
       <c r="F10">
-        <v>0.9153221197621183</v>
+        <v>0.9459456083318724</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02480488744385</v>
+        <v>1.032745910455458</v>
       </c>
       <c r="J10">
-        <v>0.9250169692036935</v>
+        <v>0.9530882091157636</v>
       </c>
       <c r="K10">
-        <v>0.9276839944591864</v>
+        <v>0.9551132074430049</v>
       </c>
       <c r="L10">
-        <v>0.9311786344272448</v>
+        <v>0.9537054975509925</v>
       </c>
       <c r="M10">
-        <v>0.9314093312441558</v>
+        <v>0.9613645918591389</v>
       </c>
       <c r="N10">
-        <v>0.926330599400892</v>
+        <v>0.9544417036934538</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8780268798904302</v>
+        <v>0.9102496739044103</v>
       </c>
       <c r="D11">
-        <v>0.8994526137888768</v>
+        <v>0.9291701433341302</v>
       </c>
       <c r="E11">
-        <v>0.9035406614510278</v>
+        <v>0.9287542194581916</v>
       </c>
       <c r="F11">
-        <v>0.9026917106510415</v>
+        <v>0.9355266077722934</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021559440974394</v>
+        <v>1.031026080818584</v>
       </c>
       <c r="J11">
-        <v>0.9135294479290714</v>
+        <v>0.9438993307555917</v>
       </c>
       <c r="K11">
-        <v>0.916557283510027</v>
+        <v>0.9455639771091061</v>
       </c>
       <c r="L11">
-        <v>0.9205438087953833</v>
+        <v>0.945157582906667</v>
       </c>
       <c r="M11">
-        <v>0.9197158388785887</v>
+        <v>0.9517762069505171</v>
       </c>
       <c r="N11">
-        <v>0.9148267645284232</v>
+        <v>0.9452397760720315</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8726437344267446</v>
+        <v>0.9059474606739032</v>
       </c>
       <c r="D12">
-        <v>0.8947254018461848</v>
+        <v>0.9251534794284985</v>
       </c>
       <c r="E12">
-        <v>0.8990152779085573</v>
+        <v>0.9251339333601085</v>
       </c>
       <c r="F12">
-        <v>0.8977396983357356</v>
+        <v>0.931499015136015</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02028359547827</v>
+        <v>1.030358596765963</v>
       </c>
       <c r="J12">
-        <v>0.9090211378196872</v>
+        <v>0.9403442300607997</v>
       </c>
       <c r="K12">
-        <v>0.9121915564763473</v>
+        <v>0.941870284417255</v>
       </c>
       <c r="L12">
-        <v>0.9163716336328661</v>
+        <v>0.94185119851958</v>
       </c>
       <c r="M12">
-        <v>0.9151285541810538</v>
+        <v>0.9480677926422114</v>
       </c>
       <c r="N12">
-        <v>0.9103120521015731</v>
+        <v>0.9416796267264769</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8738129202557019</v>
+        <v>0.90687871860668</v>
       </c>
       <c r="D13">
-        <v>0.8957517687358596</v>
+        <v>0.9260227164031909</v>
       </c>
       <c r="E13">
-        <v>0.8999977597285844</v>
+        <v>0.9259173374489474</v>
       </c>
       <c r="F13">
-        <v>0.898814858910823</v>
+        <v>0.9323705924471726</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020560735461131</v>
+        <v>1.030503154776579</v>
       </c>
       <c r="J13">
-        <v>0.910000175532946</v>
+        <v>0.9411136995535966</v>
       </c>
       <c r="K13">
-        <v>0.9131395837610121</v>
+        <v>0.9426697127077938</v>
       </c>
       <c r="L13">
-        <v>0.9172776036622931</v>
+        <v>0.942566800237281</v>
       </c>
       <c r="M13">
-        <v>0.916124644289372</v>
+        <v>0.948870385188458</v>
       </c>
       <c r="N13">
-        <v>0.9112924801606819</v>
+        <v>0.942450188954213</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8775883061396557</v>
+        <v>0.9098977905399599</v>
       </c>
       <c r="D14">
-        <v>0.8990673250838265</v>
+        <v>0.928841522426907</v>
       </c>
       <c r="E14">
-        <v>0.903171794424791</v>
+        <v>0.9284580043531189</v>
       </c>
       <c r="F14">
-        <v>0.9022880940996284</v>
+        <v>0.9351970819761826</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021455513960444</v>
+        <v>1.030971520600512</v>
       </c>
       <c r="J14">
-        <v>0.9131620887364983</v>
+        <v>0.9436085252195373</v>
       </c>
       <c r="K14">
-        <v>0.9162015221061163</v>
+        <v>0.9452618178253313</v>
       </c>
       <c r="L14">
-        <v>0.9202038080034881</v>
+        <v>0.9448871066470105</v>
       </c>
       <c r="M14">
-        <v>0.9193420021441111</v>
+        <v>0.9514728338291216</v>
       </c>
       <c r="N14">
-        <v>0.9144588836436599</v>
+        <v>0.9449485575587598</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8798735426156734</v>
+        <v>0.911733940919597</v>
       </c>
       <c r="D15">
-        <v>0.9010752119057603</v>
+        <v>0.9305564685523111</v>
       </c>
       <c r="E15">
-        <v>0.9050941562195249</v>
+        <v>0.9300038827211756</v>
       </c>
       <c r="F15">
-        <v>0.9043915020682686</v>
+        <v>0.9369167707560642</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021996989694603</v>
+        <v>1.031256147749246</v>
       </c>
       <c r="J15">
-        <v>0.9150763642565826</v>
+        <v>0.9451260221357752</v>
       </c>
       <c r="K15">
-        <v>0.91805540277856</v>
+        <v>0.9468385950737533</v>
       </c>
       <c r="L15">
-        <v>0.9219755826685609</v>
+        <v>0.946298550591629</v>
       </c>
       <c r="M15">
-        <v>0.9212901108432699</v>
+        <v>0.9530559633916988</v>
       </c>
       <c r="N15">
-        <v>0.9163758776545531</v>
+        <v>0.9464682094946778</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8926088258334802</v>
+        <v>0.9220809591063147</v>
       </c>
       <c r="D16">
-        <v>0.9122780468028331</v>
+        <v>0.9402287000896207</v>
       </c>
       <c r="E16">
-        <v>0.915822261838916</v>
+        <v>0.9387246331848292</v>
       </c>
       <c r="F16">
-        <v>0.9161273419688156</v>
+        <v>0.9466166256261718</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02501128303276</v>
+        <v>1.032856293521404</v>
       </c>
       <c r="J16">
-        <v>0.9257487879255136</v>
+        <v>0.9536796061430591</v>
       </c>
       <c r="K16">
-        <v>0.9283929506444559</v>
+        <v>0.9557279047977223</v>
       </c>
       <c r="L16">
-        <v>0.9318563165711578</v>
+        <v>0.9542557336102845</v>
       </c>
       <c r="M16">
-        <v>0.9321544763557627</v>
+        <v>0.961981857877424</v>
       </c>
       <c r="N16">
-        <v>0.927063457389238</v>
+        <v>0.955033940572362</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9001536688954597</v>
+        <v>0.9282971980812807</v>
       </c>
       <c r="D17">
-        <v>0.9189251636811321</v>
+        <v>0.9460460810223633</v>
       </c>
       <c r="E17">
-        <v>0.9221896301658682</v>
+        <v>0.943971349104952</v>
       </c>
       <c r="F17">
-        <v>0.923090380188577</v>
+        <v>0.9524512464007796</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026792991987343</v>
+        <v>1.033813923910044</v>
       </c>
       <c r="J17">
-        <v>0.9320743902867299</v>
+        <v>0.9588198343925474</v>
       </c>
       <c r="K17">
-        <v>0.9345215601055411</v>
+        <v>0.9610712187574812</v>
       </c>
       <c r="L17">
-        <v>0.9377149040453001</v>
+        <v>0.9590386595048961</v>
       </c>
       <c r="M17">
-        <v>0.9385961470451684</v>
+        <v>0.9673477114483252</v>
       </c>
       <c r="N17">
-        <v>0.933398042831364</v>
+        <v>0.9601814685355569</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9044130922762843</v>
+        <v>0.9318331835451028</v>
       </c>
       <c r="D18">
-        <v>0.9226809779524316</v>
+        <v>0.9493573104906442</v>
       </c>
       <c r="E18">
-        <v>0.925788001511944</v>
+        <v>0.9469582693245528</v>
       </c>
       <c r="F18">
-        <v>0.9270244521467448</v>
+        <v>0.955772464810005</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027796968425182</v>
+        <v>1.034357177391642</v>
       </c>
       <c r="J18">
-        <v>0.935646187273767</v>
+        <v>0.9617440918869781</v>
       </c>
       <c r="K18">
-        <v>0.9379826221753144</v>
+        <v>0.9641114730977425</v>
       </c>
       <c r="L18">
-        <v>0.9410237309486722</v>
+        <v>0.9617600085933207</v>
       </c>
       <c r="M18">
-        <v>0.9422341131641593</v>
+        <v>0.9704009430618777</v>
       </c>
       <c r="N18">
-        <v>0.9369749121798137</v>
+        <v>0.9631098788110467</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9058429844917434</v>
+        <v>0.933024384354606</v>
       </c>
       <c r="D19">
-        <v>0.923942314372313</v>
+        <v>0.9504731374083867</v>
       </c>
       <c r="E19">
-        <v>0.9269965629556799</v>
+        <v>0.9479648907408881</v>
       </c>
       <c r="F19">
-        <v>0.9283456015409625</v>
+        <v>0.9568916835184672</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028133649270316</v>
+        <v>1.034539925125113</v>
       </c>
       <c r="J19">
-        <v>0.9368453324816366</v>
+        <v>0.9627292565208637</v>
       </c>
       <c r="K19">
-        <v>0.9391446723719086</v>
+        <v>0.9651357933137592</v>
       </c>
       <c r="L19">
-        <v>0.9421347092659814</v>
+        <v>0.9626768725640001</v>
       </c>
       <c r="M19">
-        <v>0.9434555638151964</v>
+        <v>0.9714296576283016</v>
       </c>
       <c r="N19">
-        <v>0.9381757603114219</v>
+        <v>0.9640964424917124</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8993591731903471</v>
+        <v>0.9276397329033715</v>
       </c>
       <c r="D20">
-        <v>0.9182248571007061</v>
+        <v>0.9454305746142517</v>
       </c>
       <c r="E20">
-        <v>0.9215187298114933</v>
+        <v>0.9434161670308822</v>
       </c>
       <c r="F20">
-        <v>0.9223568129963612</v>
+        <v>0.9518338965213904</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026605560820358</v>
+        <v>1.033712790370348</v>
       </c>
       <c r="J20">
-        <v>0.9314082049405699</v>
+        <v>0.9582761350798371</v>
       </c>
       <c r="K20">
-        <v>0.9338760682561121</v>
+        <v>0.9605059897720312</v>
       </c>
       <c r="L20">
-        <v>0.937097824583725</v>
+        <v>0.9585327149606493</v>
       </c>
       <c r="M20">
-        <v>0.9379176678356639</v>
+        <v>0.9667800812873306</v>
       </c>
       <c r="N20">
-        <v>0.9327309114255995</v>
+        <v>0.9596369971074594</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8764852251351567</v>
+        <v>0.909013816274766</v>
       </c>
       <c r="D21">
-        <v>0.8980983849596471</v>
+        <v>0.9280160590610432</v>
       </c>
       <c r="E21">
-        <v>0.9022441742899149</v>
+        <v>0.9277139595896937</v>
       </c>
       <c r="F21">
-        <v>0.9012730660631325</v>
+        <v>0.9343693539242948</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021194104583175</v>
+        <v>1.030834430806301</v>
       </c>
       <c r="J21">
-        <v>0.9122381689556258</v>
+        <v>0.9428780084482361</v>
       </c>
       <c r="K21">
-        <v>0.9153067872881551</v>
+        <v>0.9445027933347886</v>
       </c>
       <c r="L21">
-        <v>0.9193487201563879</v>
+        <v>0.9442076701520277</v>
       </c>
       <c r="M21">
-        <v>0.918401823668287</v>
+        <v>0.9507107675424818</v>
       </c>
       <c r="N21">
-        <v>0.9135336517907235</v>
+        <v>0.9442170033698519</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8603646107074034</v>
+        <v>0.8962782159421695</v>
       </c>
       <c r="D22">
-        <v>0.8839584320299382</v>
+        <v>0.9161352250667272</v>
       </c>
       <c r="E22">
-        <v>0.8887108645983456</v>
+        <v>0.9170079963494644</v>
       </c>
       <c r="F22">
-        <v>0.8864616602343312</v>
+        <v>0.9224573503457016</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017372934540401</v>
+        <v>1.028855637181458</v>
       </c>
       <c r="J22">
-        <v>0.8987442353936597</v>
+        <v>0.9323573389550472</v>
       </c>
       <c r="K22">
-        <v>0.9022417225346148</v>
+        <v>0.9335736505104051</v>
       </c>
       <c r="L22">
-        <v>0.9068641265203954</v>
+        <v>0.9344246184875205</v>
       </c>
       <c r="M22">
-        <v>0.9046762246278631</v>
+        <v>0.9397390940853924</v>
       </c>
       <c r="N22">
-        <v>0.9000205552953234</v>
+        <v>0.9336813933192453</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8691044232046989</v>
+        <v>0.903139334418628</v>
       </c>
       <c r="D23">
-        <v>0.8916196423753875</v>
+        <v>0.9225330846534709</v>
       </c>
       <c r="E23">
-        <v>0.8960425326049062</v>
+        <v>0.9227724722106344</v>
       </c>
       <c r="F23">
-        <v>0.8944863557156771</v>
+        <v>0.928871651225801</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019444589280159</v>
+        <v>1.029922468090774</v>
       </c>
       <c r="J23">
-        <v>0.9060579350799413</v>
+        <v>0.9380242055046641</v>
       </c>
       <c r="K23">
-        <v>0.9093223686914761</v>
+        <v>0.9394600576064849</v>
       </c>
       <c r="L23">
-        <v>0.9136298237016479</v>
+        <v>0.9396937099848103</v>
       </c>
       <c r="M23">
-        <v>0.9121140858836753</v>
+        <v>0.9456481022768536</v>
       </c>
       <c r="N23">
-        <v>0.9073446412740526</v>
+        <v>0.9393563074693608</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8997186040453697</v>
+        <v>0.9279370886230175</v>
       </c>
       <c r="D24">
-        <v>0.9185416667599051</v>
+        <v>0.9457089468020041</v>
       </c>
       <c r="E24">
-        <v>0.9218222345388994</v>
+        <v>0.9436672550364904</v>
       </c>
       <c r="F24">
-        <v>0.9226886701310908</v>
+        <v>0.9521131019091736</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02669036091568</v>
+        <v>1.033758535286687</v>
       </c>
       <c r="J24">
-        <v>0.9317095859378585</v>
+        <v>0.9585220362115019</v>
       </c>
       <c r="K24">
-        <v>0.934168086001595</v>
+        <v>0.9607616267786907</v>
       </c>
       <c r="L24">
-        <v>0.9373769878902036</v>
+        <v>0.958761539473072</v>
       </c>
       <c r="M24">
-        <v>0.9382246086263727</v>
+        <v>0.9670368038115971</v>
       </c>
       <c r="N24">
-        <v>0.9330327204184735</v>
+        <v>0.9598832474469363</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.929750568885737</v>
+        <v>0.9532304805534407</v>
       </c>
       <c r="D25">
-        <v>0.9450675088939541</v>
+        <v>0.9694259947037885</v>
       </c>
       <c r="E25">
-        <v>0.9472452014471215</v>
+        <v>0.9650686680964973</v>
       </c>
       <c r="F25">
-        <v>0.950466495312328</v>
+        <v>0.9759035636676113</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033727393590929</v>
+        <v>1.037615412641617</v>
       </c>
       <c r="J25">
-        <v>0.9568976738397386</v>
+        <v>0.9794412732134818</v>
       </c>
       <c r="K25">
-        <v>0.9585829676156349</v>
+        <v>0.9825182302800347</v>
       </c>
       <c r="L25">
-        <v>0.9607216729232638</v>
+        <v>0.9782345852477179</v>
       </c>
       <c r="M25">
-        <v>0.9638857208446813</v>
+        <v>0.9888878298721453</v>
       </c>
       <c r="N25">
-        <v>0.9582565782942882</v>
+        <v>0.9808321921649293</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.971347562162693</v>
+        <v>0.9905998921841854</v>
       </c>
       <c r="D2">
-        <v>0.9864577768861367</v>
+        <v>0.9990747301030221</v>
       </c>
       <c r="E2">
-        <v>0.9804471409703316</v>
+        <v>0.9958519376167141</v>
       </c>
       <c r="F2">
-        <v>0.9929891058318812</v>
+        <v>0.9999671459088416</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040321618386147</v>
+        <v>1.043635427239691</v>
       </c>
       <c r="J2">
-        <v>0.9944203913683776</v>
+        <v>1.013065440612003</v>
       </c>
       <c r="K2">
-        <v>0.9981090570343805</v>
+        <v>1.010546970473714</v>
       </c>
       <c r="L2">
-        <v>0.9921857708516755</v>
+        <v>1.007369365643522</v>
       </c>
       <c r="M2">
-        <v>1.004546985461101</v>
+        <v>1.011426938459945</v>
       </c>
       <c r="N2">
-        <v>0.9958325823857341</v>
+        <v>1.014504109737903</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9835657479210466</v>
+        <v>1.000811479674734</v>
       </c>
       <c r="D3">
-        <v>0.9979630273416471</v>
+        <v>1.008580250308001</v>
       </c>
       <c r="E3">
-        <v>0.9908393169269661</v>
+        <v>1.004708498423603</v>
       </c>
       <c r="F3">
-        <v>1.004529879293367</v>
+        <v>1.010090940475504</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042109672869829</v>
+        <v>1.047364877546911</v>
       </c>
       <c r="J3">
-        <v>1.004514678987392</v>
+        <v>1.021280047354246</v>
       </c>
       <c r="K3">
-        <v>1.008622038133979</v>
+        <v>1.019104509881884</v>
       </c>
       <c r="L3">
-        <v>1.001590768007312</v>
+        <v>1.015281485556833</v>
       </c>
       <c r="M3">
-        <v>1.015105125733258</v>
+        <v>1.020596313669949</v>
       </c>
       <c r="N3">
-        <v>1.005941205050998</v>
+        <v>1.022730382163947</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9911023468173206</v>
+        <v>1.007142791183312</v>
       </c>
       <c r="D4">
-        <v>1.00506705948124</v>
+        <v>1.014478942528298</v>
       </c>
       <c r="E4">
-        <v>0.9972573708204565</v>
+        <v>1.010200493394274</v>
       </c>
       <c r="F4">
-        <v>1.011655121124075</v>
+        <v>1.01637666148987</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043194276408813</v>
+        <v>1.049658463855744</v>
       </c>
       <c r="J4">
-        <v>1.010736426860321</v>
+        <v>1.026365531775276</v>
       </c>
       <c r="K4">
-        <v>1.01510471184137</v>
+        <v>1.024405704633589</v>
       </c>
       <c r="L4">
-        <v>1.007389010057226</v>
+        <v>1.020177346817587</v>
       </c>
       <c r="M4">
-        <v>1.021614885200562</v>
+        <v>1.026281372317781</v>
       </c>
       <c r="N4">
-        <v>1.012171788519552</v>
+        <v>1.027823088556168</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.994190255184493</v>
+        <v>1.00974350127001</v>
       </c>
       <c r="D5">
-        <v>1.007979265208587</v>
+        <v>1.016903072071881</v>
       </c>
       <c r="E5">
-        <v>0.9998886266483116</v>
+        <v>1.012456514994872</v>
       </c>
       <c r="F5">
-        <v>1.014575801722864</v>
+        <v>1.018960670783095</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043634096214447</v>
+        <v>1.050596032270517</v>
       </c>
       <c r="J5">
-        <v>1.013284315333922</v>
+        <v>1.028452576265861</v>
       </c>
       <c r="K5">
-        <v>1.017760123217657</v>
+        <v>1.026582088664675</v>
       </c>
       <c r="L5">
-        <v>1.009763762083029</v>
+        <v>1.022186000311534</v>
       </c>
       <c r="M5">
-        <v>1.02428116496118</v>
+        <v>1.028616517095735</v>
       </c>
       <c r="N5">
-        <v>1.014723295287032</v>
+        <v>1.029913096889317</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9947042191682672</v>
+        <v>1.010176734717534</v>
       </c>
       <c r="D6">
-        <v>1.008464069290306</v>
+        <v>1.017306953561623</v>
       </c>
       <c r="E6">
-        <v>1.000326673866524</v>
+        <v>1.012832330628884</v>
       </c>
       <c r="F6">
-        <v>1.015062002471949</v>
+        <v>1.019391238844576</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043707028250468</v>
+        <v>1.050751944133352</v>
       </c>
       <c r="J6">
-        <v>1.013708315736828</v>
+        <v>1.028800126947568</v>
       </c>
       <c r="K6">
-        <v>1.018202055816364</v>
+        <v>1.026944564639517</v>
       </c>
       <c r="L6">
-        <v>1.010158967028222</v>
+        <v>1.022520462993265</v>
       </c>
       <c r="M6">
-        <v>1.024724891843448</v>
+        <v>1.0290055034197</v>
       </c>
       <c r="N6">
-        <v>1.015147897819143</v>
+        <v>1.030261141132857</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9911439141724346</v>
+        <v>1.007177775233308</v>
       </c>
       <c r="D7">
-        <v>1.005106255813847</v>
+        <v>1.014511546931951</v>
       </c>
       <c r="E7">
-        <v>0.9972927847978793</v>
+        <v>1.010230840628761</v>
       </c>
       <c r="F7">
-        <v>1.011694432452342</v>
+        <v>1.016411412963211</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043200215313567</v>
+        <v>1.049671093990565</v>
       </c>
       <c r="J7">
-        <v>1.010770730170966</v>
+        <v>1.026393613839255</v>
       </c>
       <c r="K7">
-        <v>1.015140460135106</v>
+        <v>1.024434985573818</v>
       </c>
       <c r="L7">
-        <v>1.007420981221422</v>
+        <v>1.020204376369982</v>
       </c>
       <c r="M7">
-        <v>1.021650780762955</v>
+        <v>1.026312784578458</v>
       </c>
       <c r="N7">
-        <v>1.012206140544831</v>
+        <v>1.0278512104999</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9755584197727993</v>
+        <v>0.9941114751711678</v>
       </c>
       <c r="D8">
-        <v>0.9904212600227411</v>
+        <v>1.002342340190295</v>
       </c>
       <c r="E8">
-        <v>0.9840268630996365</v>
+        <v>0.9988972985528892</v>
       </c>
       <c r="F8">
-        <v>0.9969649504644936</v>
+        <v>1.003446593353399</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040941656786409</v>
+        <v>1.044921854866509</v>
       </c>
       <c r="J8">
-        <v>0.9979001840416836</v>
+        <v>1.015891880946125</v>
       </c>
       <c r="K8">
-        <v>1.001732564011636</v>
+        <v>1.013490676199108</v>
       </c>
       <c r="L8">
-        <v>0.9954276378669066</v>
+        <v>1.010092227377276</v>
       </c>
       <c r="M8">
-        <v>1.008186190985117</v>
+        <v>1.014580079869289</v>
       </c>
       <c r="N8">
-        <v>0.999317316763774</v>
+        <v>1.017334563941497</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9448297450038158</v>
+        <v>0.968697159984103</v>
       </c>
       <c r="D9">
-        <v>0.9615405994958655</v>
+        <v>0.9787221571229433</v>
       </c>
       <c r="E9">
-        <v>0.9579513004405478</v>
+        <v>0.9768668566331622</v>
       </c>
       <c r="F9">
-        <v>0.9679933573392779</v>
+        <v>0.9783089458975505</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036342900216789</v>
+        <v>1.035532085998887</v>
       </c>
       <c r="J9">
-        <v>0.9724933028312935</v>
+        <v>0.9954058784848724</v>
       </c>
       <c r="K9">
-        <v>0.9752900765482656</v>
+        <v>0.9921701513010455</v>
       </c>
       <c r="L9">
-        <v>0.9717655347407338</v>
+        <v>0.990346745072597</v>
       </c>
       <c r="M9">
-        <v>0.9816279813496608</v>
+        <v>0.9917640300086913</v>
       </c>
       <c r="N9">
-        <v>0.9738743548678548</v>
+        <v>0.9968194690069709</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9213656920136911</v>
+        <v>0.9496781590454827</v>
       </c>
       <c r="D10">
-        <v>0.9395596377257425</v>
+        <v>0.9610906820569945</v>
       </c>
       <c r="E10">
-        <v>0.9381212789306836</v>
+        <v>0.9604015406166113</v>
       </c>
       <c r="F10">
-        <v>0.9459456083318724</v>
+        <v>0.9595611875509075</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032745910455458</v>
+        <v>1.028406552679876</v>
       </c>
       <c r="J10">
-        <v>0.9530882091157636</v>
+        <v>0.9800410699553289</v>
       </c>
       <c r="K10">
-        <v>0.9551132074430049</v>
+        <v>0.9761998839127479</v>
       </c>
       <c r="L10">
-        <v>0.9537054975509925</v>
+        <v>0.9755245592001248</v>
       </c>
       <c r="M10">
-        <v>0.9613645918591389</v>
+        <v>0.974701089881279</v>
       </c>
       <c r="N10">
-        <v>0.9544417036934538</v>
+        <v>0.9814328406869477</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9102496739044103</v>
+        <v>0.9408109922162677</v>
       </c>
       <c r="D11">
-        <v>0.9291701433341302</v>
+        <v>0.9528842729751513</v>
       </c>
       <c r="E11">
-        <v>0.9287542194581916</v>
+        <v>0.9527335878082754</v>
       </c>
       <c r="F11">
-        <v>0.9355266077722934</v>
+        <v>0.9508385163818515</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031026080818584</v>
+        <v>1.025062790853687</v>
       </c>
       <c r="J11">
-        <v>0.9438993307555917</v>
+        <v>0.9728716629644194</v>
       </c>
       <c r="K11">
-        <v>0.9455639771091061</v>
+        <v>0.9687529974001107</v>
       </c>
       <c r="L11">
-        <v>0.945157582906667</v>
+        <v>0.9686055395270952</v>
       </c>
       <c r="M11">
-        <v>0.9517762069505171</v>
+        <v>0.9667511715598625</v>
       </c>
       <c r="N11">
-        <v>0.9452397760720315</v>
+        <v>0.9742532523157683</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9059474606739032</v>
+        <v>0.9374069739455291</v>
       </c>
       <c r="D12">
-        <v>0.9251534794284985</v>
+        <v>0.9497363341544496</v>
       </c>
       <c r="E12">
-        <v>0.9251339333601085</v>
+        <v>0.9497916155072492</v>
       </c>
       <c r="F12">
-        <v>0.931499015136015</v>
+        <v>0.9474929696491091</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030358596765963</v>
+        <v>1.02377610003482</v>
       </c>
       <c r="J12">
-        <v>0.9403442300607997</v>
+        <v>0.970118745208985</v>
       </c>
       <c r="K12">
-        <v>0.941870284417255</v>
+        <v>0.9658943062139033</v>
       </c>
       <c r="L12">
-        <v>0.94185119851958</v>
+        <v>0.9659483741986706</v>
       </c>
       <c r="M12">
-        <v>0.9480677926422114</v>
+        <v>0.963700340137598</v>
       </c>
       <c r="N12">
-        <v>0.9416796267264769</v>
+        <v>0.9714964251013571</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.90687871860668</v>
+        <v>0.9381424307444891</v>
       </c>
       <c r="D13">
-        <v>0.9260227164031909</v>
+        <v>0.950416348363373</v>
       </c>
       <c r="E13">
-        <v>0.9259173374489474</v>
+        <v>0.9504271620269917</v>
       </c>
       <c r="F13">
-        <v>0.9323705924471726</v>
+        <v>0.94821565290708</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030503154776579</v>
+        <v>1.024054230488858</v>
       </c>
       <c r="J13">
-        <v>0.9411136995535966</v>
+        <v>0.9707135531900927</v>
       </c>
       <c r="K13">
-        <v>0.9426697127077938</v>
+        <v>0.9665119329511901</v>
       </c>
       <c r="L13">
-        <v>0.942566800237281</v>
+        <v>0.9665225105111764</v>
       </c>
       <c r="M13">
-        <v>0.948870385188458</v>
+        <v>0.9643594360951302</v>
       </c>
       <c r="N13">
-        <v>0.942450188954213</v>
+        <v>0.9720920777780231</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9098977905399599</v>
+        <v>0.9405319690663115</v>
       </c>
       <c r="D14">
-        <v>0.928841522426907</v>
+        <v>0.9526261892867099</v>
       </c>
       <c r="E14">
-        <v>0.9284580043531189</v>
+        <v>0.9524924015927224</v>
       </c>
       <c r="F14">
-        <v>0.9351970819761826</v>
+        <v>0.9505642236291731</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030971520600512</v>
+        <v>1.024957382737097</v>
       </c>
       <c r="J14">
-        <v>0.9436085252195373</v>
+        <v>0.9726460213407979</v>
       </c>
       <c r="K14">
-        <v>0.9452618178253313</v>
+        <v>0.9685186703896554</v>
       </c>
       <c r="L14">
-        <v>0.9448871066470105</v>
+        <v>0.9683877538995707</v>
       </c>
       <c r="M14">
-        <v>0.9514728338291216</v>
+        <v>0.966501075464231</v>
       </c>
       <c r="N14">
-        <v>0.9449485575587598</v>
+        <v>0.9740272902551599</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.911733940919597</v>
+        <v>0.9419890933855221</v>
       </c>
       <c r="D15">
-        <v>0.9305564685523111</v>
+        <v>0.9539740628225984</v>
       </c>
       <c r="E15">
-        <v>0.9300038827211756</v>
+        <v>0.9537520029111357</v>
       </c>
       <c r="F15">
-        <v>0.9369167707560642</v>
+        <v>0.9519967678184829</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031256147749246</v>
+        <v>1.02550772656789</v>
       </c>
       <c r="J15">
-        <v>0.9451260221357752</v>
+        <v>0.9738243499784498</v>
       </c>
       <c r="K15">
-        <v>0.9468385950737533</v>
+        <v>0.9697423865523027</v>
       </c>
       <c r="L15">
-        <v>0.946298550591629</v>
+        <v>0.9695250419337997</v>
       </c>
       <c r="M15">
-        <v>0.9530559633916988</v>
+        <v>0.9678071806635249</v>
       </c>
       <c r="N15">
-        <v>0.9464682094946778</v>
+        <v>0.9752072922546332</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9220809591063147</v>
+        <v>0.9502520966009639</v>
       </c>
       <c r="D16">
-        <v>0.9402287000896207</v>
+        <v>0.9616221609444349</v>
       </c>
       <c r="E16">
-        <v>0.9387246331848292</v>
+        <v>0.9608980637619645</v>
       </c>
       <c r="F16">
-        <v>0.9466166256261718</v>
+        <v>0.9601261637487117</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032856293521404</v>
+        <v>1.028622554892465</v>
       </c>
       <c r="J16">
-        <v>0.9536796061430591</v>
+        <v>0.9805050155722846</v>
       </c>
       <c r="K16">
-        <v>0.9557279047977223</v>
+        <v>0.9766818899141712</v>
       </c>
       <c r="L16">
-        <v>0.9542557336102845</v>
+        <v>0.9759722467427523</v>
       </c>
       <c r="M16">
-        <v>0.961981857877424</v>
+        <v>0.9752157865371421</v>
       </c>
       <c r="N16">
-        <v>0.955033940572362</v>
+        <v>0.9818974451598943</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9282971980812807</v>
+        <v>0.9552563025271662</v>
       </c>
       <c r="D17">
-        <v>0.9460460810223633</v>
+        <v>0.9662577367528106</v>
       </c>
       <c r="E17">
-        <v>0.943971349104952</v>
+        <v>0.9652282802773929</v>
       </c>
       <c r="F17">
-        <v>0.9524512464007796</v>
+        <v>0.9650542645498513</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033813923910044</v>
+        <v>1.030503511773547</v>
       </c>
       <c r="J17">
-        <v>0.9588198343925474</v>
+        <v>0.9845495584424993</v>
       </c>
       <c r="K17">
-        <v>0.9610712187574812</v>
+        <v>0.9808844381887</v>
       </c>
       <c r="L17">
-        <v>0.9590386595048961</v>
+        <v>0.9798747475140374</v>
       </c>
       <c r="M17">
-        <v>0.9673477114483252</v>
+        <v>0.9797040783847507</v>
       </c>
       <c r="N17">
-        <v>0.9601814685355569</v>
+        <v>0.9859477317449002</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9318331835451028</v>
+        <v>0.9581154211251516</v>
       </c>
       <c r="D18">
-        <v>0.9493573104906442</v>
+        <v>0.9689074944864055</v>
       </c>
       <c r="E18">
-        <v>0.9469582693245528</v>
+        <v>0.9677030864937022</v>
       </c>
       <c r="F18">
-        <v>0.955772464810005</v>
+        <v>0.9678715433693453</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034357177391642</v>
+        <v>1.031576172700165</v>
       </c>
       <c r="J18">
-        <v>0.9617440918869781</v>
+        <v>0.9868598167028043</v>
       </c>
       <c r="K18">
-        <v>0.9641114730977425</v>
+        <v>0.9832854126797816</v>
       </c>
       <c r="L18">
-        <v>0.9617600085933207</v>
+        <v>0.9821036096818546</v>
       </c>
       <c r="M18">
-        <v>0.9704009430618777</v>
+        <v>0.9822689004460279</v>
       </c>
       <c r="N18">
-        <v>0.9631098788110467</v>
+        <v>0.9882612708369254</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.933024384354606</v>
+        <v>0.9590805835218646</v>
       </c>
       <c r="D19">
-        <v>0.9504731374083867</v>
+        <v>0.9698021860976698</v>
       </c>
       <c r="E19">
-        <v>0.9479648907408881</v>
+        <v>0.9685386354722018</v>
       </c>
       <c r="F19">
-        <v>0.9568916835184672</v>
+        <v>0.9688228528373024</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034539925125113</v>
+        <v>1.031937928230527</v>
       </c>
       <c r="J19">
-        <v>0.9627292565208637</v>
+        <v>0.9876395967917286</v>
       </c>
       <c r="K19">
-        <v>0.9651357933137592</v>
+        <v>0.984095890253269</v>
       </c>
       <c r="L19">
-        <v>0.9626768725640001</v>
+        <v>0.9828558711789361</v>
       </c>
       <c r="M19">
-        <v>0.9714296576283016</v>
+        <v>0.9831347884817607</v>
       </c>
       <c r="N19">
-        <v>0.9640964424917124</v>
+        <v>0.9890421583030179</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9276397329033715</v>
+        <v>0.9547256788275168</v>
       </c>
       <c r="D20">
-        <v>0.9454305746142517</v>
+        <v>0.9657660681311534</v>
       </c>
       <c r="E20">
-        <v>0.9434161670308822</v>
+        <v>0.9647690410497887</v>
       </c>
       <c r="F20">
-        <v>0.9518338965213904</v>
+        <v>0.9645315376295773</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033712790370348</v>
+        <v>1.030304271866131</v>
       </c>
       <c r="J20">
-        <v>0.9582761350798371</v>
+        <v>0.9841207503933769</v>
       </c>
       <c r="K20">
-        <v>0.9605059897720312</v>
+        <v>0.980438829809946</v>
       </c>
       <c r="L20">
-        <v>0.9585327149606493</v>
+        <v>0.9794610260103496</v>
       </c>
       <c r="M20">
-        <v>0.9667800812873306</v>
+        <v>0.9792281094780253</v>
       </c>
       <c r="N20">
-        <v>0.9596369971074594</v>
+        <v>0.985518314739163</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.909013816274766</v>
+        <v>0.9398314989385939</v>
       </c>
       <c r="D21">
-        <v>0.9280160590610432</v>
+        <v>0.9519783264268882</v>
       </c>
       <c r="E21">
-        <v>0.9277139595896937</v>
+        <v>0.951886947080048</v>
       </c>
       <c r="F21">
-        <v>0.9343693539242948</v>
+        <v>0.949875678038037</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030834430806301</v>
+        <v>1.024692714101831</v>
       </c>
       <c r="J21">
-        <v>0.9428780084482361</v>
+        <v>0.9720795526310423</v>
       </c>
       <c r="K21">
-        <v>0.9445027933347886</v>
+        <v>0.9679304096466212</v>
       </c>
       <c r="L21">
-        <v>0.9442076701520277</v>
+        <v>0.967841001355973</v>
       </c>
       <c r="M21">
-        <v>0.9507107675424818</v>
+        <v>0.9658732429634467</v>
       </c>
       <c r="N21">
-        <v>0.9442170033698519</v>
+        <v>0.9734600170948615</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8962782159421695</v>
+        <v>0.929817752649324</v>
       </c>
       <c r="D22">
-        <v>0.9161352250667272</v>
+        <v>0.9427229838749864</v>
       </c>
       <c r="E22">
-        <v>0.9170079963494644</v>
+        <v>0.9432361526590984</v>
       </c>
       <c r="F22">
-        <v>0.9224573503457016</v>
+        <v>0.9400400672906933</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028855637181458</v>
+        <v>1.020902027395449</v>
       </c>
       <c r="J22">
-        <v>0.9323573389550472</v>
+        <v>0.9639802492405433</v>
       </c>
       <c r="K22">
-        <v>0.9335736505104051</v>
+        <v>0.9595214139737019</v>
       </c>
       <c r="L22">
-        <v>0.9344246184875205</v>
+        <v>0.9600227046366175</v>
       </c>
       <c r="M22">
-        <v>0.9397390940853924</v>
+        <v>0.9569008804725496</v>
       </c>
       <c r="N22">
-        <v>0.9336813933192453</v>
+        <v>0.965349211764545</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.903139334418628</v>
+        <v>0.9351939815514647</v>
       </c>
       <c r="D23">
-        <v>0.9225330846534709</v>
+        <v>0.9476905542352866</v>
       </c>
       <c r="E23">
-        <v>0.9227724722106344</v>
+        <v>0.9478795346530184</v>
       </c>
       <c r="F23">
-        <v>0.928871651225801</v>
+        <v>0.9453188790679719</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029922468090774</v>
+        <v>1.022938774396556</v>
       </c>
       <c r="J23">
-        <v>0.9380242055046641</v>
+        <v>0.9683288914033654</v>
       </c>
       <c r="K23">
-        <v>0.9394600576064849</v>
+        <v>0.9640359027761267</v>
       </c>
       <c r="L23">
-        <v>0.9396937099848103</v>
+        <v>0.9642206696166332</v>
       </c>
       <c r="M23">
-        <v>0.9456481022768536</v>
+        <v>0.9617172982636583</v>
       </c>
       <c r="N23">
-        <v>0.9393563074693608</v>
+        <v>0.9697040294980342</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9279370886230175</v>
+        <v>0.9549656283537888</v>
       </c>
       <c r="D24">
-        <v>0.9457089468020041</v>
+        <v>0.9659883981788818</v>
       </c>
       <c r="E24">
-        <v>0.9436672550364904</v>
+        <v>0.9649767079543786</v>
       </c>
       <c r="F24">
-        <v>0.9521131019091736</v>
+        <v>0.9647679111113807</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033758535286687</v>
+        <v>1.030394374993462</v>
       </c>
       <c r="J24">
-        <v>0.9585220362115019</v>
+        <v>0.9843146603697811</v>
       </c>
       <c r="K24">
-        <v>0.9607616267786907</v>
+        <v>0.9806403355700662</v>
       </c>
       <c r="L24">
-        <v>0.958761539473072</v>
+        <v>0.9796481145622274</v>
       </c>
       <c r="M24">
-        <v>0.9670368038115971</v>
+        <v>0.9794433425157199</v>
       </c>
       <c r="N24">
-        <v>0.9598832474469363</v>
+        <v>0.9857125000899759</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9532304805534407</v>
+        <v>0.9755935287217906</v>
       </c>
       <c r="D25">
-        <v>0.9694259947037885</v>
+        <v>0.9851250625732332</v>
       </c>
       <c r="E25">
-        <v>0.9650686680964973</v>
+        <v>0.9828423809833412</v>
       </c>
       <c r="F25">
-        <v>0.9759035636676113</v>
+        <v>0.9851202998491101</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037615412641617</v>
+        <v>1.038096986841907</v>
       </c>
       <c r="J25">
-        <v>0.9794412732134818</v>
+        <v>1.000971140672771</v>
       </c>
       <c r="K25">
-        <v>0.9825182302800347</v>
+        <v>0.997958766871462</v>
       </c>
       <c r="L25">
-        <v>0.9782345852477179</v>
+        <v>0.9957130173221834</v>
       </c>
       <c r="M25">
-        <v>0.9888878298721453</v>
+        <v>0.9979540809758962</v>
       </c>
       <c r="N25">
-        <v>0.9808321921649293</v>
+        <v>1.002392634505521</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9905998921841854</v>
+        <v>1.046511546102183</v>
       </c>
       <c r="D2">
-        <v>0.9990747301030221</v>
+        <v>1.049156109867282</v>
       </c>
       <c r="E2">
-        <v>0.9958519376167141</v>
+        <v>1.043862202901588</v>
       </c>
       <c r="F2">
-        <v>0.9999671459088416</v>
+        <v>1.052962453527666</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043635427239691</v>
+        <v>1.040741526995158</v>
       </c>
       <c r="J2">
-        <v>1.013065440612003</v>
+        <v>1.051565549870939</v>
       </c>
       <c r="K2">
-        <v>1.010546970473714</v>
+        <v>1.051913953512557</v>
       </c>
       <c r="L2">
-        <v>1.007369365643522</v>
+        <v>1.04663487389431</v>
       </c>
       <c r="M2">
-        <v>1.011426938459945</v>
+        <v>1.05570973610711</v>
       </c>
       <c r="N2">
-        <v>1.014504109737903</v>
+        <v>1.05305889356801</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000811479674734</v>
+        <v>1.048340307319676</v>
       </c>
       <c r="D3">
-        <v>1.008580250308001</v>
+        <v>1.050900467100784</v>
       </c>
       <c r="E3">
-        <v>1.004708498423603</v>
+        <v>1.045466613457874</v>
       </c>
       <c r="F3">
-        <v>1.010090940475504</v>
+        <v>1.054844873454863</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047364877546911</v>
+        <v>1.041263571136534</v>
       </c>
       <c r="J3">
-        <v>1.021280047354246</v>
+        <v>1.053038080717663</v>
       </c>
       <c r="K3">
-        <v>1.019104509881884</v>
+        <v>1.053468093532111</v>
       </c>
       <c r="L3">
-        <v>1.015281485556833</v>
+        <v>1.048048334622309</v>
       </c>
       <c r="M3">
-        <v>1.020596313669949</v>
+        <v>1.057402366706319</v>
       </c>
       <c r="N3">
-        <v>1.022730382163947</v>
+        <v>1.054533515577438</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007142791183312</v>
+        <v>1.049519242270478</v>
       </c>
       <c r="D4">
-        <v>1.014478942528298</v>
+        <v>1.052025142673382</v>
       </c>
       <c r="E4">
-        <v>1.010200493394274</v>
+        <v>1.046500416229994</v>
       </c>
       <c r="F4">
-        <v>1.01637666148987</v>
+        <v>1.056059050557989</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049658463855744</v>
+        <v>1.041597847565482</v>
       </c>
       <c r="J4">
-        <v>1.026365531775276</v>
+        <v>1.053986278664154</v>
       </c>
       <c r="K4">
-        <v>1.024405704633589</v>
+        <v>1.05446924568292</v>
       </c>
       <c r="L4">
-        <v>1.020177346817587</v>
+        <v>1.048958113295367</v>
       </c>
       <c r="M4">
-        <v>1.026281372317781</v>
+        <v>1.058493324389906</v>
       </c>
       <c r="N4">
-        <v>1.027823088556168</v>
+        <v>1.055483060073773</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00974350127001</v>
+        <v>1.050013835742399</v>
       </c>
       <c r="D5">
-        <v>1.016903072071881</v>
+        <v>1.052497008864733</v>
       </c>
       <c r="E5">
-        <v>1.012456514994872</v>
+        <v>1.046934002539297</v>
       </c>
       <c r="F5">
-        <v>1.018960670783095</v>
+        <v>1.056568584184338</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050596032270517</v>
+        <v>1.041737541814336</v>
       </c>
       <c r="J5">
-        <v>1.028452576265861</v>
+        <v>1.054383811023256</v>
       </c>
       <c r="K5">
-        <v>1.026582088664675</v>
+        <v>1.05488907593471</v>
       </c>
       <c r="L5">
-        <v>1.022186000311534</v>
+        <v>1.049339446938352</v>
       </c>
       <c r="M5">
-        <v>1.028616517095735</v>
+        <v>1.058950956221495</v>
       </c>
       <c r="N5">
-        <v>1.029913096889317</v>
+        <v>1.055881156974422</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010176734717534</v>
+        <v>1.050096820339847</v>
       </c>
       <c r="D6">
-        <v>1.017306953561623</v>
+        <v>1.052576182288805</v>
       </c>
       <c r="E6">
-        <v>1.012832330628884</v>
+        <v>1.047006744065789</v>
       </c>
       <c r="F6">
-        <v>1.019391238844576</v>
+        <v>1.056654084578164</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050751944133352</v>
+        <v>1.041760948308292</v>
       </c>
       <c r="J6">
-        <v>1.028800126947568</v>
+        <v>1.054450495049881</v>
       </c>
       <c r="K6">
-        <v>1.026944564639517</v>
+        <v>1.054959506000992</v>
       </c>
       <c r="L6">
-        <v>1.022520462993265</v>
+        <v>1.049403408355478</v>
       </c>
       <c r="M6">
-        <v>1.0290055034197</v>
+        <v>1.059027736148521</v>
       </c>
       <c r="N6">
-        <v>1.030261141132857</v>
+        <v>1.055947935700015</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007177775233308</v>
+        <v>1.04952585507368</v>
       </c>
       <c r="D7">
-        <v>1.014511546931951</v>
+        <v>1.052031451468375</v>
       </c>
       <c r="E7">
-        <v>1.010230840628761</v>
+        <v>1.04650621383086</v>
       </c>
       <c r="F7">
-        <v>1.016411412963211</v>
+        <v>1.056065862504253</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049671093990565</v>
+        <v>1.041599717440015</v>
       </c>
       <c r="J7">
-        <v>1.026393613839255</v>
+        <v>1.053991594769919</v>
       </c>
       <c r="K7">
-        <v>1.024434985573818</v>
+        <v>1.054474859592157</v>
       </c>
       <c r="L7">
-        <v>1.020204376369982</v>
+        <v>1.048963213138913</v>
       </c>
       <c r="M7">
-        <v>1.026312784578458</v>
+        <v>1.058499443218145</v>
       </c>
       <c r="N7">
-        <v>1.0278512104999</v>
+        <v>1.055488383729018</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9941114751711678</v>
+        <v>1.04713050777452</v>
       </c>
       <c r="D8">
-        <v>1.002342340190295</v>
+        <v>1.049746472103127</v>
       </c>
       <c r="E8">
-        <v>0.9988972985528892</v>
+        <v>1.04440533482466</v>
       </c>
       <c r="F8">
-        <v>1.003446593353399</v>
+        <v>1.053599441175805</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044921854866509</v>
+        <v>1.040918687782797</v>
       </c>
       <c r="J8">
-        <v>1.015891880946125</v>
+        <v>1.052064167646999</v>
       </c>
       <c r="K8">
-        <v>1.013490676199108</v>
+        <v>1.052440121293301</v>
       </c>
       <c r="L8">
-        <v>1.010092227377276</v>
+        <v>1.047113569364992</v>
       </c>
       <c r="M8">
-        <v>1.014580079869289</v>
+        <v>1.05628266819601</v>
       </c>
       <c r="N8">
-        <v>1.017334563941497</v>
+        <v>1.053558219438505</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.968697159984103</v>
+        <v>1.042874956938232</v>
       </c>
       <c r="D9">
-        <v>0.9787221571229433</v>
+        <v>1.045688207784164</v>
       </c>
       <c r="E9">
-        <v>0.9768668566331622</v>
+        <v>1.04066908201972</v>
       </c>
       <c r="F9">
-        <v>0.9783089458975505</v>
+        <v>1.049222662912426</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035532085998887</v>
+        <v>1.039691325154042</v>
       </c>
       <c r="J9">
-        <v>0.9954058784848724</v>
+        <v>1.048631541110117</v>
       </c>
       <c r="K9">
-        <v>0.9921701513010455</v>
+        <v>1.048819501931938</v>
       </c>
       <c r="L9">
-        <v>0.990346745072597</v>
+        <v>1.043816503503204</v>
       </c>
       <c r="M9">
-        <v>0.9917640300086913</v>
+        <v>1.052342701521181</v>
       </c>
       <c r="N9">
-        <v>0.9968194690069709</v>
+        <v>1.050120718178213</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9496781590454827</v>
+        <v>1.040013257448964</v>
       </c>
       <c r="D10">
-        <v>0.9610906820569945</v>
+        <v>1.042960030674482</v>
       </c>
       <c r="E10">
-        <v>0.9604015406166113</v>
+        <v>1.038154021901375</v>
       </c>
       <c r="F10">
-        <v>0.9595611875509075</v>
+        <v>1.04628287324221</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028406552679876</v>
+        <v>1.038854255378728</v>
       </c>
       <c r="J10">
-        <v>0.9800410699553289</v>
+        <v>1.046317609243971</v>
       </c>
       <c r="K10">
-        <v>0.9761998839127479</v>
+        <v>1.046380944808992</v>
       </c>
       <c r="L10">
-        <v>0.9755245592001248</v>
+        <v>1.041591942021668</v>
       </c>
       <c r="M10">
-        <v>0.974701089881279</v>
+        <v>1.049692130190573</v>
       </c>
       <c r="N10">
-        <v>0.9814328406869477</v>
+        <v>1.047803500263404</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9408109922162677</v>
+        <v>1.038767951361057</v>
       </c>
       <c r="D11">
-        <v>0.9528842729751513</v>
+        <v>1.041773040347968</v>
       </c>
       <c r="E11">
-        <v>0.9527335878082754</v>
+        <v>1.037058956451854</v>
       </c>
       <c r="F11">
-        <v>0.9508385163818515</v>
+        <v>1.045004406810179</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025062790853687</v>
+        <v>1.038487222785632</v>
       </c>
       <c r="J11">
-        <v>0.9728716629644194</v>
+        <v>1.045309343729294</v>
       </c>
       <c r="K11">
-        <v>0.9687529974001107</v>
+        <v>1.045318873397958</v>
       </c>
       <c r="L11">
-        <v>0.9686055395270952</v>
+        <v>1.040622138713645</v>
       </c>
       <c r="M11">
-        <v>0.9667511715598625</v>
+        <v>1.0485384473955</v>
       </c>
       <c r="N11">
-        <v>0.9742532523157683</v>
+        <v>1.046793802896047</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9374069739455291</v>
+        <v>1.038304435325478</v>
       </c>
       <c r="D12">
-        <v>0.9497363341544496</v>
+        <v>1.04133126263024</v>
       </c>
       <c r="E12">
-        <v>0.9497916155072492</v>
+        <v>1.036651271277111</v>
       </c>
       <c r="F12">
-        <v>0.9474929696491091</v>
+        <v>1.044528672246947</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02377610003482</v>
+        <v>1.038350193783559</v>
       </c>
       <c r="J12">
-        <v>0.970118745208985</v>
+        <v>1.044933857637168</v>
       </c>
       <c r="K12">
-        <v>0.9658943062139033</v>
+        <v>1.044923424346484</v>
       </c>
       <c r="L12">
-        <v>0.9659483741986706</v>
+        <v>1.040260903945366</v>
       </c>
       <c r="M12">
-        <v>0.963700340137598</v>
+        <v>1.048108997237167</v>
       </c>
       <c r="N12">
-        <v>0.9714964251013571</v>
+        <v>1.046417783570602</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9381424307444891</v>
+        <v>1.038403904688229</v>
       </c>
       <c r="D13">
-        <v>0.950416348363373</v>
+        <v>1.041426065519169</v>
       </c>
       <c r="E13">
-        <v>0.9504271620269917</v>
+        <v>1.036738763555984</v>
       </c>
       <c r="F13">
-        <v>0.94821565290708</v>
+        <v>1.044630758049862</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024054230488858</v>
+        <v>1.038379618649874</v>
       </c>
       <c r="J13">
-        <v>0.9707135531900927</v>
+        <v>1.045014444996005</v>
       </c>
       <c r="K13">
-        <v>0.9665119329511901</v>
+        <v>1.045008292801501</v>
       </c>
       <c r="L13">
-        <v>0.9665225105111764</v>
+        <v>1.040338435939308</v>
       </c>
       <c r="M13">
-        <v>0.9643594360951302</v>
+        <v>1.048201157826502</v>
       </c>
       <c r="N13">
-        <v>0.9720920777780231</v>
+        <v>1.046498485372732</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9405319690663115</v>
+        <v>1.038729656596453</v>
       </c>
       <c r="D14">
-        <v>0.9526261892867099</v>
+        <v>1.04173654089098</v>
       </c>
       <c r="E14">
-        <v>0.9524924015927224</v>
+        <v>1.037025276158824</v>
       </c>
       <c r="F14">
-        <v>0.9505642236291731</v>
+        <v>1.044965100041532</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024957382737097</v>
+        <v>1.038475910193397</v>
       </c>
       <c r="J14">
-        <v>0.9726460213407979</v>
+        <v>1.045278325877492</v>
       </c>
       <c r="K14">
-        <v>0.9685186703896554</v>
+        <v>1.045286204937933</v>
       </c>
       <c r="L14">
-        <v>0.9683877538995707</v>
+        <v>1.040592299598847</v>
       </c>
       <c r="M14">
-        <v>0.966501075464231</v>
+        <v>1.048502967841961</v>
       </c>
       <c r="N14">
-        <v>0.9740272902551599</v>
+        <v>1.046762740995338</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9419890933855221</v>
+        <v>1.038930235889756</v>
       </c>
       <c r="D15">
-        <v>0.9539740628225984</v>
+        <v>1.04192771810765</v>
       </c>
       <c r="E15">
-        <v>0.9537520029111357</v>
+        <v>1.037201682204803</v>
       </c>
       <c r="F15">
-        <v>0.9519967678184829</v>
+        <v>1.045170985064459</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02550772656789</v>
+        <v>1.038535145984342</v>
       </c>
       <c r="J15">
-        <v>0.9738243499784498</v>
+        <v>1.045440782209248</v>
       </c>
       <c r="K15">
-        <v>0.9697423865523027</v>
+        <v>1.04545730940722</v>
       </c>
       <c r="L15">
-        <v>0.9695250419337997</v>
+        <v>1.040748579323475</v>
       </c>
       <c r="M15">
-        <v>0.9678071806635249</v>
+        <v>1.048688800176153</v>
       </c>
       <c r="N15">
-        <v>0.9752072922546332</v>
+        <v>1.046925428033719</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9502520966009639</v>
+        <v>1.040095772016843</v>
       </c>
       <c r="D16">
-        <v>0.9616221609444349</v>
+        <v>1.043038685730166</v>
       </c>
       <c r="E16">
-        <v>0.9608980637619645</v>
+        <v>1.0382265687916</v>
       </c>
       <c r="F16">
-        <v>0.9601261637487117</v>
+        <v>1.04636760236331</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028622554892465</v>
+        <v>1.038878516925961</v>
       </c>
       <c r="J16">
-        <v>0.9805050155722846</v>
+        <v>1.046384389508997</v>
       </c>
       <c r="K16">
-        <v>0.9766818899141712</v>
+        <v>1.046451299252925</v>
       </c>
       <c r="L16">
-        <v>0.9759722467427523</v>
+        <v>1.041656164723654</v>
       </c>
       <c r="M16">
-        <v>0.9752157865371421</v>
+        <v>1.049768568507466</v>
       </c>
       <c r="N16">
-        <v>0.9818974451598943</v>
+        <v>1.047870375364067</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9552563025271662</v>
+        <v>1.040825211045395</v>
       </c>
       <c r="D17">
-        <v>0.9662577367528106</v>
+        <v>1.043734030684425</v>
       </c>
       <c r="E17">
-        <v>0.9652282802773929</v>
+        <v>1.038867822769557</v>
       </c>
       <c r="F17">
-        <v>0.9650542645498513</v>
+        <v>1.047116713069779</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030503511773547</v>
+        <v>1.039092672850483</v>
       </c>
       <c r="J17">
-        <v>0.9845495584424993</v>
+        <v>1.046974582416447</v>
       </c>
       <c r="K17">
-        <v>0.9808844381887</v>
+        <v>1.047073137491305</v>
       </c>
       <c r="L17">
-        <v>0.9798747475140374</v>
+        <v>1.042223699041356</v>
       </c>
       <c r="M17">
-        <v>0.9797040783847507</v>
+        <v>1.050444263769006</v>
       </c>
       <c r="N17">
-        <v>0.9859477317449002</v>
+        <v>1.048461406413141</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9581154211251516</v>
+        <v>1.041250086871403</v>
       </c>
       <c r="D18">
-        <v>0.9689074944864055</v>
+        <v>1.044139068078262</v>
       </c>
       <c r="E18">
-        <v>0.9677030864937022</v>
+        <v>1.039241275372271</v>
       </c>
       <c r="F18">
-        <v>0.9678715433693453</v>
+        <v>1.047553126040738</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031576172700165</v>
+        <v>1.039217145508788</v>
       </c>
       <c r="J18">
-        <v>0.9868598167028043</v>
+        <v>1.047318223900088</v>
       </c>
       <c r="K18">
-        <v>0.9832854126797816</v>
+        <v>1.047435252423728</v>
       </c>
       <c r="L18">
-        <v>0.9821036096818546</v>
+        <v>1.042554101393656</v>
       </c>
       <c r="M18">
-        <v>0.9822689004460279</v>
+        <v>1.050837811230897</v>
       </c>
       <c r="N18">
-        <v>0.9882612708369254</v>
+        <v>1.048805535907106</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9590805835218646</v>
+        <v>1.041394858663613</v>
       </c>
       <c r="D19">
-        <v>0.9698021860976698</v>
+        <v>1.044277083564957</v>
       </c>
       <c r="E19">
-        <v>0.9685386354722018</v>
+        <v>1.039368515387969</v>
       </c>
       <c r="F19">
-        <v>0.9688228528373024</v>
+        <v>1.047701842368162</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031937928230527</v>
+        <v>1.039259512968242</v>
       </c>
       <c r="J19">
-        <v>0.9876395967917286</v>
+        <v>1.047435294296416</v>
       </c>
       <c r="K19">
-        <v>0.984095890253269</v>
+        <v>1.047558624399769</v>
       </c>
       <c r="L19">
-        <v>0.9828558711789361</v>
+        <v>1.042666653723038</v>
       </c>
       <c r="M19">
-        <v>0.9831347884817607</v>
+        <v>1.050971904091677</v>
       </c>
       <c r="N19">
-        <v>0.9890421583030179</v>
+        <v>1.048922772556825</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9547256788275168</v>
+        <v>1.040747010734194</v>
       </c>
       <c r="D20">
-        <v>0.9657660681311534</v>
+        <v>1.043659483357545</v>
       </c>
       <c r="E20">
-        <v>0.9647690410497887</v>
+        <v>1.038799082447144</v>
       </c>
       <c r="F20">
-        <v>0.9645315376295773</v>
+        <v>1.047036395654521</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030304271866131</v>
+        <v>1.039069741614546</v>
       </c>
       <c r="J20">
-        <v>0.9841207503933769</v>
+        <v>1.046911323356855</v>
       </c>
       <c r="K20">
-        <v>0.980438829809946</v>
+        <v>1.047006481613842</v>
       </c>
       <c r="L20">
-        <v>0.9794610260103496</v>
+        <v>1.042162873386911</v>
       </c>
       <c r="M20">
-        <v>0.9792281094780253</v>
+        <v>1.05037182762503</v>
       </c>
       <c r="N20">
-        <v>0.985518314739163</v>
+        <v>1.048398057518429</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9398314989385939</v>
+        <v>1.038633757327787</v>
       </c>
       <c r="D21">
-        <v>0.9519783264268882</v>
+        <v>1.041645138031503</v>
       </c>
       <c r="E21">
-        <v>0.951886947080048</v>
+        <v>1.036940931176764</v>
       </c>
       <c r="F21">
-        <v>0.949875678038037</v>
+        <v>1.044866668478231</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024692714101831</v>
+        <v>1.038447574042958</v>
       </c>
       <c r="J21">
-        <v>0.9720795526310423</v>
+        <v>1.045200646530031</v>
       </c>
       <c r="K21">
-        <v>0.9679304096466212</v>
+        <v>1.04520439310818</v>
       </c>
       <c r="L21">
-        <v>0.967841001355973</v>
+        <v>1.040517571045317</v>
       </c>
       <c r="M21">
-        <v>0.9658732429634467</v>
+        <v>1.04841411793659</v>
       </c>
       <c r="N21">
-        <v>0.9734600170948615</v>
+        <v>1.046684951334294</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.929817752649324</v>
+        <v>1.037299538495382</v>
       </c>
       <c r="D22">
-        <v>0.9427229838749864</v>
+        <v>1.040373554664913</v>
       </c>
       <c r="E22">
-        <v>0.9432361526590984</v>
+        <v>1.035767250299029</v>
       </c>
       <c r="F22">
-        <v>0.9400400672906933</v>
+        <v>1.043497513679407</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020902027395449</v>
+        <v>1.038052356683218</v>
       </c>
       <c r="J22">
-        <v>0.9639802492405433</v>
+        <v>1.044119444723232</v>
       </c>
       <c r="K22">
-        <v>0.9595214139737019</v>
+        <v>1.044065849536449</v>
       </c>
       <c r="L22">
-        <v>0.9600227046366175</v>
+        <v>1.039477268903493</v>
       </c>
       <c r="M22">
-        <v>0.9569008804725496</v>
+        <v>1.047177887186274</v>
       </c>
       <c r="N22">
-        <v>0.965349211764545</v>
+        <v>1.045602214096913</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9351939815514647</v>
+        <v>1.038007366591561</v>
       </c>
       <c r="D23">
-        <v>0.9476905542352866</v>
+        <v>1.041048135313407</v>
       </c>
       <c r="E23">
-        <v>0.9478795346530184</v>
+        <v>1.036389959337907</v>
       </c>
       <c r="F23">
-        <v>0.9453188790679719</v>
+        <v>1.044223807647309</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022938774396556</v>
+        <v>1.038262254578934</v>
       </c>
       <c r="J23">
-        <v>0.9683288914033654</v>
+        <v>1.044693151551602</v>
       </c>
       <c r="K23">
-        <v>0.9640359027761267</v>
+        <v>1.044669942020681</v>
       </c>
       <c r="L23">
-        <v>0.9642206696166332</v>
+        <v>1.040029313311519</v>
       </c>
       <c r="M23">
-        <v>0.9617172982636583</v>
+        <v>1.047833750995646</v>
       </c>
       <c r="N23">
-        <v>0.9697040294980342</v>
+        <v>1.046176735654785</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9549656283537888</v>
+        <v>1.040782347922184</v>
       </c>
       <c r="D24">
-        <v>0.9659883981788818</v>
+        <v>1.043693169770746</v>
       </c>
       <c r="E24">
-        <v>0.9649767079543786</v>
+        <v>1.038830145031417</v>
       </c>
       <c r="F24">
-        <v>0.9647679111113807</v>
+        <v>1.047072689276126</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030394374993462</v>
+        <v>1.039080104615008</v>
       </c>
       <c r="J24">
-        <v>0.9843146603697811</v>
+        <v>1.046939909281137</v>
       </c>
       <c r="K24">
-        <v>0.9806403355700662</v>
+        <v>1.047036602366729</v>
       </c>
       <c r="L24">
-        <v>0.9796481145622274</v>
+        <v>1.042190359830464</v>
       </c>
       <c r="M24">
-        <v>0.9794433425157199</v>
+        <v>1.050404560173914</v>
       </c>
       <c r="N24">
-        <v>0.9857125000899759</v>
+        <v>1.048426684038002</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9755935287217906</v>
+        <v>1.043979364451032</v>
       </c>
       <c r="D25">
-        <v>0.9851250625732332</v>
+        <v>1.046741268187026</v>
       </c>
       <c r="E25">
-        <v>0.9828423809833412</v>
+        <v>1.041639173254389</v>
       </c>
       <c r="F25">
-        <v>0.9851202998491101</v>
+        <v>1.050357931936849</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038096986841907</v>
+        <v>1.040011911326132</v>
       </c>
       <c r="J25">
-        <v>1.000971140672771</v>
+        <v>1.049523369901002</v>
       </c>
       <c r="K25">
-        <v>0.997958766871462</v>
+        <v>1.04975980456807</v>
       </c>
       <c r="L25">
-        <v>0.9957130173221834</v>
+        <v>1.044673464045637</v>
       </c>
       <c r="M25">
-        <v>0.9979540809758962</v>
+        <v>1.053365401802712</v>
       </c>
       <c r="N25">
-        <v>1.002392634505521</v>
+        <v>1.051013813468274</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046511546102183</v>
+        <v>0.9905998921841859</v>
       </c>
       <c r="D2">
-        <v>1.049156109867282</v>
+        <v>0.9990747301030224</v>
       </c>
       <c r="E2">
-        <v>1.043862202901588</v>
+        <v>0.9958519376167144</v>
       </c>
       <c r="F2">
-        <v>1.052962453527666</v>
+        <v>0.9999671459088417</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040741526995158</v>
+        <v>1.043635427239691</v>
       </c>
       <c r="J2">
-        <v>1.051565549870939</v>
+        <v>1.013065440612004</v>
       </c>
       <c r="K2">
-        <v>1.051913953512557</v>
+        <v>1.010546970473715</v>
       </c>
       <c r="L2">
-        <v>1.04663487389431</v>
+        <v>1.007369365643522</v>
       </c>
       <c r="M2">
-        <v>1.05570973610711</v>
+        <v>1.011426938459945</v>
       </c>
       <c r="N2">
-        <v>1.05305889356801</v>
+        <v>1.014504109737903</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.048340307319676</v>
+        <v>1.000811479674732</v>
       </c>
       <c r="D3">
-        <v>1.050900467100784</v>
+        <v>1.008580250308</v>
       </c>
       <c r="E3">
-        <v>1.045466613457874</v>
+        <v>1.004708498423602</v>
       </c>
       <c r="F3">
-        <v>1.054844873454863</v>
+        <v>1.010090940475503</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041263571136534</v>
+        <v>1.04736487754691</v>
       </c>
       <c r="J3">
-        <v>1.053038080717663</v>
+        <v>1.021280047354244</v>
       </c>
       <c r="K3">
-        <v>1.053468093532111</v>
+        <v>1.019104509881882</v>
       </c>
       <c r="L3">
-        <v>1.048048334622309</v>
+        <v>1.015281485556832</v>
       </c>
       <c r="M3">
-        <v>1.057402366706319</v>
+        <v>1.020596313669948</v>
       </c>
       <c r="N3">
-        <v>1.054533515577438</v>
+        <v>1.022730382163946</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049519242270478</v>
+        <v>1.00714279118331</v>
       </c>
       <c r="D4">
-        <v>1.052025142673382</v>
+        <v>1.014478942528296</v>
       </c>
       <c r="E4">
-        <v>1.046500416229994</v>
+        <v>1.010200493394273</v>
       </c>
       <c r="F4">
-        <v>1.056059050557989</v>
+        <v>1.016376661489869</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041597847565482</v>
+        <v>1.049658463855743</v>
       </c>
       <c r="J4">
-        <v>1.053986278664154</v>
+        <v>1.026365531775274</v>
       </c>
       <c r="K4">
-        <v>1.05446924568292</v>
+        <v>1.024405704633588</v>
       </c>
       <c r="L4">
-        <v>1.048958113295367</v>
+        <v>1.020177346817586</v>
       </c>
       <c r="M4">
-        <v>1.058493324389906</v>
+        <v>1.02628137231778</v>
       </c>
       <c r="N4">
-        <v>1.055483060073773</v>
+        <v>1.027823088556167</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050013835742399</v>
+        <v>1.009743501270009</v>
       </c>
       <c r="D5">
-        <v>1.052497008864733</v>
+        <v>1.01690307207188</v>
       </c>
       <c r="E5">
-        <v>1.046934002539297</v>
+        <v>1.012456514994871</v>
       </c>
       <c r="F5">
-        <v>1.056568584184338</v>
+        <v>1.018960670783094</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041737541814336</v>
+        <v>1.050596032270516</v>
       </c>
       <c r="J5">
-        <v>1.054383811023256</v>
+        <v>1.02845257626586</v>
       </c>
       <c r="K5">
-        <v>1.05488907593471</v>
+        <v>1.026582088664674</v>
       </c>
       <c r="L5">
-        <v>1.049339446938352</v>
+        <v>1.022186000311533</v>
       </c>
       <c r="M5">
-        <v>1.058950956221495</v>
+        <v>1.028616517095734</v>
       </c>
       <c r="N5">
-        <v>1.055881156974422</v>
+        <v>1.029913096889317</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050096820339847</v>
+        <v>1.010176734717534</v>
       </c>
       <c r="D6">
-        <v>1.052576182288805</v>
+        <v>1.017306953561623</v>
       </c>
       <c r="E6">
-        <v>1.047006744065789</v>
+        <v>1.012832330628884</v>
       </c>
       <c r="F6">
-        <v>1.056654084578164</v>
+        <v>1.019391238844576</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041760948308292</v>
+        <v>1.050751944133351</v>
       </c>
       <c r="J6">
-        <v>1.054450495049881</v>
+        <v>1.028800126947568</v>
       </c>
       <c r="K6">
-        <v>1.054959506000992</v>
+        <v>1.026944564639517</v>
       </c>
       <c r="L6">
-        <v>1.049403408355478</v>
+        <v>1.022520462993264</v>
       </c>
       <c r="M6">
-        <v>1.059027736148521</v>
+        <v>1.0290055034197</v>
       </c>
       <c r="N6">
-        <v>1.055947935700015</v>
+        <v>1.030261141132857</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04952585507368</v>
+        <v>1.007177775233307</v>
       </c>
       <c r="D7">
-        <v>1.052031451468375</v>
+        <v>1.014511546931951</v>
       </c>
       <c r="E7">
-        <v>1.04650621383086</v>
+        <v>1.010230840628761</v>
       </c>
       <c r="F7">
-        <v>1.056065862504253</v>
+        <v>1.01641141296321</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041599717440015</v>
+        <v>1.049671093990564</v>
       </c>
       <c r="J7">
-        <v>1.053991594769919</v>
+        <v>1.026393613839255</v>
       </c>
       <c r="K7">
-        <v>1.054474859592157</v>
+        <v>1.024434985573818</v>
       </c>
       <c r="L7">
-        <v>1.048963213138913</v>
+        <v>1.020204376369982</v>
       </c>
       <c r="M7">
-        <v>1.058499443218145</v>
+        <v>1.026312784578458</v>
       </c>
       <c r="N7">
-        <v>1.055488383729018</v>
+        <v>1.027851210499899</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04713050777452</v>
+        <v>0.9941114751711677</v>
       </c>
       <c r="D8">
-        <v>1.049746472103127</v>
+        <v>1.002342340190295</v>
       </c>
       <c r="E8">
-        <v>1.04440533482466</v>
+        <v>0.998897298552889</v>
       </c>
       <c r="F8">
-        <v>1.053599441175805</v>
+        <v>1.003446593353399</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040918687782797</v>
+        <v>1.044921854866508</v>
       </c>
       <c r="J8">
-        <v>1.052064167646999</v>
+        <v>1.015891880946125</v>
       </c>
       <c r="K8">
-        <v>1.052440121293301</v>
+        <v>1.013490676199108</v>
       </c>
       <c r="L8">
-        <v>1.047113569364992</v>
+        <v>1.010092227377276</v>
       </c>
       <c r="M8">
-        <v>1.05628266819601</v>
+        <v>1.014580079869288</v>
       </c>
       <c r="N8">
-        <v>1.053558219438505</v>
+        <v>1.017334563941496</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042874956938232</v>
+        <v>0.9686971599841017</v>
       </c>
       <c r="D9">
-        <v>1.045688207784164</v>
+        <v>0.978722157122942</v>
       </c>
       <c r="E9">
-        <v>1.04066908201972</v>
+        <v>0.9768668566331605</v>
       </c>
       <c r="F9">
-        <v>1.049222662912426</v>
+        <v>0.9783089458975497</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039691325154042</v>
+        <v>1.035532085998887</v>
       </c>
       <c r="J9">
-        <v>1.048631541110117</v>
+        <v>0.9954058784848711</v>
       </c>
       <c r="K9">
-        <v>1.048819501931938</v>
+        <v>0.9921701513010441</v>
       </c>
       <c r="L9">
-        <v>1.043816503503204</v>
+        <v>0.9903467450725956</v>
       </c>
       <c r="M9">
-        <v>1.052342701521181</v>
+        <v>0.9917640300086904</v>
       </c>
       <c r="N9">
-        <v>1.050120718178213</v>
+        <v>0.9968194690069698</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040013257448964</v>
+        <v>0.9496781590454771</v>
       </c>
       <c r="D10">
-        <v>1.042960030674482</v>
+        <v>0.9610906820569892</v>
       </c>
       <c r="E10">
-        <v>1.038154021901375</v>
+        <v>0.9604015406166061</v>
       </c>
       <c r="F10">
-        <v>1.04628287324221</v>
+        <v>0.9595611875509026</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038854255378728</v>
+        <v>1.028406552679874</v>
       </c>
       <c r="J10">
-        <v>1.046317609243971</v>
+        <v>0.9800410699553238</v>
       </c>
       <c r="K10">
-        <v>1.046380944808992</v>
+        <v>0.9761998839127427</v>
       </c>
       <c r="L10">
-        <v>1.041591942021668</v>
+        <v>0.9755245592001197</v>
       </c>
       <c r="M10">
-        <v>1.049692130190573</v>
+        <v>0.9747010898812741</v>
       </c>
       <c r="N10">
-        <v>1.047803500263404</v>
+        <v>0.9814328406869425</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038767951361057</v>
+        <v>0.9408109922162682</v>
       </c>
       <c r="D11">
-        <v>1.041773040347968</v>
+        <v>0.9528842729751522</v>
       </c>
       <c r="E11">
-        <v>1.037058956451854</v>
+        <v>0.9527335878082759</v>
       </c>
       <c r="F11">
-        <v>1.045004406810179</v>
+        <v>0.950838516381852</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038487222785632</v>
+        <v>1.025062790853687</v>
       </c>
       <c r="J11">
-        <v>1.045309343729294</v>
+        <v>0.97287166296442</v>
       </c>
       <c r="K11">
-        <v>1.045318873397958</v>
+        <v>0.9687529974001112</v>
       </c>
       <c r="L11">
-        <v>1.040622138713645</v>
+        <v>0.9686055395270953</v>
       </c>
       <c r="M11">
-        <v>1.0485384473955</v>
+        <v>0.9667511715598629</v>
       </c>
       <c r="N11">
-        <v>1.046793802896047</v>
+        <v>0.9742532523157686</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038304435325478</v>
+        <v>0.9374069739455263</v>
       </c>
       <c r="D12">
-        <v>1.04133126263024</v>
+        <v>0.9497363341544466</v>
       </c>
       <c r="E12">
-        <v>1.036651271277111</v>
+        <v>0.949791615507247</v>
       </c>
       <c r="F12">
-        <v>1.044528672246947</v>
+        <v>0.9474929696491065</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038350193783559</v>
+        <v>1.023776100034819</v>
       </c>
       <c r="J12">
-        <v>1.044933857637168</v>
+        <v>0.9701187452089822</v>
       </c>
       <c r="K12">
-        <v>1.044923424346484</v>
+        <v>0.9658943062139003</v>
       </c>
       <c r="L12">
-        <v>1.040260903945366</v>
+        <v>0.9659483741986683</v>
       </c>
       <c r="M12">
-        <v>1.048108997237167</v>
+        <v>0.9637003401375955</v>
       </c>
       <c r="N12">
-        <v>1.046417783570602</v>
+        <v>0.9714964251013546</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038403904688229</v>
+        <v>0.9381424307444856</v>
       </c>
       <c r="D13">
-        <v>1.041426065519169</v>
+        <v>0.9504163483633694</v>
       </c>
       <c r="E13">
-        <v>1.036738763555984</v>
+        <v>0.9504271620269883</v>
       </c>
       <c r="F13">
-        <v>1.044630758049862</v>
+        <v>0.9482156529070767</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038379618649874</v>
+        <v>1.024054230488856</v>
       </c>
       <c r="J13">
-        <v>1.045014444996005</v>
+        <v>0.9707135531900888</v>
       </c>
       <c r="K13">
-        <v>1.045008292801501</v>
+        <v>0.9665119329511865</v>
       </c>
       <c r="L13">
-        <v>1.040338435939308</v>
+        <v>0.966522510511173</v>
       </c>
       <c r="M13">
-        <v>1.048201157826502</v>
+        <v>0.964359436095127</v>
       </c>
       <c r="N13">
-        <v>1.046498485372732</v>
+        <v>0.9720920777780199</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038729656596453</v>
+        <v>0.9405319690663118</v>
       </c>
       <c r="D14">
-        <v>1.04173654089098</v>
+        <v>0.9526261892867101</v>
       </c>
       <c r="E14">
-        <v>1.037025276158824</v>
+        <v>0.9524924015927223</v>
       </c>
       <c r="F14">
-        <v>1.044965100041532</v>
+        <v>0.9505642236291728</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038475910193397</v>
+        <v>1.024957382737097</v>
       </c>
       <c r="J14">
-        <v>1.045278325877492</v>
+        <v>0.972646021340798</v>
       </c>
       <c r="K14">
-        <v>1.045286204937933</v>
+        <v>0.9685186703896554</v>
       </c>
       <c r="L14">
-        <v>1.040592299598847</v>
+        <v>0.9683877538995705</v>
       </c>
       <c r="M14">
-        <v>1.048502967841961</v>
+        <v>0.9665010754642309</v>
       </c>
       <c r="N14">
-        <v>1.046762740995338</v>
+        <v>0.9740272902551601</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038930235889756</v>
+        <v>0.9419890933855248</v>
       </c>
       <c r="D15">
-        <v>1.04192771810765</v>
+        <v>0.9539740628226014</v>
       </c>
       <c r="E15">
-        <v>1.037201682204803</v>
+        <v>0.9537520029111385</v>
       </c>
       <c r="F15">
-        <v>1.045170985064459</v>
+        <v>0.9519967678184852</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038535145984342</v>
+        <v>1.025507726567892</v>
       </c>
       <c r="J15">
-        <v>1.045440782209248</v>
+        <v>0.9738243499784527</v>
       </c>
       <c r="K15">
-        <v>1.04545730940722</v>
+        <v>0.9697423865523057</v>
       </c>
       <c r="L15">
-        <v>1.040748579323475</v>
+        <v>0.9695250419338026</v>
       </c>
       <c r="M15">
-        <v>1.048688800176153</v>
+        <v>0.9678071806635271</v>
       </c>
       <c r="N15">
-        <v>1.046925428033719</v>
+        <v>0.9752072922546359</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040095772016843</v>
+        <v>0.9502520966009615</v>
       </c>
       <c r="D16">
-        <v>1.043038685730166</v>
+        <v>0.9616221609444324</v>
       </c>
       <c r="E16">
-        <v>1.0382265687916</v>
+        <v>0.9608980637619626</v>
       </c>
       <c r="F16">
-        <v>1.04636760236331</v>
+        <v>0.9601261637487104</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038878516925961</v>
+        <v>1.028622554892464</v>
       </c>
       <c r="J16">
-        <v>1.046384389508997</v>
+        <v>0.9805050155722824</v>
       </c>
       <c r="K16">
-        <v>1.046451299252925</v>
+        <v>0.9766818899141687</v>
       </c>
       <c r="L16">
-        <v>1.041656164723654</v>
+        <v>0.9759722467427504</v>
       </c>
       <c r="M16">
-        <v>1.049768568507466</v>
+        <v>0.9752157865371406</v>
       </c>
       <c r="N16">
-        <v>1.047870375364067</v>
+        <v>0.9818974451598921</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040825211045395</v>
+        <v>0.9552563025271675</v>
       </c>
       <c r="D17">
-        <v>1.043734030684425</v>
+        <v>0.9662577367528123</v>
       </c>
       <c r="E17">
-        <v>1.038867822769557</v>
+        <v>0.9652282802773938</v>
       </c>
       <c r="F17">
-        <v>1.047116713069779</v>
+        <v>0.9650542645498533</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039092672850483</v>
+        <v>1.030503511773548</v>
       </c>
       <c r="J17">
-        <v>1.046974582416447</v>
+        <v>0.9845495584425006</v>
       </c>
       <c r="K17">
-        <v>1.047073137491305</v>
+        <v>0.9808844381887015</v>
       </c>
       <c r="L17">
-        <v>1.042223699041356</v>
+        <v>0.9798747475140382</v>
       </c>
       <c r="M17">
-        <v>1.050444263769006</v>
+        <v>0.9797040783847524</v>
       </c>
       <c r="N17">
-        <v>1.048461406413141</v>
+        <v>0.9859477317449017</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041250086871403</v>
+        <v>0.9581154211251539</v>
       </c>
       <c r="D18">
-        <v>1.044139068078262</v>
+        <v>0.9689074944864073</v>
       </c>
       <c r="E18">
-        <v>1.039241275372271</v>
+        <v>0.9677030864937041</v>
       </c>
       <c r="F18">
-        <v>1.047553126040738</v>
+        <v>0.9678715433693473</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039217145508788</v>
+        <v>1.031576172700167</v>
       </c>
       <c r="J18">
-        <v>1.047318223900088</v>
+        <v>0.9868598167028065</v>
       </c>
       <c r="K18">
-        <v>1.047435252423728</v>
+        <v>0.983285412679784</v>
       </c>
       <c r="L18">
-        <v>1.042554101393656</v>
+        <v>0.9821036096818566</v>
       </c>
       <c r="M18">
-        <v>1.050837811230897</v>
+        <v>0.9822689004460298</v>
       </c>
       <c r="N18">
-        <v>1.048805535907106</v>
+        <v>0.9882612708369275</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041394858663613</v>
+        <v>0.9590805835218623</v>
       </c>
       <c r="D19">
-        <v>1.044277083564957</v>
+        <v>0.9698021860976672</v>
       </c>
       <c r="E19">
-        <v>1.039368515387969</v>
+        <v>0.9685386354721996</v>
       </c>
       <c r="F19">
-        <v>1.047701842368162</v>
+        <v>0.9688228528373009</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039259512968242</v>
+        <v>1.031937928230527</v>
       </c>
       <c r="J19">
-        <v>1.047435294296416</v>
+        <v>0.9876395967917263</v>
       </c>
       <c r="K19">
-        <v>1.047558624399769</v>
+        <v>0.9840958902532666</v>
       </c>
       <c r="L19">
-        <v>1.042666653723038</v>
+        <v>0.9828558711789341</v>
       </c>
       <c r="M19">
-        <v>1.050971904091677</v>
+        <v>0.9831347884817591</v>
       </c>
       <c r="N19">
-        <v>1.048922772556825</v>
+        <v>0.9890421583030155</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040747010734194</v>
+        <v>0.9547256788275157</v>
       </c>
       <c r="D20">
-        <v>1.043659483357545</v>
+        <v>0.9657660681311526</v>
       </c>
       <c r="E20">
-        <v>1.038799082447144</v>
+        <v>0.9647690410497877</v>
       </c>
       <c r="F20">
-        <v>1.047036395654521</v>
+        <v>0.9645315376295766</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039069741614546</v>
+        <v>1.030304271866131</v>
       </c>
       <c r="J20">
-        <v>1.046911323356855</v>
+        <v>0.9841207503933759</v>
       </c>
       <c r="K20">
-        <v>1.047006481613842</v>
+        <v>0.9804388298099452</v>
       </c>
       <c r="L20">
-        <v>1.042162873386911</v>
+        <v>0.9794610260103488</v>
       </c>
       <c r="M20">
-        <v>1.05037182762503</v>
+        <v>0.9792281094780247</v>
       </c>
       <c r="N20">
-        <v>1.048398057518429</v>
+        <v>0.9855183147391621</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038633757327787</v>
+        <v>0.9398314989385936</v>
       </c>
       <c r="D21">
-        <v>1.041645138031503</v>
+        <v>0.9519783264268876</v>
       </c>
       <c r="E21">
-        <v>1.036940931176764</v>
+        <v>0.9518869470800477</v>
       </c>
       <c r="F21">
-        <v>1.044866668478231</v>
+        <v>0.9498756780380362</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038447574042958</v>
+        <v>1.024692714101831</v>
       </c>
       <c r="J21">
-        <v>1.045200646530031</v>
+        <v>0.972079552631042</v>
       </c>
       <c r="K21">
-        <v>1.04520439310818</v>
+        <v>0.9679304096466209</v>
       </c>
       <c r="L21">
-        <v>1.040517571045317</v>
+        <v>0.9678410013559728</v>
       </c>
       <c r="M21">
-        <v>1.04841411793659</v>
+        <v>0.9658732429634461</v>
       </c>
       <c r="N21">
-        <v>1.046684951334294</v>
+        <v>0.9734600170948612</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.037299538495382</v>
+        <v>0.9298177526493251</v>
       </c>
       <c r="D22">
-        <v>1.040373554664913</v>
+        <v>0.9427229838749875</v>
       </c>
       <c r="E22">
-        <v>1.035767250299029</v>
+        <v>0.9432361526590991</v>
       </c>
       <c r="F22">
-        <v>1.043497513679407</v>
+        <v>0.9400400672906946</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038052356683218</v>
+        <v>1.020902027395449</v>
       </c>
       <c r="J22">
-        <v>1.044119444723232</v>
+        <v>0.9639802492405446</v>
       </c>
       <c r="K22">
-        <v>1.044065849536449</v>
+        <v>0.9595214139737032</v>
       </c>
       <c r="L22">
-        <v>1.039477268903493</v>
+        <v>0.9600227046366181</v>
       </c>
       <c r="M22">
-        <v>1.047177887186274</v>
+        <v>0.9569008804725508</v>
       </c>
       <c r="N22">
-        <v>1.045602214096913</v>
+        <v>0.9653492117645459</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038007366591561</v>
+        <v>0.9351939815514642</v>
       </c>
       <c r="D23">
-        <v>1.041048135313407</v>
+        <v>0.9476905542352863</v>
       </c>
       <c r="E23">
-        <v>1.036389959337907</v>
+        <v>0.9478795346530178</v>
       </c>
       <c r="F23">
-        <v>1.044223807647309</v>
+        <v>0.9453188790679719</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038262254578934</v>
+        <v>1.022938774396556</v>
       </c>
       <c r="J23">
-        <v>1.044693151551602</v>
+        <v>0.968328891403365</v>
       </c>
       <c r="K23">
-        <v>1.044669942020681</v>
+        <v>0.9640359027761261</v>
       </c>
       <c r="L23">
-        <v>1.040029313311519</v>
+        <v>0.9642206696166327</v>
       </c>
       <c r="M23">
-        <v>1.047833750995646</v>
+        <v>0.9617172982636581</v>
       </c>
       <c r="N23">
-        <v>1.046176735654785</v>
+        <v>0.9697040294980339</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040782347922184</v>
+        <v>0.9549656283537898</v>
       </c>
       <c r="D24">
-        <v>1.043693169770746</v>
+        <v>0.9659883981788826</v>
       </c>
       <c r="E24">
-        <v>1.038830145031417</v>
+        <v>0.9649767079543795</v>
       </c>
       <c r="F24">
-        <v>1.047072689276126</v>
+        <v>0.9647679111113816</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039080104615008</v>
+        <v>1.030394374993462</v>
       </c>
       <c r="J24">
-        <v>1.046939909281137</v>
+        <v>0.9843146603697819</v>
       </c>
       <c r="K24">
-        <v>1.047036602366729</v>
+        <v>0.980640335570067</v>
       </c>
       <c r="L24">
-        <v>1.042190359830464</v>
+        <v>0.9796481145622281</v>
       </c>
       <c r="M24">
-        <v>1.050404560173914</v>
+        <v>0.9794433425157205</v>
       </c>
       <c r="N24">
-        <v>1.048426684038002</v>
+        <v>0.9857125000899766</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043979364451032</v>
+        <v>0.9755935287217888</v>
       </c>
       <c r="D25">
-        <v>1.046741268187026</v>
+        <v>0.9851250625732312</v>
       </c>
       <c r="E25">
-        <v>1.041639173254389</v>
+        <v>0.9828423809833395</v>
       </c>
       <c r="F25">
-        <v>1.050357931936849</v>
+        <v>0.9851202998491086</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040011911326132</v>
+        <v>1.038096986841907</v>
       </c>
       <c r="J25">
-        <v>1.049523369901002</v>
+        <v>1.000971140672769</v>
       </c>
       <c r="K25">
-        <v>1.04975980456807</v>
+        <v>0.9979587668714601</v>
       </c>
       <c r="L25">
-        <v>1.044673464045637</v>
+        <v>0.9957130173221816</v>
       </c>
       <c r="M25">
-        <v>1.053365401802712</v>
+        <v>0.9979540809758949</v>
       </c>
       <c r="N25">
-        <v>1.051013813468274</v>
+        <v>1.002392634505519</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9905998921841859</v>
+        <v>1.005165134011265</v>
       </c>
       <c r="D2">
-        <v>0.9990747301030224</v>
+        <v>1.023019428975871</v>
       </c>
       <c r="E2">
-        <v>0.9958519376167144</v>
+        <v>1.010911848358778</v>
       </c>
       <c r="F2">
-        <v>0.9999671459088417</v>
+        <v>1.03165792016367</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043635427239691</v>
+        <v>1.046206051835365</v>
       </c>
       <c r="J2">
-        <v>1.013065440612004</v>
+        <v>1.027192446744795</v>
       </c>
       <c r="K2">
-        <v>1.010546970473715</v>
+        <v>1.034167117761458</v>
       </c>
       <c r="L2">
-        <v>1.007369365643522</v>
+        <v>1.022221228501713</v>
       </c>
       <c r="M2">
-        <v>1.011426938459945</v>
+        <v>1.042693148173331</v>
       </c>
       <c r="N2">
-        <v>1.014504109737903</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012927530693185</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042361151211411</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035229347459112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000811479674732</v>
+        <v>1.008557506323243</v>
       </c>
       <c r="D3">
-        <v>1.008580250308</v>
+        <v>1.025467373071062</v>
       </c>
       <c r="E3">
-        <v>1.004708498423602</v>
+        <v>1.013547780479876</v>
       </c>
       <c r="F3">
-        <v>1.010090940475503</v>
+        <v>1.034128799301357</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04736487754691</v>
+        <v>1.046701981307078</v>
       </c>
       <c r="J3">
-        <v>1.021280047354244</v>
+        <v>1.028817572744506</v>
       </c>
       <c r="K3">
-        <v>1.019104509881882</v>
+        <v>1.035784442716825</v>
       </c>
       <c r="L3">
-        <v>1.015281485556832</v>
+        <v>1.024010200607944</v>
       </c>
       <c r="M3">
-        <v>1.020596313669948</v>
+        <v>1.04434285263183</v>
       </c>
       <c r="N3">
-        <v>1.022730382163946</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01348075180224</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.043666777148373</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036370270419158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00714279118331</v>
+        <v>1.010717616331734</v>
       </c>
       <c r="D4">
-        <v>1.014478942528296</v>
+        <v>1.02703276942025</v>
       </c>
       <c r="E4">
-        <v>1.010200493394273</v>
+        <v>1.015231960196464</v>
       </c>
       <c r="F4">
-        <v>1.016376661489869</v>
+        <v>1.035709007714402</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049658463855743</v>
+        <v>1.047007419779466</v>
       </c>
       <c r="J4">
-        <v>1.026365531775274</v>
+        <v>1.029851081705883</v>
       </c>
       <c r="K4">
-        <v>1.024405704633588</v>
+        <v>1.036815523247859</v>
       </c>
       <c r="L4">
-        <v>1.020177346817586</v>
+        <v>1.025149960125795</v>
       </c>
       <c r="M4">
-        <v>1.02628137231778</v>
+        <v>1.045394743435557</v>
       </c>
       <c r="N4">
-        <v>1.027823088556167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013832481098331</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044499274081007</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.03710023836365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009743501270009</v>
+        <v>1.011620969560528</v>
       </c>
       <c r="D5">
-        <v>1.01690307207188</v>
+        <v>1.027691452110949</v>
       </c>
       <c r="E5">
-        <v>1.012456514994871</v>
+        <v>1.015938017206798</v>
       </c>
       <c r="F5">
-        <v>1.018960670783094</v>
+        <v>1.036372432249713</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050596032270516</v>
+        <v>1.047133521646169</v>
       </c>
       <c r="J5">
-        <v>1.02845257626586</v>
+        <v>1.030284647562541</v>
       </c>
       <c r="K5">
-        <v>1.026582088664674</v>
+        <v>1.037250250941611</v>
       </c>
       <c r="L5">
-        <v>1.022186000311533</v>
+        <v>1.025627940971966</v>
       </c>
       <c r="M5">
-        <v>1.028616517095734</v>
+        <v>1.04583672515452</v>
       </c>
       <c r="N5">
-        <v>1.029913096889317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013980240934984</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044849070967178</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037414825394875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010176734717534</v>
+        <v>1.011776313785854</v>
       </c>
       <c r="D6">
-        <v>1.017306953561623</v>
+        <v>1.027807801924587</v>
       </c>
       <c r="E6">
-        <v>1.012832330628884</v>
+        <v>1.016059979928522</v>
       </c>
       <c r="F6">
-        <v>1.019391238844576</v>
+        <v>1.036487783606007</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050751944133351</v>
+        <v>1.047156145020843</v>
       </c>
       <c r="J6">
-        <v>1.028800126947568</v>
+        <v>1.030361239495762</v>
       </c>
       <c r="K6">
-        <v>1.026944564639517</v>
+        <v>1.037328973988789</v>
       </c>
       <c r="L6">
-        <v>1.022520462993264</v>
+        <v>1.025711615020761</v>
       </c>
       <c r="M6">
-        <v>1.0290055034197</v>
+        <v>1.045914890508622</v>
       </c>
       <c r="N6">
-        <v>1.030261141132857</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014006622822804</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044910933231181</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037479264196418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007177775233307</v>
+        <v>1.01074089461456</v>
       </c>
       <c r="D7">
-        <v>1.014511546931951</v>
+        <v>1.027057739963708</v>
       </c>
       <c r="E7">
-        <v>1.010230840628761</v>
+        <v>1.015251414127537</v>
       </c>
       <c r="F7">
-        <v>1.01641141296321</v>
+        <v>1.03572923712996</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049671093990564</v>
+        <v>1.047013615152737</v>
       </c>
       <c r="J7">
-        <v>1.026393613839255</v>
+        <v>1.029867789761345</v>
       </c>
       <c r="K7">
-        <v>1.024434985573818</v>
+        <v>1.036837316033348</v>
       </c>
       <c r="L7">
-        <v>1.020204376369982</v>
+        <v>1.025166247041664</v>
       </c>
       <c r="M7">
-        <v>1.026312784578458</v>
+        <v>1.045411885659861</v>
       </c>
       <c r="N7">
-        <v>1.027851210499899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013838940045933</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044512840927335</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037135831179938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9941114751711677</v>
+        <v>1.006333140474271</v>
       </c>
       <c r="D8">
-        <v>1.002342340190295</v>
+        <v>1.023870827967337</v>
       </c>
       <c r="E8">
-        <v>0.998897298552889</v>
+        <v>1.011819864886512</v>
       </c>
       <c r="F8">
-        <v>1.003446593353399</v>
+        <v>1.03251115461413</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044921854866508</v>
+        <v>1.04638257462567</v>
       </c>
       <c r="J8">
-        <v>1.015891880946125</v>
+        <v>1.027759213341945</v>
       </c>
       <c r="K8">
-        <v>1.013490676199108</v>
+        <v>1.034736877606867</v>
       </c>
       <c r="L8">
-        <v>1.010092227377276</v>
+        <v>1.022842073959545</v>
       </c>
       <c r="M8">
-        <v>1.014580079869288</v>
+        <v>1.043268038394815</v>
       </c>
       <c r="N8">
-        <v>1.017334563941496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013121490476855</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042816136963051</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.035655221910897</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9686971599841017</v>
+        <v>0.9982696458410305</v>
       </c>
       <c r="D9">
-        <v>0.978722157122942</v>
+        <v>1.018081747161838</v>
       </c>
       <c r="E9">
-        <v>0.9768668566331605</v>
+        <v>1.005586750301148</v>
       </c>
       <c r="F9">
-        <v>0.9783089458975497</v>
+        <v>1.026674724233426</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035532085998887</v>
+        <v>1.045143376034453</v>
       </c>
       <c r="J9">
-        <v>0.9954058784848711</v>
+        <v>1.02388365569127</v>
       </c>
       <c r="K9">
-        <v>0.9921701513010441</v>
+        <v>1.030888117677563</v>
       </c>
       <c r="L9">
-        <v>0.9903467450725956</v>
+        <v>1.018589832042021</v>
       </c>
       <c r="M9">
-        <v>0.9917640300086904</v>
+        <v>1.039349355267328</v>
       </c>
       <c r="N9">
-        <v>0.9968194690069698</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011800846642718</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.039714765290375</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.032930677829405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9496781590454771</v>
+        <v>0.9927443643230944</v>
       </c>
       <c r="D10">
-        <v>0.9610906820569892</v>
+        <v>1.014180956215342</v>
       </c>
       <c r="E10">
-        <v>0.9604015406166061</v>
+        <v>1.001355647576889</v>
       </c>
       <c r="F10">
-        <v>0.9595611875509026</v>
+        <v>1.02279181817466</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028406552679874</v>
+        <v>1.044259627496638</v>
       </c>
       <c r="J10">
-        <v>0.9800410699553238</v>
+        <v>1.021248840411214</v>
       </c>
       <c r="K10">
-        <v>0.9761998839127427</v>
+        <v>1.028298804143677</v>
       </c>
       <c r="L10">
-        <v>0.9755245592001197</v>
+        <v>1.015700468450936</v>
       </c>
       <c r="M10">
-        <v>0.9747010898812741</v>
+        <v>1.036761401984544</v>
       </c>
       <c r="N10">
-        <v>0.9814328406869425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010906471052999</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.037718054502963</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.031116755317457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9408109922162682</v>
+        <v>0.9907093692742361</v>
       </c>
       <c r="D11">
-        <v>0.9528842729751522</v>
+        <v>1.012964752744254</v>
       </c>
       <c r="E11">
-        <v>0.9527335878082759</v>
+        <v>0.9998580401496682</v>
       </c>
       <c r="F11">
-        <v>0.950838516381852</v>
+        <v>1.021976985150446</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025062790853687</v>
+        <v>1.044053799507656</v>
       </c>
       <c r="J11">
-        <v>0.97287166296442</v>
+        <v>1.02047382287862</v>
       </c>
       <c r="K11">
-        <v>0.9687529974001112</v>
+        <v>1.027646245565626</v>
       </c>
       <c r="L11">
-        <v>0.9686055395270953</v>
+        <v>1.014782634122123</v>
       </c>
       <c r="M11">
-        <v>0.9667511715598629</v>
+        <v>1.03649601685678</v>
       </c>
       <c r="N11">
-        <v>0.9742532523157686</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.01067468385177</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037944508872617</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.030688397883537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9374069739455263</v>
+        <v>0.9900901866393127</v>
       </c>
       <c r="D12">
-        <v>0.9497363341544466</v>
+        <v>1.012678217193274</v>
       </c>
       <c r="E12">
-        <v>0.949791615507247</v>
+        <v>0.9994269828195366</v>
       </c>
       <c r="F12">
-        <v>0.9474929696491065</v>
+        <v>1.021987521336929</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023776100034819</v>
+        <v>1.044045302439929</v>
       </c>
       <c r="J12">
-        <v>0.9701187452089822</v>
+        <v>1.020319950697709</v>
       </c>
       <c r="K12">
-        <v>0.9658943062139003</v>
+        <v>1.027566487738687</v>
       </c>
       <c r="L12">
-        <v>0.9659483741986683</v>
+        <v>1.014565169174221</v>
       </c>
       <c r="M12">
-        <v>0.9637003401375955</v>
+        <v>1.036705260186803</v>
       </c>
       <c r="N12">
-        <v>0.9714964251013546</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010647614143</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.038436523026412</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.030632005911035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9381424307444856</v>
+        <v>0.9905339785694065</v>
       </c>
       <c r="D13">
-        <v>0.9504163483633694</v>
+        <v>1.013109060707152</v>
       </c>
       <c r="E13">
-        <v>0.9504271620269883</v>
+        <v>0.9997988324196738</v>
       </c>
       <c r="F13">
-        <v>0.9482156529070767</v>
+        <v>1.022659694314922</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024054230488856</v>
+        <v>1.044198916772093</v>
       </c>
       <c r="J13">
-        <v>0.9707135531900888</v>
+        <v>1.020650323052916</v>
       </c>
       <c r="K13">
-        <v>0.9665119329511865</v>
+        <v>1.027946143106645</v>
       </c>
       <c r="L13">
-        <v>0.966522510511173</v>
+        <v>1.014885840628061</v>
       </c>
       <c r="M13">
-        <v>0.964359436095127</v>
+        <v>1.037322654815709</v>
       </c>
       <c r="N13">
-        <v>0.9720920777780199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.01078289052911</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039201399019219</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.030897930832464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9405319690663118</v>
+        <v>0.9913275096016447</v>
       </c>
       <c r="D14">
-        <v>0.9526261892867101</v>
+        <v>1.013737389814663</v>
       </c>
       <c r="E14">
-        <v>0.9524924015927223</v>
+        <v>1.000424030997162</v>
       </c>
       <c r="F14">
-        <v>0.9505642236291728</v>
+        <v>1.023430353139542</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024957382737097</v>
+        <v>1.044379860538129</v>
       </c>
       <c r="J14">
-        <v>0.972646021340798</v>
+        <v>1.021101755223263</v>
       </c>
       <c r="K14">
-        <v>0.9685186703896554</v>
+        <v>1.028421442631983</v>
       </c>
       <c r="L14">
-        <v>0.9683877538995705</v>
+        <v>1.015354913512072</v>
       </c>
       <c r="M14">
-        <v>0.9665010754642309</v>
+        <v>1.037939940952233</v>
       </c>
       <c r="N14">
-        <v>0.9740272902551601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01095151507543</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039862670472168</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03123541919784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9419890933855248</v>
+        <v>0.9917572305029303</v>
       </c>
       <c r="D15">
-        <v>0.9539740628226014</v>
+        <v>1.014056489358439</v>
       </c>
       <c r="E15">
-        <v>0.9537520029111385</v>
+        <v>1.000756151549214</v>
       </c>
       <c r="F15">
-        <v>0.9519967678184852</v>
+        <v>1.023778130187142</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025507726567892</v>
+        <v>1.044462218255247</v>
       </c>
       <c r="J15">
-        <v>0.9738243499784527</v>
+        <v>1.021323793215202</v>
       </c>
       <c r="K15">
-        <v>0.9697423865523057</v>
+        <v>1.028647618779741</v>
       </c>
       <c r="L15">
-        <v>0.9695250419338026</v>
+        <v>1.01559197364659</v>
       </c>
       <c r="M15">
-        <v>0.9678071806635271</v>
+        <v>1.038195620784184</v>
       </c>
       <c r="N15">
-        <v>0.9752072922546359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011030439235655</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040102292351982</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03140123723453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9502520966009615</v>
+        <v>0.9940082216963789</v>
       </c>
       <c r="D16">
-        <v>0.9616221609444324</v>
+        <v>1.015629263440952</v>
       </c>
       <c r="E16">
-        <v>0.9608980637619626</v>
+        <v>1.002468041398818</v>
       </c>
       <c r="F16">
-        <v>0.9601261637487104</v>
+        <v>1.025323388259004</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028622554892464</v>
+        <v>1.044822110958574</v>
       </c>
       <c r="J16">
-        <v>0.9805050155722824</v>
+        <v>1.02238404642597</v>
       </c>
       <c r="K16">
-        <v>0.9766818899141687</v>
+        <v>1.029686080083641</v>
       </c>
       <c r="L16">
-        <v>0.9759722467427504</v>
+        <v>1.016756329938898</v>
       </c>
       <c r="M16">
-        <v>0.9752157865371406</v>
+        <v>1.039214613165257</v>
       </c>
       <c r="N16">
-        <v>0.9818974451598921</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011386070984561</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040868988484287</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032138656759065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,81 +1228,105 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9552563025271675</v>
+        <v>0.9953221050048627</v>
       </c>
       <c r="D17">
-        <v>0.9662577367528123</v>
+        <v>1.016509171393524</v>
       </c>
       <c r="E17">
-        <v>0.9652282802773938</v>
+        <v>1.003457423898414</v>
       </c>
       <c r="F17">
-        <v>0.9650542645498533</v>
+        <v>1.026101841294963</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030503511773548</v>
+        <v>1.045000915685849</v>
       </c>
       <c r="J17">
-        <v>0.9845495584425006</v>
+        <v>1.022961242355641</v>
       </c>
       <c r="K17">
-        <v>0.9808844381887015</v>
+        <v>1.030233797240961</v>
       </c>
       <c r="L17">
-        <v>0.9798747475140382</v>
+        <v>1.017405102310491</v>
       </c>
       <c r="M17">
-        <v>0.9797040783847524</v>
+        <v>1.039667182097268</v>
       </c>
       <c r="N17">
-        <v>0.9859477317449017</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011570567573411</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041097686115725</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.032528518274572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>0.9581154211251539</v>
+        <v>0.9959406658997126</v>
       </c>
       <c r="D18">
-        <v>0.9689074944864073</v>
+        <v>1.016846329767985</v>
       </c>
       <c r="E18">
-        <v>0.9677030864937041</v>
+        <v>1.003903064553207</v>
       </c>
       <c r="F18">
-        <v>0.9678715433693473</v>
+        <v>1.026243282985877</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031576172700167</v>
+        <v>1.045033820122363</v>
       </c>
       <c r="J18">
-        <v>0.9868598167028065</v>
+        <v>1.023157912043402</v>
       </c>
       <c r="K18">
-        <v>0.983285412679784</v>
+        <v>1.030380474283166</v>
       </c>
       <c r="L18">
-        <v>0.9821036096818566</v>
+        <v>1.017654764413833</v>
       </c>
       <c r="M18">
-        <v>0.9822689004460298</v>
+        <v>1.039623893487112</v>
       </c>
       <c r="N18">
-        <v>0.9882612708369275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011617710266389</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.04082578760086</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.032620530418014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9590805835218623</v>
+        <v>0.9959446222085618</v>
       </c>
       <c r="D19">
-        <v>0.9698021860976672</v>
+        <v>1.016711183115868</v>
       </c>
       <c r="E19">
-        <v>0.9685386354721996</v>
+        <v>1.003869627130399</v>
       </c>
       <c r="F19">
-        <v>0.9688228528373009</v>
+        <v>1.025816481750159</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031937928230527</v>
+        <v>1.044943275472671</v>
       </c>
       <c r="J19">
-        <v>0.9876395967917263</v>
+        <v>1.023026188274429</v>
       </c>
       <c r="K19">
-        <v>0.9840958902532666</v>
+        <v>1.030184531343765</v>
       </c>
       <c r="L19">
-        <v>0.9828558711789341</v>
+        <v>1.01755771163424</v>
       </c>
       <c r="M19">
-        <v>0.9831347884817591</v>
+        <v>1.039141750714137</v>
       </c>
       <c r="N19">
-        <v>0.9890421583030155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011549162729741</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040119033369152</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.032488418853612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9547256788275157</v>
+        <v>0.9942054701156841</v>
       </c>
       <c r="D20">
-        <v>0.9657660681311526</v>
+        <v>1.015231222489136</v>
       </c>
       <c r="E20">
-        <v>0.9647690410497877</v>
+        <v>1.002476156393361</v>
       </c>
       <c r="F20">
-        <v>0.9645315376295766</v>
+        <v>1.023828064347662</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030304271866131</v>
+        <v>1.044505052808867</v>
       </c>
       <c r="J20">
-        <v>0.9841207503933759</v>
+        <v>1.021961603167434</v>
       </c>
       <c r="K20">
-        <v>0.9804388298099452</v>
+        <v>1.029011434064408</v>
       </c>
       <c r="L20">
-        <v>0.9794610260103488</v>
+        <v>1.016475604868597</v>
       </c>
       <c r="M20">
-        <v>0.9792281094780247</v>
+        <v>1.037464478156374</v>
       </c>
       <c r="N20">
-        <v>0.9855183147391621</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01115088912148</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038263906903297</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031662929536984</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9398314989385936</v>
+        <v>0.9899866973250225</v>
       </c>
       <c r="D21">
-        <v>0.9519783264268876</v>
+        <v>1.012222074345718</v>
       </c>
       <c r="E21">
-        <v>0.9518869470800477</v>
+        <v>0.9992473510644668</v>
       </c>
       <c r="F21">
-        <v>0.9498756780380362</v>
+        <v>1.020758222838241</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024692714101831</v>
+        <v>1.043787114589817</v>
       </c>
       <c r="J21">
-        <v>0.972079552631042</v>
+        <v>1.019909119377402</v>
       </c>
       <c r="K21">
-        <v>0.9679304096466209</v>
+        <v>1.026975537298079</v>
       </c>
       <c r="L21">
-        <v>0.9678410013559728</v>
+        <v>1.014242996654179</v>
       </c>
       <c r="M21">
-        <v>0.9658732429634461</v>
+        <v>1.035356714782935</v>
       </c>
       <c r="N21">
-        <v>0.9734600170948612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010448240673312</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.036554847625411</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.030226706370964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9298177526493251</v>
+        <v>0.9872989484381156</v>
       </c>
       <c r="D22">
-        <v>0.9427229838749875</v>
+        <v>1.010318422882241</v>
       </c>
       <c r="E22">
-        <v>0.9432361526590991</v>
+        <v>0.997199489675294</v>
       </c>
       <c r="F22">
-        <v>0.9400400672906946</v>
+        <v>1.018846445716405</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020902027395449</v>
+        <v>1.043324551439795</v>
       </c>
       <c r="J22">
-        <v>0.9639802492405446</v>
+        <v>1.018606905733562</v>
       </c>
       <c r="K22">
-        <v>0.9595214139737032</v>
+        <v>1.025688204207742</v>
       </c>
       <c r="L22">
-        <v>0.9600227046366181</v>
+        <v>1.012826630118426</v>
       </c>
       <c r="M22">
-        <v>0.9569008804725508</v>
+        <v>1.034053573484644</v>
       </c>
       <c r="N22">
-        <v>0.9653492117645459</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010003172530908</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035523492225651</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.02930290561226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9351939815514642</v>
+        <v>0.9887172029232616</v>
       </c>
       <c r="D23">
-        <v>0.9476905542352863</v>
+        <v>1.01131484432631</v>
       </c>
       <c r="E23">
-        <v>0.9478795346530178</v>
+        <v>0.998277876984599</v>
       </c>
       <c r="F23">
-        <v>0.9453188790679719</v>
+        <v>1.019851355306401</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022938774396556</v>
+        <v>1.043567000642291</v>
       </c>
       <c r="J23">
-        <v>0.968328891403365</v>
+        <v>1.019288814568225</v>
       </c>
       <c r="K23">
-        <v>0.9640359027761261</v>
+        <v>1.026357736778192</v>
       </c>
       <c r="L23">
-        <v>0.9642206696166327</v>
+        <v>1.013569922334538</v>
       </c>
       <c r="M23">
-        <v>0.9617172982636581</v>
+        <v>1.034735599858616</v>
       </c>
       <c r="N23">
-        <v>0.9697040294980339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010235391248777</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036063273927214</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.029766602632009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9549656283537898</v>
+        <v>0.9942191232347166</v>
       </c>
       <c r="D24">
-        <v>0.9659883981788826</v>
+        <v>1.015209297337561</v>
       </c>
       <c r="E24">
-        <v>0.9649767079543795</v>
+        <v>1.002479507512064</v>
       </c>
       <c r="F24">
-        <v>0.9647679111113816</v>
+        <v>1.023773236919834</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030394374993462</v>
+        <v>1.044490896441172</v>
       </c>
       <c r="J24">
-        <v>0.9843146603697819</v>
+        <v>1.021941533732884</v>
       </c>
       <c r="K24">
-        <v>0.980640335570067</v>
+        <v>1.028974483330111</v>
       </c>
       <c r="L24">
-        <v>0.9796481145622281</v>
+        <v>1.01646321968818</v>
       </c>
       <c r="M24">
-        <v>0.9794433425157205</v>
+        <v>1.037395345306738</v>
       </c>
       <c r="N24">
-        <v>0.9857125000899766</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011140048677238</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038168294065149</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031609242597823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9755935287217888</v>
+        <v>1.000407210595513</v>
       </c>
       <c r="D25">
-        <v>0.9851250625732312</v>
+        <v>1.019622440512667</v>
       </c>
       <c r="E25">
-        <v>0.9828423809833395</v>
+        <v>1.007235679946678</v>
       </c>
       <c r="F25">
-        <v>0.9851202998491086</v>
+        <v>1.028220191549425</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038096986841907</v>
+        <v>1.045485603697963</v>
       </c>
       <c r="J25">
-        <v>1.000971140672769</v>
+        <v>1.024920878246847</v>
       </c>
       <c r="K25">
-        <v>0.9979587668714601</v>
+        <v>1.031923592952014</v>
       </c>
       <c r="L25">
-        <v>0.9957130173221816</v>
+        <v>1.019722700202547</v>
       </c>
       <c r="M25">
-        <v>0.9979540809758949</v>
+        <v>1.040395669243746</v>
       </c>
       <c r="N25">
-        <v>1.002392634505519</v>
+        <v>1.012155704526629</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.04054285307624</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.033691557870322</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_13/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005165134011265</v>
+        <v>1.005163353113284</v>
       </c>
       <c r="D2">
-        <v>1.023019428975871</v>
+        <v>1.022596767523151</v>
       </c>
       <c r="E2">
-        <v>1.010911848358778</v>
+        <v>1.010920408813641</v>
       </c>
       <c r="F2">
-        <v>1.03165792016367</v>
+        <v>1.031438882798014</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046206051835365</v>
+        <v>1.046211807439536</v>
       </c>
       <c r="J2">
-        <v>1.027192446744795</v>
+        <v>1.02719071836436</v>
       </c>
       <c r="K2">
-        <v>1.034167117761458</v>
+        <v>1.03375001988366</v>
       </c>
       <c r="L2">
-        <v>1.022221228501713</v>
+        <v>1.022229672914482</v>
       </c>
       <c r="M2">
-        <v>1.042693148173331</v>
+        <v>1.042476933243323</v>
       </c>
       <c r="N2">
-        <v>1.012927530693185</v>
+        <v>1.014387787690156</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042361151211411</v>
+        <v>1.042190032011271</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035229347459112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034943233608207</v>
+      </c>
+      <c r="S2">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T2">
+        <v>1.020976529278468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008557506323243</v>
+        <v>1.008418422852386</v>
       </c>
       <c r="D3">
-        <v>1.025467373071062</v>
+        <v>1.02484708588595</v>
       </c>
       <c r="E3">
-        <v>1.013547780479876</v>
+        <v>1.013436089098521</v>
       </c>
       <c r="F3">
-        <v>1.034128799301357</v>
+        <v>1.033773687461854</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046701981307078</v>
+        <v>1.046657270178901</v>
       </c>
       <c r="J3">
-        <v>1.028817572744506</v>
+        <v>1.028682194655028</v>
       </c>
       <c r="K3">
-        <v>1.035784442716825</v>
+        <v>1.035171615950732</v>
       </c>
       <c r="L3">
-        <v>1.024010200607944</v>
+        <v>1.023899891347453</v>
       </c>
       <c r="M3">
-        <v>1.04434285263183</v>
+        <v>1.043991922360958</v>
       </c>
       <c r="N3">
-        <v>1.01348075180224</v>
+        <v>1.014790436824351</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043666777148373</v>
+        <v>1.043389040528466</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036370270419158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035945480349364</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02126690528004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010717616331734</v>
+        <v>1.010492074338585</v>
       </c>
       <c r="D4">
-        <v>1.02703276942025</v>
+        <v>1.026287145553968</v>
       </c>
       <c r="E4">
-        <v>1.015231960196464</v>
+        <v>1.015044447618483</v>
       </c>
       <c r="F4">
-        <v>1.035709007714402</v>
+        <v>1.035267839677006</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047007419779466</v>
+        <v>1.046930829251069</v>
       </c>
       <c r="J4">
-        <v>1.029851081705883</v>
+        <v>1.02963114707745</v>
       </c>
       <c r="K4">
-        <v>1.036815523247859</v>
+        <v>1.036078331313627</v>
       </c>
       <c r="L4">
-        <v>1.025149960125795</v>
+        <v>1.024964627956819</v>
       </c>
       <c r="M4">
-        <v>1.045394743435557</v>
+        <v>1.044958460303745</v>
       </c>
       <c r="N4">
-        <v>1.013832481098331</v>
+        <v>1.015046603603524</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044499274081007</v>
+        <v>1.044153987054486</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03710023836365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036587592144518</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021449908008601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011620969560528</v>
+        <v>1.011359433047717</v>
       </c>
       <c r="D5">
-        <v>1.027691452110949</v>
+        <v>1.026893512804522</v>
       </c>
       <c r="E5">
-        <v>1.015938017206798</v>
+        <v>1.015718913531515</v>
       </c>
       <c r="F5">
-        <v>1.036372432249713</v>
+        <v>1.035895386782727</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047133521646169</v>
+        <v>1.047043632858841</v>
       </c>
       <c r="J5">
-        <v>1.030284647562541</v>
+        <v>1.030029421400712</v>
       </c>
       <c r="K5">
-        <v>1.037250250941611</v>
+        <v>1.036461096964297</v>
       </c>
       <c r="L5">
-        <v>1.025627940971966</v>
+        <v>1.025411317192601</v>
       </c>
       <c r="M5">
-        <v>1.04583672515452</v>
+        <v>1.045364822638114</v>
       </c>
       <c r="N5">
-        <v>1.013980240934984</v>
+        <v>1.015154289251283</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044849070967178</v>
+        <v>1.044475593906013</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037414825394875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036866148344741</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021527171679178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011776313785854</v>
+        <v>1.011508525428833</v>
       </c>
       <c r="D6">
-        <v>1.027807801924587</v>
+        <v>1.027000852378208</v>
       </c>
       <c r="E6">
-        <v>1.016059979928522</v>
+        <v>1.015835382592377</v>
       </c>
       <c r="F6">
-        <v>1.036487783606007</v>
+        <v>1.036004544016917</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047156145020843</v>
+        <v>1.047063940046177</v>
       </c>
       <c r="J6">
-        <v>1.030361239495762</v>
+        <v>1.030099879501576</v>
       </c>
       <c r="K6">
-        <v>1.037328973988789</v>
+        <v>1.036530868578229</v>
       </c>
       <c r="L6">
-        <v>1.025711615020761</v>
+        <v>1.025489548112893</v>
       </c>
       <c r="M6">
-        <v>1.045914890508622</v>
+        <v>1.045436837022452</v>
       </c>
       <c r="N6">
-        <v>1.014006622822804</v>
+        <v>1.015173555836016</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044910933231181</v>
+        <v>1.044532588148481</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037479264196418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036925126828418</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02154188512997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01074089461456</v>
+        <v>1.010520728132765</v>
       </c>
       <c r="D7">
-        <v>1.027057739963708</v>
+        <v>1.026315627764232</v>
       </c>
       <c r="E7">
-        <v>1.015251414127537</v>
+        <v>1.015068709253844</v>
       </c>
       <c r="F7">
-        <v>1.03572923712996</v>
+        <v>1.035291066635406</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047013615152737</v>
+        <v>1.046939025340601</v>
       </c>
       <c r="J7">
-        <v>1.029867789761345</v>
+        <v>1.029653094622725</v>
       </c>
       <c r="K7">
-        <v>1.036837316033348</v>
+        <v>1.036103592714985</v>
       </c>
       <c r="L7">
-        <v>1.025166247041664</v>
+        <v>1.024985665848362</v>
       </c>
       <c r="M7">
-        <v>1.045411885659861</v>
+        <v>1.0449785650145</v>
       </c>
       <c r="N7">
-        <v>1.013838940045933</v>
+        <v>1.015078910270159</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044512840927335</v>
+        <v>1.044169898504766</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037135831179938</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036627637112262</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021457377644379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006333140474271</v>
+        <v>1.006303637005286</v>
       </c>
       <c r="D8">
-        <v>1.023870827967337</v>
+        <v>1.023395078422512</v>
       </c>
       <c r="E8">
-        <v>1.011819864886512</v>
+        <v>1.011804528782427</v>
       </c>
       <c r="F8">
-        <v>1.03251115461413</v>
+        <v>1.032257398500237</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04638257462567</v>
+        <v>1.046378302662401</v>
       </c>
       <c r="J8">
-        <v>1.027759213341945</v>
+        <v>1.027730551066367</v>
       </c>
       <c r="K8">
-        <v>1.034736877606867</v>
+        <v>1.034267205800756</v>
       </c>
       <c r="L8">
-        <v>1.022842073959545</v>
+        <v>1.022826939555346</v>
       </c>
       <c r="M8">
-        <v>1.043268038394815</v>
+        <v>1.043017455879169</v>
       </c>
       <c r="N8">
-        <v>1.013121490476855</v>
+        <v>1.014612676347493</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042816136963051</v>
+        <v>1.042617818310503</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035655221910897</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035334199803444</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021086670465266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9982696458410305</v>
+        <v>0.9985757395761189</v>
       </c>
       <c r="D9">
-        <v>1.018081747161838</v>
+        <v>1.018081211097402</v>
       </c>
       <c r="E9">
-        <v>1.005586750301148</v>
+        <v>1.005864704850996</v>
       </c>
       <c r="F9">
-        <v>1.026674724233426</v>
+        <v>1.02675002639581</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045143376034453</v>
+        <v>1.045261853352754</v>
       </c>
       <c r="J9">
-        <v>1.02388365569127</v>
+        <v>1.024178892593114</v>
       </c>
       <c r="K9">
-        <v>1.030888117677563</v>
+        <v>1.030887589920179</v>
       </c>
       <c r="L9">
-        <v>1.018589832042021</v>
+        <v>1.01886334256521</v>
       </c>
       <c r="M9">
-        <v>1.039349355267328</v>
+        <v>1.039423515387813</v>
       </c>
       <c r="N9">
-        <v>1.011800846642718</v>
+        <v>1.01366257679022</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039714765290375</v>
+        <v>1.039773458115081</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.032930677829405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032941100908554</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020382390253041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9927443643230944</v>
+        <v>0.9933114083894516</v>
       </c>
       <c r="D10">
-        <v>1.014180956215342</v>
+        <v>1.014526318854307</v>
       </c>
       <c r="E10">
-        <v>1.001355647576889</v>
+        <v>1.001861240739786</v>
       </c>
       <c r="F10">
-        <v>1.02279181817466</v>
+        <v>1.02311055298041</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044259627496638</v>
+        <v>1.044472837319489</v>
       </c>
       <c r="J10">
-        <v>1.021248840411214</v>
+        <v>1.021792936081534</v>
       </c>
       <c r="K10">
-        <v>1.028298804143677</v>
+        <v>1.028638157521736</v>
       </c>
       <c r="L10">
-        <v>1.015700468450936</v>
+        <v>1.016196971030582</v>
       </c>
       <c r="M10">
-        <v>1.036761401984544</v>
+        <v>1.037074710581035</v>
       </c>
       <c r="N10">
-        <v>1.010906471052999</v>
+        <v>1.013137326264358</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.037718054502963</v>
+        <v>1.03796600268724</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031116755317457</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031369179348406</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019911563224511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9907093692742361</v>
+        <v>0.9913845035015288</v>
       </c>
       <c r="D11">
-        <v>1.012964752744254</v>
+        <v>1.013432315633054</v>
       </c>
       <c r="E11">
-        <v>0.9998580401496682</v>
+        <v>1.00045705109397</v>
       </c>
       <c r="F11">
-        <v>1.021976985150446</v>
+        <v>1.022383364436674</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044053799507656</v>
+        <v>1.04430378593201</v>
       </c>
       <c r="J11">
-        <v>1.02047382287862</v>
+        <v>1.021120141981473</v>
       </c>
       <c r="K11">
-        <v>1.027646245565626</v>
+        <v>1.028105287339352</v>
       </c>
       <c r="L11">
-        <v>1.014782634122123</v>
+        <v>1.015370353245006</v>
       </c>
       <c r="M11">
-        <v>1.03649601685678</v>
+        <v>1.036895158047945</v>
       </c>
       <c r="N11">
-        <v>1.01067468385177</v>
+        <v>1.013205873411335</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037944508872617</v>
+        <v>1.038260224773692</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.030688397883537</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03102865781776</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019851711969027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9900901866393127</v>
+        <v>0.9907883958362672</v>
       </c>
       <c r="D12">
-        <v>1.012678217193274</v>
+        <v>1.013169334478022</v>
       </c>
       <c r="E12">
-        <v>0.9994269828195366</v>
+        <v>1.000044951074655</v>
       </c>
       <c r="F12">
-        <v>1.021987521336929</v>
+        <v>1.022410108794506</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044045302439929</v>
+        <v>1.044301266855422</v>
       </c>
       <c r="J12">
-        <v>1.020319950697709</v>
+        <v>1.020987789276774</v>
       </c>
       <c r="K12">
-        <v>1.027566487738687</v>
+        <v>1.028048506440625</v>
       </c>
       <c r="L12">
-        <v>1.014565169174221</v>
+        <v>1.015171289943513</v>
       </c>
       <c r="M12">
-        <v>1.036705260186803</v>
+        <v>1.037120202322806</v>
       </c>
       <c r="N12">
-        <v>1.010647614143</v>
+        <v>1.013288890539242</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038436523026412</v>
+        <v>1.038764626139181</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.030632005911035</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030988512335941</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019877313418738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9905339785694065</v>
+        <v>0.9911810379071905</v>
       </c>
       <c r="D13">
-        <v>1.013109060707152</v>
+        <v>1.01354113963033</v>
       </c>
       <c r="E13">
-        <v>0.9997988324196738</v>
+        <v>1.000370652658175</v>
       </c>
       <c r="F13">
-        <v>1.022659694314922</v>
+        <v>1.023037985038255</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044198916772093</v>
+        <v>1.044433864338805</v>
       </c>
       <c r="J13">
-        <v>1.020650323052916</v>
+        <v>1.021269373698904</v>
       </c>
       <c r="K13">
-        <v>1.027946143106645</v>
+        <v>1.02837025224581</v>
       </c>
       <c r="L13">
-        <v>1.014885840628061</v>
+        <v>1.015446744935417</v>
       </c>
       <c r="M13">
-        <v>1.037322654815709</v>
+        <v>1.037694135736769</v>
       </c>
       <c r="N13">
-        <v>1.01078289052911</v>
+        <v>1.01335771240501</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039201399019219</v>
+        <v>1.039495062641178</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.030897930832464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031213245833692</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019976230284341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9913275096016447</v>
+        <v>0.9919058020082561</v>
       </c>
       <c r="D14">
-        <v>1.013737389814663</v>
+        <v>1.014091312718411</v>
       </c>
       <c r="E14">
-        <v>1.000424030997162</v>
+        <v>1.000934728553226</v>
       </c>
       <c r="F14">
-        <v>1.023430353139542</v>
+        <v>1.023750763322775</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044379860538129</v>
+        <v>1.044588259673793</v>
       </c>
       <c r="J14">
-        <v>1.021101755223263</v>
+        <v>1.021655370887943</v>
       </c>
       <c r="K14">
-        <v>1.028421442631983</v>
+        <v>1.028768918884253</v>
       </c>
       <c r="L14">
-        <v>1.015354913512072</v>
+        <v>1.015855984516051</v>
       </c>
       <c r="M14">
-        <v>1.037939940952233</v>
+        <v>1.038254657225826</v>
       </c>
       <c r="N14">
-        <v>1.01095151507543</v>
+        <v>1.013400981949315</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039862670472168</v>
+        <v>1.040111426836499</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03123541919784</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031496683895849</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020079355605057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9917572305029303</v>
+        <v>0.9923028928836697</v>
       </c>
       <c r="D15">
-        <v>1.014056489358439</v>
+        <v>1.014373256290732</v>
       </c>
       <c r="E15">
-        <v>1.000756151549214</v>
+        <v>1.00123808286754</v>
       </c>
       <c r="F15">
-        <v>1.023778130187142</v>
+        <v>1.024071284284736</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044462218255247</v>
+        <v>1.044658444260419</v>
       </c>
       <c r="J15">
-        <v>1.021323793215202</v>
+        <v>1.02184637303633</v>
       </c>
       <c r="K15">
-        <v>1.028647618779741</v>
+        <v>1.028958659714363</v>
       </c>
       <c r="L15">
-        <v>1.01559197364659</v>
+        <v>1.016064890478933</v>
       </c>
       <c r="M15">
-        <v>1.038195620784184</v>
+        <v>1.038483605226653</v>
       </c>
       <c r="N15">
-        <v>1.011030439235655</v>
+        <v>1.013413185584418</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040102292351982</v>
+        <v>1.040329913490781</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03140123723453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031637308137149</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020123580314822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9940082216963789</v>
+        <v>0.9944097124608958</v>
       </c>
       <c r="D16">
-        <v>1.015629263440952</v>
+        <v>1.015777873691472</v>
       </c>
       <c r="E16">
-        <v>1.002468041398818</v>
+        <v>1.002824059953927</v>
       </c>
       <c r="F16">
-        <v>1.025323388259004</v>
+        <v>1.02549516377825</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044822110958574</v>
+        <v>1.044966557320306</v>
       </c>
       <c r="J16">
-        <v>1.02238404642597</v>
+        <v>1.022769395405819</v>
       </c>
       <c r="K16">
-        <v>1.029686080083641</v>
+        <v>1.029832120966202</v>
       </c>
       <c r="L16">
-        <v>1.016756329938898</v>
+        <v>1.017105983224553</v>
       </c>
       <c r="M16">
-        <v>1.039214613165257</v>
+        <v>1.039383490888077</v>
       </c>
       <c r="N16">
-        <v>1.011386070984561</v>
+        <v>1.013452502846187</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040868988484287</v>
+        <v>1.041002472192884</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032138656759065</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032258362182283</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02030066077923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,105 +1369,123 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9953221050048627</v>
+        <v>0.995656303649101</v>
       </c>
       <c r="D17">
-        <v>1.016509171393524</v>
+        <v>1.016575139561889</v>
       </c>
       <c r="E17">
-        <v>1.003457423898414</v>
+        <v>1.003755203925147</v>
       </c>
       <c r="F17">
-        <v>1.026101841294963</v>
+        <v>1.026215246748066</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045000915685849</v>
+        <v>1.045122057336437</v>
       </c>
       <c r="J17">
-        <v>1.022961242355641</v>
+        <v>1.023282433181957</v>
       </c>
       <c r="K17">
-        <v>1.030233797240961</v>
+        <v>1.0302986567806</v>
       </c>
       <c r="L17">
-        <v>1.017405102310491</v>
+        <v>1.017697709628709</v>
       </c>
       <c r="M17">
-        <v>1.039667182097268</v>
+        <v>1.039778727368853</v>
       </c>
       <c r="N17">
-        <v>1.011570567573411</v>
+        <v>1.01348880749044</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041097686115725</v>
+        <v>1.041185862094179</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032528518274572</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032591071143679</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020383447880262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9959406658997126</v>
+        <v>0.996259504291149</v>
       </c>
       <c r="D18">
-        <v>1.016846329767985</v>
+        <v>1.016890741909952</v>
       </c>
       <c r="E18">
-        <v>1.003903064553207</v>
+        <v>1.004188381832352</v>
       </c>
       <c r="F18">
-        <v>1.026243282985877</v>
+        <v>1.026342757673619</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045033820122363</v>
+        <v>1.045151091177275</v>
       </c>
       <c r="J18">
-        <v>1.023157912043402</v>
+        <v>1.02346457165701</v>
       </c>
       <c r="K18">
-        <v>1.030380474283166</v>
+        <v>1.030424152199603</v>
       </c>
       <c r="L18">
-        <v>1.017654764413833</v>
+        <v>1.017935207884044</v>
       </c>
       <c r="M18">
-        <v>1.039623893487112</v>
+        <v>1.039721762189344</v>
       </c>
       <c r="N18">
-        <v>1.011617710266389</v>
+        <v>1.013483366896412</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04082578760086</v>
+        <v>1.040903168442663</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032620530418014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032666972982922</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020382481661008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9959446222085618</v>
+        <v>0.996288085898158</v>
       </c>
       <c r="D19">
-        <v>1.016711183115868</v>
+        <v>1.016783976006096</v>
       </c>
       <c r="E19">
-        <v>1.003869627130399</v>
+        <v>1.004177631286533</v>
       </c>
       <c r="F19">
-        <v>1.025816481750159</v>
+        <v>1.025937752534487</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044943275472671</v>
+        <v>1.045071576476268</v>
       </c>
       <c r="J19">
-        <v>1.023026188274429</v>
+        <v>1.023356609975106</v>
       </c>
       <c r="K19">
-        <v>1.030184531343765</v>
+        <v>1.030256126878792</v>
       </c>
       <c r="L19">
-        <v>1.01755771163424</v>
+        <v>1.017860482361818</v>
       </c>
       <c r="M19">
-        <v>1.039141750714137</v>
+        <v>1.039261072028466</v>
       </c>
       <c r="N19">
-        <v>1.011549162729741</v>
+        <v>1.013426293582918</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040119033369152</v>
+        <v>1.040213406762305</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.032488418853612</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032555225361546</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020312430655697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9942054701156841</v>
+        <v>0.9946838868513647</v>
       </c>
       <c r="D20">
-        <v>1.015231222489136</v>
+        <v>1.015470392431954</v>
       </c>
       <c r="E20">
-        <v>1.002476156393361</v>
+        <v>1.002903985171578</v>
       </c>
       <c r="F20">
-        <v>1.023828064347662</v>
+        <v>1.024070170791104</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044505052808867</v>
+        <v>1.044685758448996</v>
       </c>
       <c r="J20">
-        <v>1.021961603167434</v>
+        <v>1.02242128511211</v>
       </c>
       <c r="K20">
-        <v>1.029011434064408</v>
+        <v>1.029246560974842</v>
       </c>
       <c r="L20">
-        <v>1.016475604868597</v>
+        <v>1.016895962979546</v>
       </c>
       <c r="M20">
-        <v>1.037464478156374</v>
+        <v>1.037702579917471</v>
       </c>
       <c r="N20">
-        <v>1.01115088912148</v>
+        <v>1.013210153604411</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038263906903297</v>
+        <v>1.038452339695479</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031662929536984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03184575318324</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02004288202789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9899866973250225</v>
+        <v>0.9907620068380569</v>
       </c>
       <c r="D21">
-        <v>1.012222074345718</v>
+        <v>1.012801637373912</v>
       </c>
       <c r="E21">
-        <v>0.9992473510644668</v>
+        <v>0.9999364580341633</v>
       </c>
       <c r="F21">
-        <v>1.020758222838241</v>
+        <v>1.021248979217035</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043787114589817</v>
+        <v>1.044077591200532</v>
       </c>
       <c r="J21">
-        <v>1.019909119377402</v>
+        <v>1.02065110754914</v>
       </c>
       <c r="K21">
-        <v>1.026975537298079</v>
+        <v>1.027544470899373</v>
       </c>
       <c r="L21">
-        <v>1.014242996654179</v>
+        <v>1.014919034337771</v>
       </c>
       <c r="M21">
-        <v>1.035356714782935</v>
+        <v>1.035838663943335</v>
       </c>
       <c r="N21">
-        <v>1.010448240673312</v>
+        <v>1.01314605977501</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036554847625411</v>
+        <v>1.036936280072567</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030226706370964</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030645878751798</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01968155520034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9872989484381156</v>
+        <v>0.9882621398359123</v>
       </c>
       <c r="D22">
-        <v>1.010318422882241</v>
+        <v>1.011112800696522</v>
       </c>
       <c r="E22">
-        <v>0.997199489675294</v>
+        <v>0.9980538675969046</v>
       </c>
       <c r="F22">
-        <v>1.018846445716405</v>
+        <v>1.019494562386611</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043324551439795</v>
+        <v>1.043684608477601</v>
       </c>
       <c r="J22">
-        <v>1.018606905733562</v>
+        <v>1.019526306531034</v>
       </c>
       <c r="K22">
-        <v>1.025688204207742</v>
+        <v>1.026467279220101</v>
       </c>
       <c r="L22">
-        <v>1.012826630118426</v>
+        <v>1.01366397658667</v>
       </c>
       <c r="M22">
-        <v>1.034053573484644</v>
+        <v>1.034689474078163</v>
       </c>
       <c r="N22">
-        <v>1.010003172530908</v>
+        <v>1.013098517098969</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035523492225651</v>
+        <v>1.036026768237158</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.02930290561226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029869364548556</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019452113674056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9887172029232616</v>
+        <v>0.9895706530330723</v>
       </c>
       <c r="D23">
-        <v>1.01131484432631</v>
+        <v>1.01198776706502</v>
       </c>
       <c r="E23">
-        <v>0.998277876984599</v>
+        <v>0.9990355113786403</v>
       </c>
       <c r="F23">
-        <v>1.019851355306401</v>
+        <v>1.020409738782076</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043567000642291</v>
+        <v>1.043886238767444</v>
       </c>
       <c r="J23">
-        <v>1.019288814568225</v>
+        <v>1.020104593531328</v>
       </c>
       <c r="K23">
-        <v>1.026357736778192</v>
+        <v>1.027018026604034</v>
       </c>
       <c r="L23">
-        <v>1.013569922334538</v>
+        <v>1.014312844087589</v>
       </c>
       <c r="M23">
-        <v>1.034735599858616</v>
+        <v>1.035283726457856</v>
       </c>
       <c r="N23">
-        <v>1.010235391248777</v>
+        <v>1.013078795618601</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036063273927214</v>
+        <v>1.036497081939032</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.029766602632009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030248132171043</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019566870788244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9942191232347166</v>
+        <v>0.9947000253557966</v>
       </c>
       <c r="D24">
-        <v>1.015209297337561</v>
+        <v>1.015451283359925</v>
       </c>
       <c r="E24">
-        <v>1.002479507512064</v>
+        <v>1.002909676217722</v>
       </c>
       <c r="F24">
-        <v>1.023773236919834</v>
+        <v>1.024017579970318</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044490896441172</v>
+        <v>1.044672793045251</v>
       </c>
       <c r="J24">
-        <v>1.021941533732884</v>
+        <v>1.022403631023148</v>
       </c>
       <c r="K24">
-        <v>1.028974483330111</v>
+        <v>1.029212383753804</v>
       </c>
       <c r="L24">
-        <v>1.01646321968818</v>
+        <v>1.016885886632936</v>
       </c>
       <c r="M24">
-        <v>1.037395345306738</v>
+        <v>1.037635651309352</v>
       </c>
       <c r="N24">
-        <v>1.011140048677238</v>
+        <v>1.013198567496014</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038168294065149</v>
+        <v>1.038358480746723</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031609242597823</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.031791358733451</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020028571666154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000407210595513</v>
+        <v>1.000614871304243</v>
       </c>
       <c r="D25">
-        <v>1.019622440512667</v>
+        <v>1.019489112416052</v>
       </c>
       <c r="E25">
-        <v>1.007235679946678</v>
+        <v>1.007427533516361</v>
       </c>
       <c r="F25">
-        <v>1.028220191549425</v>
+        <v>1.028202436063492</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045485603697963</v>
+        <v>1.045568068955528</v>
       </c>
       <c r="J25">
-        <v>1.024920878246847</v>
+        <v>1.025121560281116</v>
       </c>
       <c r="K25">
-        <v>1.031923592952014</v>
+        <v>1.031792234938391</v>
       </c>
       <c r="L25">
-        <v>1.019722700202547</v>
+        <v>1.019911630513987</v>
       </c>
       <c r="M25">
-        <v>1.040395669243746</v>
+        <v>1.040378170547726</v>
       </c>
       <c r="N25">
-        <v>1.012155704526629</v>
+        <v>1.013885472383971</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04054285307624</v>
+        <v>1.040529004032285</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.033691557870322</v>
+        <v>1.033612274717159</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020574999147191</v>
       </c>
     </row>
   </sheetData>
